--- a/shared_count_record.xlsx
+++ b/shared_count_record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freshfromflorida-my.sharepoint.com/personal/austin_fife_fdacs_gov/Documents/Documents/rearing_logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freshfromflorida-my.sharepoint.com/personal/austin_fife_fdacs_gov/Documents/Documents/rearing_logs/tamarixia_yield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F902AA-41E2-40EF-8FDE-DCB8D47A883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{49F902AA-41E2-40EF-8FDE-DCB8D47A883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99B8353-22C3-4F72-B83A-3BF42E4AE7C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{9DEB62A3-1DBF-4FA6-8475-4AF3DC92AC4B}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12735" xr2:uid="{9DEB62A3-1DBF-4FA6-8475-4AF3DC92AC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="yield" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="31">
   <si>
     <t>PD</t>
   </si>
@@ -79,13 +79,55 @@
     <t>Yld</t>
   </si>
   <si>
-    <t>Rearing Host</t>
-  </si>
-  <si>
     <t>Pests</t>
   </si>
   <si>
     <t>Barn</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>Mix (OJ/Curry)</t>
+  </si>
+  <si>
+    <t>ANTS</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>APHIDS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Count 1</t>
+  </si>
+  <si>
+    <t>Count 2</t>
+  </si>
+  <si>
+    <t>Count 3</t>
+  </si>
+  <si>
+    <t>Count 4</t>
+  </si>
+  <si>
+    <t>Count 5</t>
+  </si>
+  <si>
+    <t>Count 6</t>
+  </si>
+  <si>
+    <t>Psyllids</t>
+  </si>
+  <si>
+    <t>Yield</t>
   </si>
 </sst>
 </file>
@@ -144,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -176,6 +218,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +539,3926 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEF57C7-18C7-4EA6-B915-108ED055D974}">
+  <dimension ref="A1:V57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>212</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1116202</v>
+      </c>
+      <c r="C2" s="11">
+        <v>200</v>
+      </c>
+      <c r="D2" s="12">
+        <v>44173</v>
+      </c>
+      <c r="E2" s="11">
+        <v>16</v>
+      </c>
+      <c r="F2" s="12">
+        <v>44174</v>
+      </c>
+      <c r="G2" s="11">
+        <v>39</v>
+      </c>
+      <c r="H2" s="12">
+        <v>44175</v>
+      </c>
+      <c r="I2" s="11">
+        <v>19</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="12">
+        <v>44179</v>
+      </c>
+      <c r="O2" s="11">
+        <v>36</v>
+      </c>
+      <c r="P2" s="11">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0</v>
+      </c>
+      <c r="U2" s="11">
+        <v>3</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>213</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1117201</v>
+      </c>
+      <c r="C3" s="11">
+        <v>200</v>
+      </c>
+      <c r="D3" s="12">
+        <v>44172</v>
+      </c>
+      <c r="E3" s="11">
+        <v>40</v>
+      </c>
+      <c r="F3" s="12">
+        <v>44173</v>
+      </c>
+      <c r="G3" s="11">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12">
+        <v>44174</v>
+      </c>
+      <c r="I3" s="11">
+        <v>36</v>
+      </c>
+      <c r="J3" s="12">
+        <v>44175</v>
+      </c>
+      <c r="K3" s="11">
+        <v>19</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="12">
+        <v>44182</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0</v>
+      </c>
+      <c r="T3" s="11">
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
+        <v>3</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>214</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1117202</v>
+      </c>
+      <c r="C4" s="11">
+        <v>200</v>
+      </c>
+      <c r="D4" s="12">
+        <v>44172</v>
+      </c>
+      <c r="E4" s="11">
+        <v>29</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44173</v>
+      </c>
+      <c r="G4" s="11">
+        <v>14</v>
+      </c>
+      <c r="H4" s="12">
+        <v>36869</v>
+      </c>
+      <c r="I4" s="11">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="12">
+        <v>44182</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11">
+        <v>0</v>
+      </c>
+      <c r="U4" s="11">
+        <v>3</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>215</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1117203</v>
+      </c>
+      <c r="C5" s="11">
+        <v>200</v>
+      </c>
+      <c r="D5" s="12">
+        <v>44172</v>
+      </c>
+      <c r="E5" s="11">
+        <v>22</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44173</v>
+      </c>
+      <c r="G5" s="11">
+        <v>24</v>
+      </c>
+      <c r="H5" s="12">
+        <v>44174</v>
+      </c>
+      <c r="I5" s="11">
+        <v>47</v>
+      </c>
+      <c r="J5" s="12">
+        <v>44175</v>
+      </c>
+      <c r="K5" s="11">
+        <v>17</v>
+      </c>
+      <c r="L5" s="12">
+        <v>44176</v>
+      </c>
+      <c r="M5" s="11">
+        <v>86</v>
+      </c>
+      <c r="N5" s="12">
+        <v>44183</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>196</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>12</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <v>3</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>216</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1118201</v>
+      </c>
+      <c r="C6" s="11">
+        <v>200</v>
+      </c>
+      <c r="D6" s="12">
+        <v>44172</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44173</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12">
+        <v>44174</v>
+      </c>
+      <c r="I6" s="11">
+        <v>12</v>
+      </c>
+      <c r="J6" s="12">
+        <v>44175</v>
+      </c>
+      <c r="K6" s="11">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12">
+        <v>44176</v>
+      </c>
+      <c r="M6" s="11">
+        <v>259</v>
+      </c>
+      <c r="N6" s="12">
+        <v>44186</v>
+      </c>
+      <c r="O6" s="11">
+        <v>20</v>
+      </c>
+      <c r="P6" s="11">
+        <v>301</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <v>150</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <v>3</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>217</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1118202</v>
+      </c>
+      <c r="C7" s="11">
+        <v>200</v>
+      </c>
+      <c r="D7" s="12">
+        <v>44172</v>
+      </c>
+      <c r="E7" s="11">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12">
+        <v>44173</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="12">
+        <v>44174</v>
+      </c>
+      <c r="I7" s="11">
+        <v>9</v>
+      </c>
+      <c r="J7" s="12">
+        <v>44175</v>
+      </c>
+      <c r="K7" s="11">
+        <v>17</v>
+      </c>
+      <c r="L7" s="12">
+        <v>44181</v>
+      </c>
+      <c r="M7" s="11">
+        <v>88</v>
+      </c>
+      <c r="N7" s="12">
+        <v>44186</v>
+      </c>
+      <c r="O7" s="11">
+        <v>6</v>
+      </c>
+      <c r="P7" s="11">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>5</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>3</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>218</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1120201</v>
+      </c>
+      <c r="C8" s="11">
+        <v>200</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="12">
+        <v>44186</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>2</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>3</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>219</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1120202</v>
+      </c>
+      <c r="C9" s="11">
+        <v>200</v>
+      </c>
+      <c r="D9" s="12">
+        <v>44176</v>
+      </c>
+      <c r="E9" s="11">
+        <v>25</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44179</v>
+      </c>
+      <c r="G9" s="11">
+        <v>73</v>
+      </c>
+      <c r="H9" s="12">
+        <v>44181</v>
+      </c>
+      <c r="I9" s="11">
+        <v>30</v>
+      </c>
+      <c r="J9" s="12">
+        <v>44182</v>
+      </c>
+      <c r="K9" s="11">
+        <v>20</v>
+      </c>
+      <c r="L9" s="12">
+        <v>44183</v>
+      </c>
+      <c r="M9" s="11">
+        <v>14</v>
+      </c>
+      <c r="N9" s="12">
+        <v>44186</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>162</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <v>3</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>220</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1123202</v>
+      </c>
+      <c r="C10" s="11">
+        <v>200</v>
+      </c>
+      <c r="D10" s="12">
+        <v>44179</v>
+      </c>
+      <c r="E10" s="11">
+        <v>19</v>
+      </c>
+      <c r="F10" s="12">
+        <v>44181</v>
+      </c>
+      <c r="G10" s="11">
+        <v>56</v>
+      </c>
+      <c r="H10" s="12">
+        <v>44182</v>
+      </c>
+      <c r="I10" s="11">
+        <v>80</v>
+      </c>
+      <c r="J10" s="12">
+        <v>44183</v>
+      </c>
+      <c r="K10" s="11">
+        <v>70</v>
+      </c>
+      <c r="L10" s="12">
+        <v>44186</v>
+      </c>
+      <c r="M10" s="11">
+        <v>99</v>
+      </c>
+      <c r="N10" s="12">
+        <v>44187</v>
+      </c>
+      <c r="O10" s="11">
+        <v>31</v>
+      </c>
+      <c r="P10" s="11">
+        <v>355</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>40</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0</v>
+      </c>
+      <c r="U10" s="11">
+        <v>3</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>221</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1123201</v>
+      </c>
+      <c r="C11" s="11">
+        <v>200</v>
+      </c>
+      <c r="D11" s="12">
+        <v>44182</v>
+      </c>
+      <c r="E11" s="11">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12">
+        <v>44183</v>
+      </c>
+      <c r="G11" s="11">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12">
+        <v>44186</v>
+      </c>
+      <c r="I11" s="11">
+        <v>17</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="12">
+        <v>44187</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>3</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>222</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1125201</v>
+      </c>
+      <c r="C12" s="11">
+        <v>200</v>
+      </c>
+      <c r="D12" s="12">
+        <v>44179</v>
+      </c>
+      <c r="E12" s="11">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12">
+        <v>44182</v>
+      </c>
+      <c r="G12" s="11">
+        <v>34</v>
+      </c>
+      <c r="H12" s="12">
+        <v>44183</v>
+      </c>
+      <c r="I12" s="11">
+        <v>20</v>
+      </c>
+      <c r="J12" s="12">
+        <v>44186</v>
+      </c>
+      <c r="K12" s="11">
+        <v>86</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="12">
+        <v>44187</v>
+      </c>
+      <c r="O12" s="11">
+        <v>29</v>
+      </c>
+      <c r="P12" s="11">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
+        <v>25</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
+      <c r="T12" s="11">
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <v>3</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>223</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1125202</v>
+      </c>
+      <c r="C13" s="11">
+        <v>200</v>
+      </c>
+      <c r="D13" s="12">
+        <v>44182</v>
+      </c>
+      <c r="E13" s="11">
+        <v>22</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44183</v>
+      </c>
+      <c r="G13" s="11">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12">
+        <v>44186</v>
+      </c>
+      <c r="I13" s="11">
+        <v>58</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="12">
+        <v>44187</v>
+      </c>
+      <c r="O13" s="11">
+        <v>28</v>
+      </c>
+      <c r="P13" s="11">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>50</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>3</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>112</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1207202</v>
+      </c>
+      <c r="C14" s="11">
+        <v>150</v>
+      </c>
+      <c r="D14" s="12">
+        <v>44193</v>
+      </c>
+      <c r="E14" s="11">
+        <v>25</v>
+      </c>
+      <c r="F14" s="12">
+        <v>44194</v>
+      </c>
+      <c r="G14" s="11">
+        <v>17</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="12">
+        <v>44200</v>
+      </c>
+      <c r="O14" s="11">
+        <v>8</v>
+      </c>
+      <c r="P14" s="11">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>2</v>
+      </c>
+      <c r="R14" s="11">
+        <v>12</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="11">
+        <v>1</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>113</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1208201</v>
+      </c>
+      <c r="C15" s="11">
+        <v>180</v>
+      </c>
+      <c r="D15" s="12">
+        <v>44194</v>
+      </c>
+      <c r="E15" s="11">
+        <v>16</v>
+      </c>
+      <c r="F15" s="12">
+        <v>44200</v>
+      </c>
+      <c r="G15" s="11">
+        <v>23</v>
+      </c>
+      <c r="H15" s="12">
+        <v>44201</v>
+      </c>
+      <c r="I15" s="11">
+        <v>14</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="12">
+        <v>44203</v>
+      </c>
+      <c r="O15" s="11">
+        <v>9</v>
+      </c>
+      <c r="P15" s="11">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>4</v>
+      </c>
+      <c r="R15" s="11">
+        <v>5</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <v>1</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>114</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1208202</v>
+      </c>
+      <c r="C16" s="11">
+        <v>180</v>
+      </c>
+      <c r="D16" s="12">
+        <v>44194</v>
+      </c>
+      <c r="E16" s="11">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12">
+        <v>44200</v>
+      </c>
+      <c r="G16" s="11">
+        <v>11</v>
+      </c>
+      <c r="H16" s="12">
+        <v>44201</v>
+      </c>
+      <c r="I16" s="11">
+        <v>10</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="12">
+        <v>44203</v>
+      </c>
+      <c r="O16" s="11">
+        <v>14</v>
+      </c>
+      <c r="P16" s="11">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>6</v>
+      </c>
+      <c r="R16" s="11">
+        <v>20</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="11">
+        <v>1</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>115</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1209201</v>
+      </c>
+      <c r="C17" s="11">
+        <v>110</v>
+      </c>
+      <c r="D17" s="12">
+        <v>44194</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12">
+        <v>44200</v>
+      </c>
+      <c r="G17" s="11">
+        <v>103</v>
+      </c>
+      <c r="H17" s="12">
+        <v>44201</v>
+      </c>
+      <c r="I17" s="11">
+        <v>70</v>
+      </c>
+      <c r="J17" s="12">
+        <v>44202</v>
+      </c>
+      <c r="K17" s="11">
+        <v>53</v>
+      </c>
+      <c r="L17" s="12">
+        <v>44203</v>
+      </c>
+      <c r="M17" s="11">
+        <v>82</v>
+      </c>
+      <c r="N17" s="12">
+        <v>44207</v>
+      </c>
+      <c r="O17" s="11">
+        <v>15</v>
+      </c>
+      <c r="P17" s="11">
+        <v>327</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>1</v>
+      </c>
+      <c r="R17" s="11">
+        <v>30</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>1</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>116</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1209202</v>
+      </c>
+      <c r="C18" s="11">
+        <v>103</v>
+      </c>
+      <c r="D18" s="12">
+        <v>44194</v>
+      </c>
+      <c r="E18" s="11">
+        <v>3</v>
+      </c>
+      <c r="F18" s="12">
+        <v>44200</v>
+      </c>
+      <c r="G18" s="11">
+        <v>26</v>
+      </c>
+      <c r="H18" s="12">
+        <v>44201</v>
+      </c>
+      <c r="I18" s="11">
+        <v>26</v>
+      </c>
+      <c r="J18" s="12">
+        <v>44202</v>
+      </c>
+      <c r="K18" s="11">
+        <v>36</v>
+      </c>
+      <c r="L18" s="12">
+        <v>44203</v>
+      </c>
+      <c r="M18" s="11">
+        <v>23</v>
+      </c>
+      <c r="N18" s="12">
+        <v>44207</v>
+      </c>
+      <c r="O18" s="11">
+        <v>11</v>
+      </c>
+      <c r="P18" s="11">
+        <v>125</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>3</v>
+      </c>
+      <c r="R18" s="11">
+        <v>22</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="11">
+        <v>1</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>117</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1211201</v>
+      </c>
+      <c r="C19" s="11">
+        <v>200</v>
+      </c>
+      <c r="D19" s="12">
+        <v>44200</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="12">
+        <v>44204</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>1</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>118</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1211202</v>
+      </c>
+      <c r="C20" s="11">
+        <v>200</v>
+      </c>
+      <c r="D20" s="12">
+        <v>44200</v>
+      </c>
+      <c r="E20" s="11">
+        <v>79</v>
+      </c>
+      <c r="F20" s="12">
+        <v>44201</v>
+      </c>
+      <c r="G20" s="11">
+        <v>59</v>
+      </c>
+      <c r="H20" s="12">
+        <v>44202</v>
+      </c>
+      <c r="I20" s="11">
+        <v>41</v>
+      </c>
+      <c r="J20" s="12">
+        <v>44203</v>
+      </c>
+      <c r="K20" s="11">
+        <v>37</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="12">
+        <v>44207</v>
+      </c>
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <v>216</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>2</v>
+      </c>
+      <c r="R20" s="11">
+        <v>0</v>
+      </c>
+      <c r="S20" s="11">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="11">
+        <v>1</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>119</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1215201</v>
+      </c>
+      <c r="C21" s="11">
+        <v>200</v>
+      </c>
+      <c r="D21" s="12">
+        <v>44200</v>
+      </c>
+      <c r="E21" s="11">
+        <v>3</v>
+      </c>
+      <c r="F21" s="12">
+        <v>44203</v>
+      </c>
+      <c r="G21" s="11">
+        <v>5</v>
+      </c>
+      <c r="H21" s="12">
+        <v>44207</v>
+      </c>
+      <c r="I21" s="11">
+        <v>14</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="12">
+        <v>44208</v>
+      </c>
+      <c r="O21" s="11">
+        <v>22</v>
+      </c>
+      <c r="P21" s="11">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>40</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="11">
+        <v>1</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>120</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1214201</v>
+      </c>
+      <c r="C22" s="11">
+        <v>200</v>
+      </c>
+      <c r="D22" s="12">
+        <v>44200</v>
+      </c>
+      <c r="E22" s="11">
+        <v>10</v>
+      </c>
+      <c r="F22" s="12">
+        <v>44201</v>
+      </c>
+      <c r="G22" s="11">
+        <v>12</v>
+      </c>
+      <c r="H22" s="12">
+        <v>44203</v>
+      </c>
+      <c r="I22" s="11">
+        <v>18</v>
+      </c>
+      <c r="J22" s="12">
+        <v>44207</v>
+      </c>
+      <c r="K22" s="11">
+        <v>8</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="12">
+        <v>44208</v>
+      </c>
+      <c r="O22" s="11">
+        <v>4</v>
+      </c>
+      <c r="P22" s="11">
+        <v>52</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11">
+        <v>30</v>
+      </c>
+      <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
+        <v>1</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>121</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1216201</v>
+      </c>
+      <c r="C23" s="11">
+        <v>200</v>
+      </c>
+      <c r="D23" s="12">
+        <v>44200</v>
+      </c>
+      <c r="E23" s="11">
+        <v>19</v>
+      </c>
+      <c r="F23" s="12">
+        <v>44201</v>
+      </c>
+      <c r="G23" s="11">
+        <v>9</v>
+      </c>
+      <c r="H23" s="12">
+        <v>44207</v>
+      </c>
+      <c r="I23" s="11">
+        <v>15</v>
+      </c>
+      <c r="J23" s="12">
+        <v>44208</v>
+      </c>
+      <c r="K23" s="11">
+        <v>4</v>
+      </c>
+      <c r="L23" s="12">
+        <v>44209</v>
+      </c>
+      <c r="M23" s="11">
+        <v>6</v>
+      </c>
+      <c r="N23" s="12">
+        <v>44210</v>
+      </c>
+      <c r="O23" s="11">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>60</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>1</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>122</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1216202</v>
+      </c>
+      <c r="C24" s="11">
+        <v>200</v>
+      </c>
+      <c r="D24" s="12">
+        <v>44200</v>
+      </c>
+      <c r="E24" s="11">
+        <v>8</v>
+      </c>
+      <c r="F24" s="12">
+        <v>44208</v>
+      </c>
+      <c r="G24" s="11">
+        <v>3</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="12">
+        <v>44211</v>
+      </c>
+      <c r="O24" s="11">
+        <v>1</v>
+      </c>
+      <c r="P24" s="11">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>0</v>
+      </c>
+      <c r="R24" s="11">
+        <v>5</v>
+      </c>
+      <c r="S24" s="11">
+        <v>0</v>
+      </c>
+      <c r="T24" s="11">
+        <v>0</v>
+      </c>
+      <c r="U24" s="11">
+        <v>1</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>123</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1218201</v>
+      </c>
+      <c r="C25" s="11">
+        <v>200</v>
+      </c>
+      <c r="D25" s="12">
+        <v>44203</v>
+      </c>
+      <c r="E25" s="11">
+        <v>12</v>
+      </c>
+      <c r="F25" s="12">
+        <v>44207</v>
+      </c>
+      <c r="G25" s="11">
+        <v>40</v>
+      </c>
+      <c r="H25" s="12">
+        <v>44208</v>
+      </c>
+      <c r="I25" s="11">
+        <v>79</v>
+      </c>
+      <c r="J25" s="12">
+        <v>44210</v>
+      </c>
+      <c r="K25" s="11">
+        <v>95</v>
+      </c>
+      <c r="L25" s="12">
+        <v>44211</v>
+      </c>
+      <c r="M25" s="11">
+        <v>78</v>
+      </c>
+      <c r="N25" s="12">
+        <v>44216</v>
+      </c>
+      <c r="O25" s="11">
+        <v>237</v>
+      </c>
+      <c r="P25" s="11">
+        <v>541</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>2</v>
+      </c>
+      <c r="R25" s="11">
+        <v>50</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>1</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>124</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1218202</v>
+      </c>
+      <c r="C26" s="11">
+        <v>200</v>
+      </c>
+      <c r="D26" s="12">
+        <v>44210</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>44211</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="12">
+        <v>44215</v>
+      </c>
+      <c r="O26" s="11">
+        <v>6</v>
+      </c>
+      <c r="P26" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>0</v>
+      </c>
+      <c r="R26" s="11">
+        <v>134</v>
+      </c>
+      <c r="S26" s="11">
+        <v>0</v>
+      </c>
+      <c r="T26" s="11">
+        <v>0</v>
+      </c>
+      <c r="U26" s="11">
+        <v>1</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>125</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1221201</v>
+      </c>
+      <c r="C27" s="11">
+        <v>200</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="12">
+        <v>44218</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>9</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="11">
+        <v>1</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>126</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1221202</v>
+      </c>
+      <c r="C28" s="11">
+        <v>200</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="12">
+        <v>44218</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>9</v>
+      </c>
+      <c r="R28" s="11">
+        <v>0</v>
+      </c>
+      <c r="S28" s="11">
+        <v>0</v>
+      </c>
+      <c r="T28" s="11">
+        <v>0</v>
+      </c>
+      <c r="U28" s="11">
+        <v>1</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>127</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1223201</v>
+      </c>
+      <c r="C29" s="11">
+        <v>200</v>
+      </c>
+      <c r="D29" s="12">
+        <v>44208</v>
+      </c>
+      <c r="E29" s="11">
+        <v>16</v>
+      </c>
+      <c r="F29" s="12">
+        <v>44210</v>
+      </c>
+      <c r="G29" s="11">
+        <v>7</v>
+      </c>
+      <c r="H29" s="12">
+        <v>44211</v>
+      </c>
+      <c r="I29" s="11">
+        <v>13</v>
+      </c>
+      <c r="J29" s="12">
+        <v>44215</v>
+      </c>
+      <c r="K29" s="11">
+        <v>444</v>
+      </c>
+      <c r="L29" s="12">
+        <v>44216</v>
+      </c>
+      <c r="M29" s="11">
+        <v>337</v>
+      </c>
+      <c r="N29" s="12">
+        <v>44222</v>
+      </c>
+      <c r="O29" s="11">
+        <v>751</v>
+      </c>
+      <c r="P29" s="11">
+        <v>1568</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>400</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>1</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>128</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1223202</v>
+      </c>
+      <c r="C30" s="11">
+        <v>140</v>
+      </c>
+      <c r="D30" s="12">
+        <v>44211</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
+        <v>44215</v>
+      </c>
+      <c r="G30" s="11">
+        <v>11</v>
+      </c>
+      <c r="H30" s="12">
+        <v>44216</v>
+      </c>
+      <c r="I30" s="11">
+        <v>6</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="12">
+        <v>44221</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
+      <c r="R30" s="11">
+        <v>0</v>
+      </c>
+      <c r="S30" s="11">
+        <v>0</v>
+      </c>
+      <c r="T30" s="11">
+        <v>0</v>
+      </c>
+      <c r="U30" s="11">
+        <v>1</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>129</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1228201</v>
+      </c>
+      <c r="C31" s="11">
+        <v>200</v>
+      </c>
+      <c r="D31" s="12">
+        <v>44214</v>
+      </c>
+      <c r="E31" s="11">
+        <v>51</v>
+      </c>
+      <c r="F31" s="12">
+        <v>44215</v>
+      </c>
+      <c r="G31" s="11">
+        <v>83</v>
+      </c>
+      <c r="H31" s="12">
+        <v>44216</v>
+      </c>
+      <c r="I31" s="11">
+        <v>76</v>
+      </c>
+      <c r="J31" s="12">
+        <v>44217</v>
+      </c>
+      <c r="K31" s="11">
+        <v>141</v>
+      </c>
+      <c r="L31" s="12">
+        <v>44218</v>
+      </c>
+      <c r="M31" s="11">
+        <v>73</v>
+      </c>
+      <c r="N31" s="12">
+        <v>44222</v>
+      </c>
+      <c r="O31" s="11">
+        <v>581</v>
+      </c>
+      <c r="P31" s="11">
+        <v>1005</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0</v>
+      </c>
+      <c r="R31" s="11">
+        <v>1200</v>
+      </c>
+      <c r="S31" s="11">
+        <v>0</v>
+      </c>
+      <c r="T31" s="11">
+        <v>0</v>
+      </c>
+      <c r="U31" s="11">
+        <v>1</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>130</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1228202</v>
+      </c>
+      <c r="C32" s="11">
+        <v>130</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="12">
+        <v>44222</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0</v>
+      </c>
+      <c r="R32" s="11">
+        <v>0</v>
+      </c>
+      <c r="S32" s="11">
+        <v>0</v>
+      </c>
+      <c r="T32" s="11">
+        <v>0</v>
+      </c>
+      <c r="U32" s="11">
+        <v>1</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>131</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1230201</v>
+      </c>
+      <c r="C33" s="11">
+        <v>103</v>
+      </c>
+      <c r="D33" s="12">
+        <v>44217</v>
+      </c>
+      <c r="E33" s="11">
+        <v>6</v>
+      </c>
+      <c r="F33" s="12">
+        <v>44218</v>
+      </c>
+      <c r="G33" s="11">
+        <v>17</v>
+      </c>
+      <c r="H33" s="12">
+        <v>44221</v>
+      </c>
+      <c r="I33" s="11">
+        <v>78</v>
+      </c>
+      <c r="J33" s="12">
+        <v>44222</v>
+      </c>
+      <c r="K33" s="11">
+        <v>99</v>
+      </c>
+      <c r="L33" s="12">
+        <v>44223</v>
+      </c>
+      <c r="M33" s="11">
+        <v>735</v>
+      </c>
+      <c r="N33" s="12">
+        <v>44225</v>
+      </c>
+      <c r="O33" s="11">
+        <v>192</v>
+      </c>
+      <c r="P33" s="11">
+        <v>527</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0</v>
+      </c>
+      <c r="R33" s="11">
+        <v>300</v>
+      </c>
+      <c r="S33" s="11">
+        <v>0</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="11">
+        <v>1</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>132</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1230202</v>
+      </c>
+      <c r="C34" s="11">
+        <v>200</v>
+      </c>
+      <c r="D34" s="12">
+        <v>44217</v>
+      </c>
+      <c r="E34" s="11">
+        <v>25</v>
+      </c>
+      <c r="F34" s="12">
+        <v>44218</v>
+      </c>
+      <c r="G34" s="11">
+        <v>72</v>
+      </c>
+      <c r="H34" s="12">
+        <v>44221</v>
+      </c>
+      <c r="I34" s="11">
+        <v>307</v>
+      </c>
+      <c r="J34" s="12">
+        <v>44222</v>
+      </c>
+      <c r="K34" s="11">
+        <v>383</v>
+      </c>
+      <c r="L34" s="12">
+        <v>44223</v>
+      </c>
+      <c r="M34" s="11">
+        <v>413</v>
+      </c>
+      <c r="N34" s="12">
+        <v>44225</v>
+      </c>
+      <c r="O34" s="11">
+        <v>780</v>
+      </c>
+      <c r="P34" s="11">
+        <v>1980</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0</v>
+      </c>
+      <c r="R34" s="11">
+        <v>750</v>
+      </c>
+      <c r="S34" s="11">
+        <v>0</v>
+      </c>
+      <c r="T34" s="11">
+        <v>0</v>
+      </c>
+      <c r="U34" s="11">
+        <v>1</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>133</v>
+      </c>
+      <c r="B35" s="11">
+        <v>104211</v>
+      </c>
+      <c r="C35" s="11">
+        <v>140</v>
+      </c>
+      <c r="D35" s="12">
+        <v>44221</v>
+      </c>
+      <c r="E35" s="11">
+        <v>139</v>
+      </c>
+      <c r="F35" s="12">
+        <v>44222</v>
+      </c>
+      <c r="G35" s="11">
+        <v>284</v>
+      </c>
+      <c r="H35" s="12">
+        <v>44223</v>
+      </c>
+      <c r="I35" s="11">
+        <v>308</v>
+      </c>
+      <c r="J35" s="12">
+        <v>44224</v>
+      </c>
+      <c r="K35" s="11">
+        <v>274</v>
+      </c>
+      <c r="L35" s="12">
+        <v>44225</v>
+      </c>
+      <c r="M35" s="11">
+        <v>465</v>
+      </c>
+      <c r="N35" s="12">
+        <v>44230</v>
+      </c>
+      <c r="O35" s="11">
+        <v>1149</v>
+      </c>
+      <c r="P35" s="11">
+        <v>2619</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>2</v>
+      </c>
+      <c r="R35" s="11">
+        <v>1800</v>
+      </c>
+      <c r="S35" s="11">
+        <v>0</v>
+      </c>
+      <c r="T35" s="11">
+        <v>0</v>
+      </c>
+      <c r="U35" s="11">
+        <v>1</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>134</v>
+      </c>
+      <c r="B36" s="11">
+        <v>104212</v>
+      </c>
+      <c r="C36" s="11">
+        <v>105</v>
+      </c>
+      <c r="D36" s="12">
+        <v>44222</v>
+      </c>
+      <c r="E36" s="11">
+        <v>42</v>
+      </c>
+      <c r="F36" s="12">
+        <v>44223</v>
+      </c>
+      <c r="G36" s="11">
+        <v>53</v>
+      </c>
+      <c r="H36" s="12">
+        <v>44224</v>
+      </c>
+      <c r="I36" s="11">
+        <v>61</v>
+      </c>
+      <c r="J36" s="12">
+        <v>44225</v>
+      </c>
+      <c r="K36" s="11">
+        <v>83</v>
+      </c>
+      <c r="L36" s="12">
+        <v>44228</v>
+      </c>
+      <c r="M36" s="11">
+        <v>198</v>
+      </c>
+      <c r="N36" s="12">
+        <v>44230</v>
+      </c>
+      <c r="O36" s="11">
+        <v>125</v>
+      </c>
+      <c r="P36" s="11">
+        <v>562</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>2</v>
+      </c>
+      <c r="R36" s="11">
+        <v>400</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="11">
+        <v>1</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>135</v>
+      </c>
+      <c r="B37" s="11">
+        <v>106211</v>
+      </c>
+      <c r="C37" s="11">
+        <v>100</v>
+      </c>
+      <c r="D37" s="12">
+        <v>44221</v>
+      </c>
+      <c r="E37" s="11">
+        <v>22</v>
+      </c>
+      <c r="F37" s="12">
+        <v>44222</v>
+      </c>
+      <c r="G37" s="11">
+        <v>48</v>
+      </c>
+      <c r="H37" s="12">
+        <v>44223</v>
+      </c>
+      <c r="I37" s="11">
+        <v>91</v>
+      </c>
+      <c r="J37" s="12">
+        <v>44224</v>
+      </c>
+      <c r="K37" s="11">
+        <v>156</v>
+      </c>
+      <c r="L37" s="12">
+        <v>44225</v>
+      </c>
+      <c r="M37" s="11">
+        <v>102</v>
+      </c>
+      <c r="N37" s="12">
+        <v>44232</v>
+      </c>
+      <c r="O37" s="11">
+        <v>782</v>
+      </c>
+      <c r="P37" s="11">
+        <v>1201</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>0</v>
+      </c>
+      <c r="R37" s="11">
+        <v>159</v>
+      </c>
+      <c r="S37" s="11">
+        <v>0</v>
+      </c>
+      <c r="T37" s="11">
+        <v>0</v>
+      </c>
+      <c r="U37" s="11">
+        <v>1</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>136</v>
+      </c>
+      <c r="B38" s="11">
+        <v>108211</v>
+      </c>
+      <c r="C38" s="11">
+        <v>200</v>
+      </c>
+      <c r="D38" s="12">
+        <v>44224</v>
+      </c>
+      <c r="E38" s="11">
+        <v>5</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" s="12">
+        <v>44232</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>2</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="11">
+        <v>1</v>
+      </c>
+      <c r="V38" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>201</v>
+      </c>
+      <c r="B39" s="11">
+        <v>111211</v>
+      </c>
+      <c r="C39" s="11">
+        <v>200</v>
+      </c>
+      <c r="D39" s="12">
+        <v>44229</v>
+      </c>
+      <c r="E39" s="11">
+        <v>29</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="12">
+        <v>44232</v>
+      </c>
+      <c r="O39" s="11">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>0</v>
+      </c>
+      <c r="R39" s="11">
+        <v>0</v>
+      </c>
+      <c r="S39" s="11">
+        <v>0</v>
+      </c>
+      <c r="T39" s="11">
+        <v>0</v>
+      </c>
+      <c r="U39" s="11">
+        <v>3</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>202</v>
+      </c>
+      <c r="B40" s="11">
+        <v>112211</v>
+      </c>
+      <c r="C40" s="11">
+        <v>200</v>
+      </c>
+      <c r="D40" s="12">
+        <v>44229</v>
+      </c>
+      <c r="E40" s="11">
+        <v>21</v>
+      </c>
+      <c r="F40" s="12">
+        <v>44230</v>
+      </c>
+      <c r="G40" s="11">
+        <v>7</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="12">
+        <v>44232</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>3</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>203</v>
+      </c>
+      <c r="B41" s="11">
+        <v>113211</v>
+      </c>
+      <c r="C41" s="11">
+        <v>200</v>
+      </c>
+      <c r="D41" s="12">
+        <v>44229</v>
+      </c>
+      <c r="E41" s="11">
+        <v>19</v>
+      </c>
+      <c r="F41" s="12">
+        <v>44230</v>
+      </c>
+      <c r="G41" s="11">
+        <v>10</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="12">
+        <v>44235</v>
+      </c>
+      <c r="O41" s="11">
+        <v>0</v>
+      </c>
+      <c r="P41" s="11">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>0</v>
+      </c>
+      <c r="R41" s="11">
+        <v>0</v>
+      </c>
+      <c r="S41" s="11">
+        <v>0</v>
+      </c>
+      <c r="T41" s="11">
+        <v>0</v>
+      </c>
+      <c r="U41" s="11">
+        <v>3</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>204</v>
+      </c>
+      <c r="B42" s="11">
+        <v>114211</v>
+      </c>
+      <c r="C42" s="11">
+        <v>200</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="12">
+        <v>44238</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>20</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>3</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>205</v>
+      </c>
+      <c r="B43" s="11">
+        <v>119211</v>
+      </c>
+      <c r="C43" s="11">
+        <v>200</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" s="12">
+        <v>44244</v>
+      </c>
+      <c r="O43" s="11">
+        <v>0</v>
+      </c>
+      <c r="P43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>1</v>
+      </c>
+      <c r="R43" s="11">
+        <v>0</v>
+      </c>
+      <c r="S43" s="11">
+        <v>0</v>
+      </c>
+      <c r="T43" s="11">
+        <v>0</v>
+      </c>
+      <c r="U43" s="11">
+        <v>3</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>206</v>
+      </c>
+      <c r="B44" s="11">
+        <v>120211</v>
+      </c>
+      <c r="C44" s="11">
+        <v>200</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="12">
+        <v>44246</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>1</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>3</v>
+      </c>
+      <c r="V44" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>207</v>
+      </c>
+      <c r="B45" s="11">
+        <v>122211</v>
+      </c>
+      <c r="C45" s="11">
+        <v>200</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" s="12">
+        <v>44249</v>
+      </c>
+      <c r="O45" s="11">
+        <v>0</v>
+      </c>
+      <c r="P45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>0</v>
+      </c>
+      <c r="R45" s="11">
+        <v>0</v>
+      </c>
+      <c r="S45" s="11">
+        <v>0</v>
+      </c>
+      <c r="T45" s="11">
+        <v>0</v>
+      </c>
+      <c r="U45" s="11">
+        <v>3</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>208</v>
+      </c>
+      <c r="B46" s="11">
+        <v>129211</v>
+      </c>
+      <c r="C46" s="11">
+        <v>200</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" s="12">
+        <v>44249</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>3</v>
+      </c>
+      <c r="V46" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>209</v>
+      </c>
+      <c r="B47" s="11">
+        <v>127211</v>
+      </c>
+      <c r="C47" s="11">
+        <v>200</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" s="12">
+        <v>44251</v>
+      </c>
+      <c r="O47" s="11">
+        <v>10</v>
+      </c>
+      <c r="P47" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>0</v>
+      </c>
+      <c r="R47" s="11">
+        <v>28</v>
+      </c>
+      <c r="S47" s="11">
+        <v>0</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U47" s="11">
+        <v>3</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>210</v>
+      </c>
+      <c r="B48" s="11">
+        <v>129211</v>
+      </c>
+      <c r="C48" s="11">
+        <v>200</v>
+      </c>
+      <c r="D48" s="12">
+        <v>44248</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="12">
+        <v>44253</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>32</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U48" s="11">
+        <v>3</v>
+      </c>
+      <c r="V48" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>211</v>
+      </c>
+      <c r="B49" s="11">
+        <v>201211</v>
+      </c>
+      <c r="C49" s="11">
+        <v>200</v>
+      </c>
+      <c r="D49" s="12">
+        <v>44250</v>
+      </c>
+      <c r="E49" s="11">
+        <v>10</v>
+      </c>
+      <c r="F49" s="12">
+        <v>44251</v>
+      </c>
+      <c r="G49" s="11">
+        <v>25</v>
+      </c>
+      <c r="H49" s="12">
+        <v>44252</v>
+      </c>
+      <c r="I49" s="11">
+        <v>18</v>
+      </c>
+      <c r="J49" s="12">
+        <v>44253</v>
+      </c>
+      <c r="K49" s="11">
+        <v>25</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" s="12">
+        <v>44256</v>
+      </c>
+      <c r="O49" s="11">
+        <v>90</v>
+      </c>
+      <c r="P49" s="11">
+        <v>168</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>0</v>
+      </c>
+      <c r="R49" s="11">
+        <v>228</v>
+      </c>
+      <c r="S49" s="11">
+        <v>0</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" s="11">
+        <v>3</v>
+      </c>
+      <c r="V49" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>212</v>
+      </c>
+      <c r="B50" s="11">
+        <v>203211</v>
+      </c>
+      <c r="C50" s="11">
+        <v>200</v>
+      </c>
+      <c r="D50" s="12">
+        <v>44251</v>
+      </c>
+      <c r="E50" s="11">
+        <v>2</v>
+      </c>
+      <c r="F50" s="12">
+        <v>44253</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1</v>
+      </c>
+      <c r="H50" s="12">
+        <v>44256</v>
+      </c>
+      <c r="I50" s="11">
+        <v>51</v>
+      </c>
+      <c r="J50" s="12">
+        <v>44257</v>
+      </c>
+      <c r="K50" s="11">
+        <v>32</v>
+      </c>
+      <c r="L50" s="12">
+        <v>44258</v>
+      </c>
+      <c r="M50" s="11">
+        <v>31</v>
+      </c>
+      <c r="N50" s="12">
+        <v>44259</v>
+      </c>
+      <c r="O50" s="11">
+        <v>56</v>
+      </c>
+      <c r="P50" s="11">
+        <v>173</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>0</v>
+      </c>
+      <c r="R50" s="11">
+        <v>200</v>
+      </c>
+      <c r="S50" s="11">
+        <v>0</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U50" s="11">
+        <v>3</v>
+      </c>
+      <c r="V50" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>201</v>
+      </c>
+      <c r="B51" s="11">
+        <v>205211</v>
+      </c>
+      <c r="C51" s="11">
+        <v>200</v>
+      </c>
+      <c r="D51" s="12">
+        <v>44256</v>
+      </c>
+      <c r="E51" s="11">
+        <v>14</v>
+      </c>
+      <c r="F51" s="12">
+        <v>44257</v>
+      </c>
+      <c r="G51" s="11">
+        <v>8</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" s="12">
+        <v>44263</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0</v>
+      </c>
+      <c r="P51" s="11">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>0</v>
+      </c>
+      <c r="R51" s="11">
+        <v>200</v>
+      </c>
+      <c r="S51" s="11">
+        <v>0</v>
+      </c>
+      <c r="T51" s="11">
+        <v>0</v>
+      </c>
+      <c r="U51" s="11">
+        <v>3</v>
+      </c>
+      <c r="V51" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>202</v>
+      </c>
+      <c r="B52" s="11">
+        <v>208211</v>
+      </c>
+      <c r="C52" s="11">
+        <v>50</v>
+      </c>
+      <c r="D52" s="12">
+        <v>44259</v>
+      </c>
+      <c r="E52" s="11">
+        <v>6</v>
+      </c>
+      <c r="F52" s="12">
+        <v>44260</v>
+      </c>
+      <c r="G52" s="11">
+        <v>17</v>
+      </c>
+      <c r="H52" s="12">
+        <v>44263</v>
+      </c>
+      <c r="I52" s="11">
+        <v>9</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" s="12">
+        <v>44264</v>
+      </c>
+      <c r="O52" s="11">
+        <v>10</v>
+      </c>
+      <c r="P52" s="11">
+        <v>42</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>0</v>
+      </c>
+      <c r="R52" s="11">
+        <v>50</v>
+      </c>
+      <c r="S52" s="11">
+        <v>0</v>
+      </c>
+      <c r="T52" s="11">
+        <v>0</v>
+      </c>
+      <c r="U52" s="11">
+        <v>3</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>203</v>
+      </c>
+      <c r="B53" s="11">
+        <v>216211</v>
+      </c>
+      <c r="C53" s="11">
+        <v>81</v>
+      </c>
+      <c r="D53" s="12">
+        <v>44263</v>
+      </c>
+      <c r="E53" s="11">
+        <v>11</v>
+      </c>
+      <c r="F53" s="12">
+        <v>44264</v>
+      </c>
+      <c r="G53" s="11">
+        <v>25</v>
+      </c>
+      <c r="H53" s="12">
+        <v>44265</v>
+      </c>
+      <c r="I53" s="11">
+        <v>34</v>
+      </c>
+      <c r="J53" s="12">
+        <v>44266</v>
+      </c>
+      <c r="K53" s="11">
+        <v>72</v>
+      </c>
+      <c r="L53" s="12">
+        <v>44267</v>
+      </c>
+      <c r="M53" s="11">
+        <v>83</v>
+      </c>
+      <c r="N53" s="12">
+        <v>44271</v>
+      </c>
+      <c r="O53" s="11">
+        <v>503</v>
+      </c>
+      <c r="P53" s="11">
+        <v>728</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>0</v>
+      </c>
+      <c r="R53" s="11">
+        <v>400</v>
+      </c>
+      <c r="S53" s="11">
+        <v>0</v>
+      </c>
+      <c r="T53" s="11">
+        <v>0</v>
+      </c>
+      <c r="U53" s="11">
+        <v>3</v>
+      </c>
+      <c r="V53" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>204</v>
+      </c>
+      <c r="B54" s="11">
+        <v>219211</v>
+      </c>
+      <c r="C54" s="11">
+        <v>100</v>
+      </c>
+      <c r="D54" s="12">
+        <v>44265</v>
+      </c>
+      <c r="E54" s="11">
+        <v>5</v>
+      </c>
+      <c r="F54" s="12">
+        <v>44266</v>
+      </c>
+      <c r="G54" s="11">
+        <v>11</v>
+      </c>
+      <c r="H54" s="12">
+        <v>44267</v>
+      </c>
+      <c r="I54" s="11">
+        <v>35</v>
+      </c>
+      <c r="J54" s="12">
+        <v>44270</v>
+      </c>
+      <c r="K54" s="11">
+        <v>464</v>
+      </c>
+      <c r="L54" s="12">
+        <v>44271</v>
+      </c>
+      <c r="M54" s="11">
+        <v>143</v>
+      </c>
+      <c r="N54" s="12">
+        <v>44274</v>
+      </c>
+      <c r="O54" s="11">
+        <v>445</v>
+      </c>
+      <c r="P54" s="11">
+        <v>1103</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>0</v>
+      </c>
+      <c r="R54" s="11">
+        <v>200</v>
+      </c>
+      <c r="S54" s="11">
+        <v>0</v>
+      </c>
+      <c r="T54" s="11">
+        <v>0</v>
+      </c>
+      <c r="U54" s="11">
+        <v>3</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>205</v>
+      </c>
+      <c r="B55" s="11">
+        <v>223211</v>
+      </c>
+      <c r="C55" s="11">
+        <v>60</v>
+      </c>
+      <c r="D55" s="12">
+        <v>44270</v>
+      </c>
+      <c r="E55" s="11">
+        <v>71</v>
+      </c>
+      <c r="F55" s="12">
+        <v>44271</v>
+      </c>
+      <c r="G55" s="11">
+        <v>69</v>
+      </c>
+      <c r="H55" s="12">
+        <v>44272</v>
+      </c>
+      <c r="I55" s="11">
+        <v>127</v>
+      </c>
+      <c r="J55" s="12">
+        <v>44273</v>
+      </c>
+      <c r="K55" s="11">
+        <v>137</v>
+      </c>
+      <c r="L55" s="12">
+        <v>44274</v>
+      </c>
+      <c r="M55" s="11">
+        <v>77</v>
+      </c>
+      <c r="N55" s="12">
+        <v>44278</v>
+      </c>
+      <c r="O55" s="11">
+        <v>278</v>
+      </c>
+      <c r="P55" s="11">
+        <v>759</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>0</v>
+      </c>
+      <c r="R55" s="11">
+        <v>180</v>
+      </c>
+      <c r="S55" s="11">
+        <v>0</v>
+      </c>
+      <c r="T55" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U55" s="11">
+        <v>3</v>
+      </c>
+      <c r="V55" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>206</v>
+      </c>
+      <c r="B56" s="11">
+        <v>301211</v>
+      </c>
+      <c r="C56" s="11">
+        <v>86</v>
+      </c>
+      <c r="D56" s="12">
+        <v>44277</v>
+      </c>
+      <c r="E56" s="11">
+        <v>125</v>
+      </c>
+      <c r="F56" s="12">
+        <v>44278</v>
+      </c>
+      <c r="G56" s="11">
+        <v>122</v>
+      </c>
+      <c r="H56" s="12">
+        <v>44279</v>
+      </c>
+      <c r="I56" s="11">
+        <v>98</v>
+      </c>
+      <c r="J56" s="12">
+        <v>44280</v>
+      </c>
+      <c r="K56" s="11">
+        <v>80</v>
+      </c>
+      <c r="L56" s="12">
+        <v>44281</v>
+      </c>
+      <c r="M56" s="11">
+        <v>118</v>
+      </c>
+      <c r="N56" s="12">
+        <v>44286</v>
+      </c>
+      <c r="O56" s="11">
+        <v>1026</v>
+      </c>
+      <c r="P56" s="11">
+        <v>1569</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>0</v>
+      </c>
+      <c r="R56" s="11">
+        <v>1000</v>
+      </c>
+      <c r="S56" s="11">
+        <v>0</v>
+      </c>
+      <c r="T56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U56" s="11">
+        <v>3</v>
+      </c>
+      <c r="V56" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>210</v>
+      </c>
+      <c r="B57" s="11">
+        <v>303211</v>
+      </c>
+      <c r="C57" s="11">
+        <v>130</v>
+      </c>
+      <c r="D57" s="12">
+        <v>44277</v>
+      </c>
+      <c r="E57" s="11">
+        <v>40</v>
+      </c>
+      <c r="F57" s="12">
+        <v>44278</v>
+      </c>
+      <c r="G57" s="11">
+        <v>2</v>
+      </c>
+      <c r="H57" s="12">
+        <v>44280</v>
+      </c>
+      <c r="I57" s="11">
+        <v>22</v>
+      </c>
+      <c r="J57" s="12">
+        <v>44281</v>
+      </c>
+      <c r="K57" s="11">
+        <v>18</v>
+      </c>
+      <c r="L57" s="12">
+        <v>44284</v>
+      </c>
+      <c r="M57" s="11">
+        <v>50</v>
+      </c>
+      <c r="N57" s="12">
+        <v>44287</v>
+      </c>
+      <c r="O57" s="11">
+        <v>101</v>
+      </c>
+      <c r="P57" s="11">
+        <v>233</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>0</v>
+      </c>
+      <c r="R57" s="11">
+        <v>200</v>
+      </c>
+      <c r="S57" s="11">
+        <v>0</v>
+      </c>
+      <c r="T57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U57" s="11">
+        <v>3</v>
+      </c>
+      <c r="V57" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE867B-C3AE-4D81-AAC0-62B81ECA2A5C}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,8 +4483,8 @@
     <col min="18" max="18" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="5" customWidth="1"/>
     <col min="20" max="20" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="5"/>
+    <col min="21" max="21" width="9.140625" style="5"/>
+    <col min="22" max="22" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -581,10 +4546,10 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>16</v>
@@ -612,171 +4577,6 @@
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE867B-C3AE-4D81-AAC0-62B81ECA2A5C}">
-  <dimension ref="A1:V12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5" style="5" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1016,7 +4816,14 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846C5E52-4CEC-4024-ACEA-88C8F03ECE28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="83faa690-2357-4073-a0a2-09d4f2327a89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/shared_count_record.xlsx
+++ b/shared_count_record.xlsx
@@ -1,18 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freshfromflorida-my.sharepoint.com/personal/austin_fife_fdacs_gov/Documents/Documents/rearing_logs/tamarixia_yield/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C64CB41F-A6EE-4A05-B2E6-2B132979FB85}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2880" yWindow="3945" windowWidth="21600" windowHeight="12735" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="yield" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="blank_worksheet" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="yield" sheetId="1" r:id="rId1"/>
+    <sheet name="blank_worksheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -23,108 +37,104 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="31">
   <si>
-    <t xml:space="preserve">Cage</t>
+    <t>Cage</t>
   </si>
   <si>
-    <t xml:space="preserve">Ovi. ID</t>
+    <t>Ovi. ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Tam. Add.</t>
+    <t>Tam. Add.</t>
   </si>
   <si>
-    <t xml:space="preserve">Harv. 1 Date</t>
+    <t>Harv. 1 Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Count 1</t>
+    <t>Count 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Harv. 2 Date</t>
+    <t>Harv. 2 Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Count 2</t>
+    <t>Count 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Harv. 3 Date</t>
+    <t>Harv. 3 Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Count 3</t>
+    <t>Count 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Harv. 4 Date</t>
+    <t>Harv. 4 Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Count 4</t>
+    <t>Count 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Harv. 5 Date</t>
+    <t>Harv. 5 Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Count 5</t>
+    <t>Count 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Clean Date</t>
+    <t>Clean Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Count 6</t>
+    <t>Count 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Total</t>
+    <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">PD</t>
+    <t>PD</t>
   </si>
   <si>
-    <t xml:space="preserve">Psyllids</t>
+    <t>Psyllids</t>
   </si>
   <si>
-    <t xml:space="preserve">Yield</t>
+    <t>Yield</t>
   </si>
   <si>
-    <t xml:space="preserve">Pests</t>
+    <t>Pests</t>
   </si>
   <si>
-    <t xml:space="preserve">Barn</t>
+    <t>Barn</t>
   </si>
   <si>
-    <t xml:space="preserve">Plant</t>
+    <t>Plant</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Jasmine</t>
+    <t>Jasmine</t>
   </si>
   <si>
-    <t xml:space="preserve">APHIDS</t>
+    <t>APHIDS</t>
   </si>
   <si>
-    <t xml:space="preserve">Curry</t>
+    <t>Curry</t>
   </si>
   <si>
-    <t xml:space="preserve">Mix (OJ/Curry)</t>
+    <t>Mix (OJ/Curry)</t>
   </si>
   <si>
-    <t xml:space="preserve">ANTS</t>
+    <t>ANTS</t>
   </si>
   <si>
-    <t xml:space="preserve">#</t>
+    <t>#</t>
   </si>
   <si>
-    <t xml:space="preserve">Psy</t>
+    <t>Psy</t>
   </si>
   <si>
-    <t xml:space="preserve">Yld</t>
+    <t>Yld</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,22 +143,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -165,130 +160,401 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:V71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V72" activeCellId="0" sqref="A72:V72"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="3" width="8.54"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="1" customWidth="1"/>
+    <col min="23" max="1024" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -356,32 +622,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>212</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>1116202</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>200</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>44173</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>44174</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>44175</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -396,66 +662,66 @@
       <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="2">
         <v>44179</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="1">
         <v>110</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1" t="n">
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
         <v>3</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>213</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1117201</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>200</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>44172</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>44173</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>44174</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>44175</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="1">
         <v>19</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -464,60 +730,60 @@
       <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="2">
         <v>44182</v>
       </c>
-      <c r="O3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="n">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>107</v>
       </c>
-      <c r="Q3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1" t="n">
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
         <v>3</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>214</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>1117202</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>200</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>44172</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>44173</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>36869</v>
-      </c>
-      <c r="I4" s="1" t="n">
+      <c r="H4" s="2">
+        <v>44174</v>
+      </c>
+      <c r="I4" s="1">
         <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -532,246 +798,246 @@
       <c r="M4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="2">
         <v>44182</v>
       </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="n">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>63</v>
       </c>
-      <c r="Q4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="n">
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
         <v>3</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>215</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>1117203</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>200</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>44172</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="1">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
         <v>44173</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>44174</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>47</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2">
         <v>44175</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="1">
         <v>17</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2">
         <v>44176</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="1">
         <v>86</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="2">
         <v>44183</v>
       </c>
-      <c r="O5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="n">
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>196</v>
       </c>
-      <c r="Q5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="n">
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
         <v>12</v>
       </c>
-      <c r="S5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1" t="n">
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
         <v>3</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>216</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1118201</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>200</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>44172</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>44173</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>44174</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>12</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>44175</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>44176</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="1">
         <v>259</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="2">
         <v>44186</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="O6" s="1">
         <v>20</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="P6" s="1">
         <v>301</v>
       </c>
-      <c r="Q6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="n">
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <v>150</v>
       </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1" t="n">
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <v>3</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>217</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>1118202</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>200</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>44172</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>44173</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>44174</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>9</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>44175</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="1">
         <v>17</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>44181</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="1">
         <v>88</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="2">
         <v>44186</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="1">
         <v>6</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="1">
         <v>133</v>
       </c>
-      <c r="Q7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="n">
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <v>5</v>
       </c>
-      <c r="S7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1" t="n">
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
         <v>3</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>218</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>1120201</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -804,196 +1070,196 @@
       <c r="M8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="2">
         <v>44186</v>
       </c>
-      <c r="O8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1" t="n">
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>2</v>
       </c>
-      <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1" t="n">
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
         <v>3</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>219</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>1120202</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>200</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>44176</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>44179</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>73</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>44181</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="1">
         <v>30</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>44182</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="1">
         <v>20</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>44183</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="1">
         <v>14</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="N9" s="2">
         <v>44186</v>
       </c>
-      <c r="O9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1" t="n">
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>162</v>
       </c>
-      <c r="Q9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1" t="n">
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
         <v>3</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>220</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>1123202</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>200</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>44179</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>44181</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>56</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>44182</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>80</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>44183</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="1">
         <v>70</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2">
         <v>44186</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="1">
         <v>99</v>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="N10" s="2">
         <v>44187</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="1">
         <v>31</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="1">
         <v>355</v>
       </c>
-      <c r="Q10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="n">
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
         <v>40</v>
       </c>
-      <c r="S10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1" t="n">
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
         <v>3</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>221</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>1123201</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>200</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>44182</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>44183</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>6</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>44186</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="1">
         <v>17</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1008,66 +1274,66 @@
       <c r="M11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="N11" s="2">
         <v>44187</v>
       </c>
-      <c r="O11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1" t="n">
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <v>29</v>
       </c>
-      <c r="Q11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1" t="n">
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
         <v>3</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>222</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>1125201</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>200</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>44179</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>44182</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>34</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>44183</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="1">
         <v>20</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>44186</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12" s="1">
         <v>86</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -1076,60 +1342,60 @@
       <c r="M12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="N12" s="2">
         <v>44187</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="O12" s="1">
         <v>29</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="P12" s="1">
         <v>179</v>
       </c>
-      <c r="Q12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="n">
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
         <v>25</v>
       </c>
-      <c r="S12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1" t="n">
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
         <v>3</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>223</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>1125202</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>200</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>44182</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="E13" s="1">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2">
         <v>44183</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>8</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>44186</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>58</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1144,54 +1410,54 @@
       <c r="M13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="N13" s="2">
         <v>44187</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="O13" s="1">
         <v>28</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="P13" s="1">
         <v>116</v>
       </c>
-      <c r="Q13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="n">
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
         <v>50</v>
       </c>
-      <c r="S13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1" t="n">
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
         <v>3</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>112</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>1207202</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>150</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>44193</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>25</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>44194</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1212,60 +1478,60 @@
       <c r="M14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="N14" s="2">
         <v>44200</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="O14" s="1">
         <v>8</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="P14" s="1">
         <v>50</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="Q14" s="1">
         <v>2</v>
       </c>
-      <c r="R14" s="1" t="n">
+      <c r="R14" s="1">
         <v>12</v>
       </c>
-      <c r="S14" s="1" t="n">
+      <c r="S14" s="1">
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="U14" s="1">
         <v>1</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>113</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>1208201</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>180</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>44194</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>16</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>44200</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>23</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>44201</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>14</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -1280,60 +1546,60 @@
       <c r="M15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="N15" s="2">
         <v>44203</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="O15" s="1">
         <v>9</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="P15" s="1">
         <v>62</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="Q15" s="1">
         <v>4</v>
       </c>
-      <c r="R15" s="1" t="n">
+      <c r="R15" s="1">
         <v>5</v>
       </c>
-      <c r="S15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1" t="n">
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
         <v>1</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>114</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>1208202</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>180</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>44194</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2">
         <v>44200</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>11</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="2">
         <v>44201</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -1348,184 +1614,184 @@
       <c r="M16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="N16" s="2">
         <v>44203</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="O16" s="1">
         <v>14</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="P16" s="1">
         <v>41</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="Q16" s="1">
         <v>6</v>
       </c>
-      <c r="R16" s="1" t="n">
+      <c r="R16" s="1">
         <v>20</v>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="S16" s="1">
         <v>0</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="U16" s="1">
         <v>1</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>115</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>1209201</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>110</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>44194</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>44200</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>103</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2">
         <v>44201</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="1">
         <v>70</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="2">
         <v>44202</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="1">
         <v>53</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="2">
         <v>44203</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="M17" s="1">
         <v>82</v>
       </c>
-      <c r="N17" s="2" t="n">
+      <c r="N17" s="2">
         <v>44207</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="O17" s="1">
         <v>15</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="P17" s="1">
         <v>327</v>
       </c>
-      <c r="Q17" s="1" t="n">
+      <c r="Q17" s="1">
         <v>1</v>
       </c>
-      <c r="R17" s="1" t="n">
+      <c r="R17" s="1">
         <v>30</v>
       </c>
-      <c r="S17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1" t="n">
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
         <v>1</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>116</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>1209202</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>103</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>44194</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>3</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>44200</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="1">
         <v>26</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>44201</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="1">
         <v>26</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="2">
         <v>44202</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="K18" s="1">
         <v>36</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="2">
         <v>44203</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="M18" s="1">
         <v>23</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="N18" s="2">
         <v>44207</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="O18" s="1">
         <v>11</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="P18" s="1">
         <v>125</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="Q18" s="1">
         <v>3</v>
       </c>
-      <c r="R18" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="S18" s="1" t="n">
+      <c r="R18" s="1">
+        <v>22</v>
+      </c>
+      <c r="S18" s="1">
         <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="U18" s="1">
         <v>1</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>117</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>1211201</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>200</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>44200</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1552,66 +1818,66 @@
       <c r="M19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="2" t="n">
+      <c r="N19" s="2">
         <v>44204</v>
       </c>
-      <c r="O19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1" t="n">
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
         <v>4</v>
       </c>
-      <c r="Q19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1" t="n">
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
         <v>1</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>118</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>1211202</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>200</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>44200</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>79</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2">
         <v>44201</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="1">
         <v>59</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>44202</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="1">
         <v>41</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="2">
         <v>44203</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="K20" s="1">
         <v>37</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -1620,60 +1886,60 @@
       <c r="M20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="2" t="n">
+      <c r="N20" s="2">
         <v>44207</v>
       </c>
-      <c r="O20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1" t="n">
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
         <v>216</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="Q20" s="1">
         <v>2</v>
       </c>
-      <c r="R20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1" t="n">
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U20" s="1" t="n">
+      <c r="U20" s="1">
         <v>1</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>119</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>1215201</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>200</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>44200</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>3</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>44203</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2">
         <v>44207</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="1">
         <v>14</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -1688,66 +1954,66 @@
       <c r="M21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="2" t="n">
+      <c r="N21" s="2">
         <v>44208</v>
       </c>
-      <c r="O21" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="P21" s="1" t="n">
+      <c r="O21" s="1">
+        <v>22</v>
+      </c>
+      <c r="P21" s="1">
         <v>44</v>
       </c>
-      <c r="Q21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1" t="n">
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
         <v>40</v>
       </c>
-      <c r="S21" s="1" t="n">
+      <c r="S21" s="1">
         <v>0</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="1" t="n">
+      <c r="U21" s="1">
         <v>1</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>120</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>1214201</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>200</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>44200</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2">
         <v>44201</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="1">
         <v>12</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>44203</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="1">
         <v>18</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="2">
         <v>44207</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="K22" s="1">
         <v>8</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -1756,122 +2022,122 @@
       <c r="M22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="2" t="n">
+      <c r="N22" s="2">
         <v>44208</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="O22" s="1">
         <v>4</v>
       </c>
-      <c r="P22" s="1" t="n">
+      <c r="P22" s="1">
         <v>52</v>
       </c>
-      <c r="Q22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1" t="n">
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
         <v>30</v>
       </c>
-      <c r="S22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1" t="n">
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
         <v>1</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>121</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>1216201</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>200</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>44200</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>19</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>44201</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="1">
         <v>9</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2">
         <v>44207</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="1">
         <v>15</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="2">
         <v>44208</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="K23" s="1">
         <v>4</v>
       </c>
-      <c r="L23" s="2" t="n">
+      <c r="L23" s="2">
         <v>44209</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="M23" s="1">
         <v>6</v>
       </c>
-      <c r="N23" s="2" t="n">
+      <c r="N23" s="2">
         <v>44210</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="O23" s="1">
         <v>1</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="P23" s="1">
         <v>54</v>
       </c>
-      <c r="Q23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1" t="n">
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
         <v>60</v>
       </c>
-      <c r="S23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1" t="n">
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
         <v>1</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>122</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>1216202</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>200</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>44200</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>8</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2">
         <v>44208</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="1">
         <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -1892,122 +2158,122 @@
       <c r="M24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="2" t="n">
+      <c r="N24" s="2">
         <v>44211</v>
       </c>
-      <c r="O24" s="1" t="n">
+      <c r="O24" s="1">
         <v>1</v>
       </c>
-      <c r="P24" s="1" t="n">
+      <c r="P24" s="1">
         <v>12</v>
       </c>
-      <c r="Q24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1" t="n">
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
         <v>5</v>
       </c>
-      <c r="S24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1" t="n">
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
         <v>1</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>123</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>1218201</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>200</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>44203</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="1">
         <v>12</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2">
         <v>44207</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="1">
         <v>40</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2">
         <v>44208</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="1">
         <v>79</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="2">
         <v>44210</v>
       </c>
-      <c r="K25" s="1" t="n">
+      <c r="K25" s="1">
         <v>95</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="L25" s="2">
         <v>44211</v>
       </c>
-      <c r="M25" s="1" t="n">
+      <c r="M25" s="1">
         <v>78</v>
       </c>
-      <c r="N25" s="2" t="n">
+      <c r="N25" s="2">
         <v>44216</v>
       </c>
-      <c r="O25" s="1" t="n">
+      <c r="O25" s="1">
         <v>237</v>
       </c>
-      <c r="P25" s="1" t="n">
+      <c r="P25" s="1">
         <v>541</v>
       </c>
-      <c r="Q25" s="1" t="n">
+      <c r="Q25" s="1">
         <v>2</v>
       </c>
-      <c r="R25" s="1" t="n">
+      <c r="R25" s="1">
         <v>50</v>
       </c>
-      <c r="S25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1" t="n">
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
         <v>1</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>124</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>1218202</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>200</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>44210</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2">
         <v>44211</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -2028,42 +2294,42 @@
       <c r="M26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="2" t="n">
+      <c r="N26" s="2">
         <v>44215</v>
       </c>
-      <c r="O26" s="1" t="n">
+      <c r="O26" s="1">
         <v>6</v>
       </c>
-      <c r="P26" s="1" t="n">
+      <c r="P26" s="1">
         <v>9</v>
       </c>
-      <c r="Q26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1" t="n">
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
         <v>134</v>
       </c>
-      <c r="S26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1" t="n">
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
         <v>1</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>125</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>1221201</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2096,42 +2362,42 @@
       <c r="M27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N27" s="2" t="n">
+      <c r="N27" s="2">
         <v>44218</v>
       </c>
-      <c r="O27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1" t="n">
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
         <v>9</v>
       </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1" t="n">
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U27" s="1" t="n">
+      <c r="U27" s="1">
         <v>1</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>126</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>1221202</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>200</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2164,128 +2430,128 @@
       <c r="M28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="2" t="n">
+      <c r="N28" s="2">
         <v>44218</v>
       </c>
-      <c r="O28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1" t="n">
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
         <v>9</v>
       </c>
-      <c r="R28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1" t="n">
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
         <v>1</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>127</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>1223201</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>200</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>44208</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="1">
         <v>16</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2">
         <v>44210</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="1">
         <v>7</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>44211</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="1">
         <v>13</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="2">
         <v>44215</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="K29" s="1">
         <v>444</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="L29" s="2">
         <v>44216</v>
       </c>
-      <c r="M29" s="1" t="n">
+      <c r="M29" s="1">
         <v>337</v>
       </c>
-      <c r="N29" s="2" t="n">
+      <c r="N29" s="2">
         <v>44222</v>
       </c>
-      <c r="O29" s="1" t="n">
+      <c r="O29" s="1">
         <v>751</v>
       </c>
-      <c r="P29" s="1" t="n">
+      <c r="P29" s="1">
         <v>1568</v>
       </c>
-      <c r="Q29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1" t="n">
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
         <v>400</v>
       </c>
-      <c r="S29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1" t="n">
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
         <v>1</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>128</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>1223202</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>140</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>44211</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2">
         <v>44215</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="1">
         <v>11</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2">
         <v>44216</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="I30" s="1">
         <v>6</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -2300,110 +2566,110 @@
       <c r="M30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="2" t="n">
+      <c r="N30" s="2">
         <v>44221</v>
       </c>
-      <c r="O30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1" t="n">
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
         <v>18</v>
       </c>
-      <c r="Q30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" s="1" t="n">
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
         <v>1</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>129</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>1228201</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>200</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>44214</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="1">
         <v>51</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2">
         <v>44215</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="1">
         <v>83</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2">
         <v>44216</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="1">
         <v>76</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="2">
         <v>44217</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="K31" s="1">
         <v>141</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="L31" s="2">
         <v>44218</v>
       </c>
-      <c r="M31" s="1" t="n">
+      <c r="M31" s="1">
         <v>73</v>
       </c>
-      <c r="N31" s="2" t="n">
+      <c r="N31" s="2">
         <v>44222</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="O31" s="1">
         <v>581</v>
       </c>
-      <c r="P31" s="1" t="n">
+      <c r="P31" s="1">
         <v>1005</v>
       </c>
-      <c r="Q31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1" t="n">
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
         <v>1200</v>
       </c>
-      <c r="S31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="1" t="n">
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
         <v>1</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>130</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>1228202</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>130</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2436,388 +2702,388 @@
       <c r="M32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="2" t="n">
+      <c r="N32" s="2">
         <v>44222</v>
       </c>
-      <c r="O32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="1" t="n">
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
         <v>1</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>131</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>1230201</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>103</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2">
         <v>44217</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="1">
         <v>6</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2">
         <v>44218</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="1">
         <v>17</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2">
         <v>44221</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="1">
         <v>78</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="2">
         <v>44222</v>
       </c>
-      <c r="K33" s="1" t="n">
+      <c r="K33" s="1">
         <v>99</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="L33" s="2">
         <v>44223</v>
       </c>
-      <c r="M33" s="1" t="n">
+      <c r="M33" s="1">
         <v>735</v>
       </c>
-      <c r="N33" s="2" t="n">
+      <c r="N33" s="2">
         <v>44225</v>
       </c>
-      <c r="O33" s="1" t="n">
+      <c r="O33" s="1">
         <v>192</v>
       </c>
-      <c r="P33" s="1" t="n">
+      <c r="P33" s="1">
         <v>527</v>
       </c>
-      <c r="Q33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1" t="n">
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
         <v>300</v>
       </c>
-      <c r="S33" s="1" t="n">
+      <c r="S33" s="1">
         <v>0</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U33" s="1" t="n">
+      <c r="U33" s="1">
         <v>1</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>132</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>1230202</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>200</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="2">
         <v>44217</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="1">
         <v>25</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2">
         <v>44218</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="1">
         <v>72</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2">
         <v>44221</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="1">
         <v>307</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J34" s="2">
         <v>44222</v>
       </c>
-      <c r="K34" s="1" t="n">
+      <c r="K34" s="1">
         <v>383</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="L34" s="2">
         <v>44223</v>
       </c>
-      <c r="M34" s="1" t="n">
+      <c r="M34" s="1">
         <v>413</v>
       </c>
-      <c r="N34" s="2" t="n">
+      <c r="N34" s="2">
         <v>44225</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="O34" s="1">
         <v>780</v>
       </c>
-      <c r="P34" s="1" t="n">
+      <c r="P34" s="1">
         <v>1980</v>
       </c>
-      <c r="Q34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1" t="n">
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
         <v>750</v>
       </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="1" t="n">
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
         <v>1</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>133</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>104211</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>140</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="2">
         <v>44221</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="1">
         <v>139</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>44222</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="1">
         <v>284</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>44223</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35" s="1">
         <v>308</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J35" s="2">
         <v>44224</v>
       </c>
-      <c r="K35" s="1" t="n">
+      <c r="K35" s="1">
         <v>274</v>
       </c>
-      <c r="L35" s="2" t="n">
+      <c r="L35" s="2">
         <v>44225</v>
       </c>
-      <c r="M35" s="1" t="n">
+      <c r="M35" s="1">
         <v>465</v>
       </c>
-      <c r="N35" s="2" t="n">
+      <c r="N35" s="2">
         <v>44230</v>
       </c>
-      <c r="O35" s="1" t="n">
+      <c r="O35" s="1">
         <v>1149</v>
       </c>
-      <c r="P35" s="1" t="n">
+      <c r="P35" s="1">
         <v>2619</v>
       </c>
-      <c r="Q35" s="1" t="n">
+      <c r="Q35" s="1">
         <v>2</v>
       </c>
-      <c r="R35" s="1" t="n">
+      <c r="R35" s="1">
         <v>1800</v>
       </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1" t="n">
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
         <v>1</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>134</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>104212</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>105</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="2">
         <v>44222</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="1">
         <v>42</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2">
         <v>44223</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="1">
         <v>53</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2">
         <v>44224</v>
       </c>
-      <c r="I36" s="1" t="n">
+      <c r="I36" s="1">
         <v>61</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="2">
         <v>44225</v>
       </c>
-      <c r="K36" s="1" t="n">
+      <c r="K36" s="1">
         <v>83</v>
       </c>
-      <c r="L36" s="2" t="n">
+      <c r="L36" s="2">
         <v>44228</v>
       </c>
-      <c r="M36" s="1" t="n">
+      <c r="M36" s="1">
         <v>198</v>
       </c>
-      <c r="N36" s="2" t="n">
+      <c r="N36" s="2">
         <v>44230</v>
       </c>
-      <c r="O36" s="1" t="n">
+      <c r="O36" s="1">
         <v>125</v>
       </c>
-      <c r="P36" s="1" t="n">
+      <c r="P36" s="1">
         <v>562</v>
       </c>
-      <c r="Q36" s="1" t="n">
+      <c r="Q36" s="1">
         <v>2</v>
       </c>
-      <c r="R36" s="1" t="n">
+      <c r="R36" s="1">
         <v>400</v>
       </c>
-      <c r="S36" s="1" t="n">
+      <c r="S36" s="1">
         <v>0</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U36" s="1" t="n">
+      <c r="U36" s="1">
         <v>1</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>135</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>106211</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>100</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="2">
         <v>44221</v>
       </c>
-      <c r="E37" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="F37" s="2" t="n">
+      <c r="E37" s="1">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2">
         <v>44222</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="1">
         <v>48</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="2">
         <v>44223</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I37" s="1">
         <v>91</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="J37" s="2">
         <v>44224</v>
       </c>
-      <c r="K37" s="1" t="n">
+      <c r="K37" s="1">
         <v>156</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="L37" s="2">
         <v>44225</v>
       </c>
-      <c r="M37" s="1" t="n">
+      <c r="M37" s="1">
         <v>102</v>
       </c>
-      <c r="N37" s="2" t="n">
+      <c r="N37" s="2">
         <v>44232</v>
       </c>
-      <c r="O37" s="1" t="n">
+      <c r="O37" s="1">
         <v>782</v>
       </c>
-      <c r="P37" s="1" t="n">
+      <c r="P37" s="1">
         <v>1201</v>
       </c>
-      <c r="Q37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1" t="n">
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
         <v>159</v>
       </c>
-      <c r="S37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="1" t="n">
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
         <v>1</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>136</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>108211</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="1">
         <v>200</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="2">
         <v>44224</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="1">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -2844,48 +3110,48 @@
       <c r="M38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N38" s="2" t="n">
+      <c r="N38" s="2">
         <v>44232</v>
       </c>
-      <c r="O38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1" t="n">
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
         <v>5</v>
       </c>
-      <c r="Q38" s="1" t="n">
+      <c r="Q38" s="1">
         <v>2</v>
       </c>
-      <c r="R38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1" t="n">
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
         <v>0</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U38" s="1" t="n">
+      <c r="U38" s="1">
         <v>1</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>201</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>111211</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="1">
         <v>200</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="2">
         <v>44229</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="1">
         <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2912,54 +3178,54 @@
       <c r="M39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N39" s="2" t="n">
+      <c r="N39" s="2">
         <v>44232</v>
       </c>
-      <c r="O39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1" t="n">
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
         <v>29</v>
       </c>
-      <c r="Q39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="1" t="n">
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
         <v>3</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>202</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>112211</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="1">
         <v>200</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="2">
         <v>44229</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="1">
         <v>21</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2">
         <v>44230</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="1">
         <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -2980,54 +3246,54 @@
       <c r="M40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N40" s="2" t="n">
+      <c r="N40" s="2">
         <v>44232</v>
       </c>
-      <c r="O40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1" t="n">
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
         <v>28</v>
       </c>
-      <c r="Q40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="1" t="n">
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
         <v>3</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>203</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>113211</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="1">
         <v>200</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="2">
         <v>44229</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="1">
         <v>19</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2">
         <v>44230</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="1">
         <v>10</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -3048,42 +3314,42 @@
       <c r="M41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N41" s="2" t="n">
+      <c r="N41" s="2">
         <v>44235</v>
       </c>
-      <c r="O41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1" t="n">
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
         <v>29</v>
       </c>
-      <c r="Q41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" s="1" t="n">
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
         <v>3</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>204</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>114211</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1">
         <v>200</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -3116,42 +3382,42 @@
       <c r="M42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N42" s="2" t="n">
+      <c r="N42" s="2">
         <v>44238</v>
       </c>
-      <c r="O42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1" t="n">
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
         <v>20</v>
       </c>
-      <c r="S42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" s="1" t="n">
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
         <v>3</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>205</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>119211</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="1">
         <v>200</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -3184,42 +3450,42 @@
       <c r="M43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N43" s="2" t="n">
+      <c r="N43" s="2">
         <v>44244</v>
       </c>
-      <c r="O43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="1" t="n">
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
         <v>1</v>
       </c>
-      <c r="R43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="1" t="n">
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
         <v>3</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>206</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>120211</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="1">
         <v>200</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -3252,42 +3518,42 @@
       <c r="M44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N44" s="2" t="n">
+      <c r="N44" s="2">
         <v>44246</v>
       </c>
-      <c r="O44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1" t="n">
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
         <v>1</v>
       </c>
-      <c r="R44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="1" t="n">
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
         <v>3</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>207</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>122211</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>200</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -3320,42 +3586,42 @@
       <c r="M45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N45" s="2" t="n">
+      <c r="N45" s="2">
         <v>44249</v>
       </c>
-      <c r="O45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="1" t="n">
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
         <v>3</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>208</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>129211</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="1">
         <v>200</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -3388,42 +3654,42 @@
       <c r="M46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N46" s="2" t="n">
+      <c r="N46" s="2">
         <v>44249</v>
       </c>
-      <c r="O46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="1" t="n">
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
         <v>3</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>209</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>127211</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="1">
         <v>200</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3456,48 +3722,48 @@
       <c r="M47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N47" s="2" t="n">
+      <c r="N47" s="2">
         <v>44251</v>
       </c>
-      <c r="O47" s="1" t="n">
+      <c r="O47" s="1">
         <v>10</v>
       </c>
-      <c r="P47" s="1" t="n">
+      <c r="P47" s="1">
         <v>10</v>
       </c>
-      <c r="Q47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1" t="n">
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
         <v>28</v>
       </c>
-      <c r="S47" s="1" t="n">
+      <c r="S47" s="1">
         <v>0</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U47" s="1" t="n">
+      <c r="U47" s="1">
         <v>3</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>210</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="1">
         <v>129211</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="1">
         <v>200</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="2">
         <v>44248</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -3524,66 +3790,66 @@
       <c r="M48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N48" s="2" t="n">
+      <c r="N48" s="2">
         <v>44253</v>
       </c>
-      <c r="O48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="1" t="n">
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
         <v>1</v>
       </c>
-      <c r="Q48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="1" t="n">
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
         <v>32</v>
       </c>
-      <c r="S48" s="1" t="n">
+      <c r="S48" s="1">
         <v>0</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U48" s="1" t="n">
+      <c r="U48" s="1">
         <v>3</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>211</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>201211</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="1">
         <v>200</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="2">
         <v>44250</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="1">
         <v>10</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="2">
         <v>44251</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="1">
         <v>25</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="2">
         <v>44252</v>
       </c>
-      <c r="I49" s="1" t="n">
+      <c r="I49" s="1">
         <v>18</v>
       </c>
-      <c r="J49" s="2" t="n">
+      <c r="J49" s="2">
         <v>44253</v>
       </c>
-      <c r="K49" s="1" t="n">
+      <c r="K49" s="1">
         <v>25</v>
       </c>
       <c r="L49" s="2" t="s">
@@ -3592,122 +3858,122 @@
       <c r="M49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N49" s="2" t="n">
+      <c r="N49" s="2">
         <v>44256</v>
       </c>
-      <c r="O49" s="1" t="n">
+      <c r="O49" s="1">
         <v>90</v>
       </c>
-      <c r="P49" s="1" t="n">
+      <c r="P49" s="1">
         <v>168</v>
       </c>
-      <c r="Q49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="1" t="n">
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
         <v>228</v>
       </c>
-      <c r="S49" s="1" t="n">
+      <c r="S49" s="1">
         <v>0</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U49" s="1" t="n">
+      <c r="U49" s="1">
         <v>3</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>212</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>203211</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="1">
         <v>200</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="2">
         <v>44251</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="1">
         <v>2</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="2">
         <v>44253</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="2">
         <v>44256</v>
       </c>
-      <c r="I50" s="1" t="n">
+      <c r="I50" s="1">
         <v>51</v>
       </c>
-      <c r="J50" s="2" t="n">
+      <c r="J50" s="2">
         <v>44257</v>
       </c>
-      <c r="K50" s="1" t="n">
+      <c r="K50" s="1">
         <v>32</v>
       </c>
-      <c r="L50" s="2" t="n">
+      <c r="L50" s="2">
         <v>44258</v>
       </c>
-      <c r="M50" s="1" t="n">
+      <c r="M50" s="1">
         <v>31</v>
       </c>
-      <c r="N50" s="2" t="n">
+      <c r="N50" s="2">
         <v>44259</v>
       </c>
-      <c r="O50" s="1" t="n">
+      <c r="O50" s="1">
         <v>56</v>
       </c>
-      <c r="P50" s="1" t="n">
+      <c r="P50" s="1">
         <v>173</v>
       </c>
-      <c r="Q50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="1" t="n">
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
         <v>200</v>
       </c>
-      <c r="S50" s="1" t="n">
+      <c r="S50" s="1">
         <v>0</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U50" s="1" t="n">
+      <c r="U50" s="1">
         <v>3</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>201</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="1">
         <v>205211</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C51" s="1">
         <v>200</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="2">
         <v>44256</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="1">
         <v>14</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="2">
         <v>44257</v>
       </c>
-      <c r="G51" s="1" t="n">
+      <c r="G51" s="1">
         <v>8</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -3728,60 +3994,60 @@
       <c r="M51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N51" s="2" t="n">
+      <c r="N51" s="2">
         <v>44263</v>
       </c>
-      <c r="O51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1" t="n">
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
         <v>200</v>
       </c>
-      <c r="S51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" s="1" t="n">
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
         <v>3</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>202</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="1">
         <v>208211</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="1">
         <v>50</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="2">
         <v>44259</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E52" s="1">
         <v>6</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="2">
         <v>44260</v>
       </c>
-      <c r="G52" s="1" t="n">
+      <c r="G52" s="1">
         <v>17</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="2">
         <v>44263</v>
       </c>
-      <c r="I52" s="1" t="n">
+      <c r="I52" s="1">
         <v>9</v>
       </c>
       <c r="J52" s="2" t="s">
@@ -3796,802 +4062,802 @@
       <c r="M52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N52" s="2" t="n">
+      <c r="N52" s="2">
         <v>44264</v>
       </c>
-      <c r="O52" s="1" t="n">
+      <c r="O52" s="1">
         <v>10</v>
       </c>
-      <c r="P52" s="1" t="n">
+      <c r="P52" s="1">
         <v>42</v>
       </c>
-      <c r="Q52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="1" t="n">
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
         <v>50</v>
       </c>
-      <c r="S52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" s="1" t="n">
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
         <v>3</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>203</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="1">
         <v>216211</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="1">
         <v>81</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="2">
         <v>44263</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E53" s="1">
         <v>11</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="2">
         <v>44264</v>
       </c>
-      <c r="G53" s="1" t="n">
+      <c r="G53" s="1">
         <v>25</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="2">
         <v>44265</v>
       </c>
-      <c r="I53" s="1" t="n">
+      <c r="I53" s="1">
         <v>34</v>
       </c>
-      <c r="J53" s="2" t="n">
+      <c r="J53" s="2">
         <v>44266</v>
       </c>
-      <c r="K53" s="1" t="n">
+      <c r="K53" s="1">
         <v>72</v>
       </c>
-      <c r="L53" s="2" t="n">
+      <c r="L53" s="2">
         <v>44267</v>
       </c>
-      <c r="M53" s="1" t="n">
+      <c r="M53" s="1">
         <v>83</v>
       </c>
-      <c r="N53" s="2" t="n">
+      <c r="N53" s="2">
         <v>44271</v>
       </c>
-      <c r="O53" s="1" t="n">
+      <c r="O53" s="1">
         <v>503</v>
       </c>
-      <c r="P53" s="1" t="n">
+      <c r="P53" s="1">
         <v>728</v>
       </c>
-      <c r="Q53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="1" t="n">
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
         <v>400</v>
       </c>
-      <c r="S53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" s="1" t="n">
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
         <v>3</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>204</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="1">
         <v>219211</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="1">
         <v>100</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="2">
         <v>44265</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="1">
         <v>5</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="2">
         <v>44266</v>
       </c>
-      <c r="G54" s="1" t="n">
+      <c r="G54" s="1">
         <v>11</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="2">
         <v>44267</v>
       </c>
-      <c r="I54" s="1" t="n">
+      <c r="I54" s="1">
         <v>35</v>
       </c>
-      <c r="J54" s="2" t="n">
+      <c r="J54" s="2">
         <v>44270</v>
       </c>
-      <c r="K54" s="1" t="n">
+      <c r="K54" s="1">
         <v>464</v>
       </c>
-      <c r="L54" s="2" t="n">
+      <c r="L54" s="2">
         <v>44271</v>
       </c>
-      <c r="M54" s="1" t="n">
+      <c r="M54" s="1">
         <v>143</v>
       </c>
-      <c r="N54" s="2" t="n">
+      <c r="N54" s="2">
         <v>44274</v>
       </c>
-      <c r="O54" s="1" t="n">
+      <c r="O54" s="1">
         <v>445</v>
       </c>
-      <c r="P54" s="1" t="n">
+      <c r="P54" s="1">
         <v>1103</v>
       </c>
-      <c r="Q54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="1" t="n">
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
         <v>200</v>
       </c>
-      <c r="S54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" s="1" t="n">
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
         <v>3</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>205</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="1">
         <v>223211</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C55" s="1">
         <v>60</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="2">
         <v>44270</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="1">
         <v>71</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="2">
         <v>44271</v>
       </c>
-      <c r="G55" s="1" t="n">
+      <c r="G55" s="1">
         <v>69</v>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="H55" s="2">
         <v>44272</v>
       </c>
-      <c r="I55" s="1" t="n">
+      <c r="I55" s="1">
         <v>127</v>
       </c>
-      <c r="J55" s="2" t="n">
+      <c r="J55" s="2">
         <v>44273</v>
       </c>
-      <c r="K55" s="1" t="n">
+      <c r="K55" s="1">
         <v>137</v>
       </c>
-      <c r="L55" s="2" t="n">
+      <c r="L55" s="2">
         <v>44274</v>
       </c>
-      <c r="M55" s="1" t="n">
+      <c r="M55" s="1">
         <v>77</v>
       </c>
-      <c r="N55" s="2" t="n">
+      <c r="N55" s="2">
         <v>44278</v>
       </c>
-      <c r="O55" s="1" t="n">
+      <c r="O55" s="1">
         <v>278</v>
       </c>
-      <c r="P55" s="1" t="n">
+      <c r="P55" s="1">
         <v>759</v>
       </c>
-      <c r="Q55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="1" t="n">
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
         <v>180</v>
       </c>
-      <c r="S55" s="1" t="n">
+      <c r="S55" s="1">
         <v>0</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U55" s="1" t="n">
+      <c r="U55" s="1">
         <v>3</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>206</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="1">
         <v>301211</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C56" s="1">
         <v>86</v>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="2">
         <v>44277</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E56" s="1">
         <v>125</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="2">
         <v>44278</v>
       </c>
-      <c r="G56" s="1" t="n">
+      <c r="G56" s="1">
         <v>122</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="2">
         <v>44279</v>
       </c>
-      <c r="I56" s="1" t="n">
+      <c r="I56" s="1">
         <v>98</v>
       </c>
-      <c r="J56" s="2" t="n">
+      <c r="J56" s="2">
         <v>44280</v>
       </c>
-      <c r="K56" s="1" t="n">
+      <c r="K56" s="1">
         <v>80</v>
       </c>
-      <c r="L56" s="2" t="n">
+      <c r="L56" s="2">
         <v>44281</v>
       </c>
-      <c r="M56" s="1" t="n">
+      <c r="M56" s="1">
         <v>118</v>
       </c>
-      <c r="N56" s="2" t="n">
+      <c r="N56" s="2">
         <v>44286</v>
       </c>
-      <c r="O56" s="1" t="n">
+      <c r="O56" s="1">
         <v>1026</v>
       </c>
-      <c r="P56" s="1" t="n">
+      <c r="P56" s="1">
         <v>1569</v>
       </c>
-      <c r="Q56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" s="1" t="n">
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
         <v>1000</v>
       </c>
-      <c r="S56" s="1" t="n">
+      <c r="S56" s="1">
         <v>0</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U56" s="1" t="n">
+      <c r="U56" s="1">
         <v>3</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>210</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="1">
         <v>303211</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C57" s="1">
         <v>130</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="2">
         <v>44277</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E57" s="1">
         <v>40</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="2">
         <v>44278</v>
       </c>
-      <c r="G57" s="1" t="n">
+      <c r="G57" s="1">
         <v>2</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="2">
         <v>44280</v>
       </c>
-      <c r="I57" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="J57" s="2" t="n">
+      <c r="I57" s="1">
+        <v>22</v>
+      </c>
+      <c r="J57" s="2">
         <v>44281</v>
       </c>
-      <c r="K57" s="1" t="n">
+      <c r="K57" s="1">
         <v>18</v>
       </c>
-      <c r="L57" s="2" t="n">
+      <c r="L57" s="2">
         <v>44284</v>
       </c>
-      <c r="M57" s="1" t="n">
+      <c r="M57" s="1">
         <v>50</v>
       </c>
-      <c r="N57" s="2" t="n">
+      <c r="N57" s="2">
         <v>44287</v>
       </c>
-      <c r="O57" s="1" t="n">
+      <c r="O57" s="1">
         <v>101</v>
       </c>
-      <c r="P57" s="1" t="n">
+      <c r="P57" s="1">
         <v>233</v>
       </c>
-      <c r="Q57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="1" t="n">
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
         <v>200</v>
       </c>
-      <c r="S57" s="1" t="n">
+      <c r="S57" s="1">
         <v>0</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U57" s="1" t="n">
+      <c r="U57" s="1">
         <v>3</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>122</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="1">
         <v>1202211</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C58" s="1">
         <v>300</v>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="2">
         <v>44922</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E58" s="1">
         <v>152</v>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="F58" s="2">
         <v>44923</v>
       </c>
-      <c r="G58" s="1" t="n">
+      <c r="G58" s="1">
         <v>132</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="2">
         <v>44924</v>
       </c>
-      <c r="I58" s="1" t="n">
+      <c r="I58" s="1">
         <v>104</v>
       </c>
-      <c r="N58" s="2" t="n">
+      <c r="N58" s="2">
         <v>44564</v>
       </c>
-      <c r="O58" s="1" t="n">
+      <c r="O58" s="1">
         <v>235</v>
       </c>
-      <c r="P58" s="1" t="n">
-        <f aca="false">SUM(O58,M58,K58,I58,G58,E58)</f>
+      <c r="P58" s="1">
+        <f t="shared" ref="P58:P71" si="0">SUM(O58,M58,K58,I58,G58,E58)</f>
         <v>623</v>
       </c>
-      <c r="Q58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="1" t="n">
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
         <v>2000</v>
       </c>
-      <c r="S58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" s="1" t="n">
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
         <v>1</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>123</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="1">
         <v>1206211</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C59" s="1">
         <v>300</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="2">
         <v>44922</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E59" s="1">
         <v>59</v>
       </c>
-      <c r="F59" s="2" t="n">
+      <c r="F59" s="2">
         <v>44923</v>
       </c>
-      <c r="G59" s="1" t="n">
+      <c r="G59" s="1">
         <v>73</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="2">
         <v>44924</v>
       </c>
-      <c r="I59" s="1" t="n">
+      <c r="I59" s="1">
         <v>96</v>
       </c>
-      <c r="J59" s="2" t="n">
+      <c r="J59" s="2">
         <v>44564</v>
       </c>
-      <c r="K59" s="1" t="n">
+      <c r="K59" s="1">
         <v>113</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2" t="n">
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
         <v>44565</v>
       </c>
-      <c r="O59" s="1" t="n">
+      <c r="O59" s="1">
         <v>130</v>
       </c>
-      <c r="P59" s="1" t="n">
-        <f aca="false">SUM(O59,M59,K59,I59,G59,E59)</f>
+      <c r="P59" s="1">
+        <f t="shared" si="0"/>
         <v>471</v>
       </c>
-      <c r="Q59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="1" t="n">
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
         <v>1400</v>
       </c>
-      <c r="S59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" s="1" t="n">
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+      <c r="U59" s="1">
         <v>1</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>124</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="1">
         <v>1209211</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C60" s="1">
         <v>400</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="2">
         <v>44564</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E60" s="1">
         <v>52</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="2">
         <v>44565</v>
       </c>
-      <c r="G60" s="1" t="n">
+      <c r="G60" s="1">
         <v>26</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="2">
         <v>44568</v>
       </c>
-      <c r="I60" s="1" t="n">
+      <c r="I60" s="1">
         <v>44</v>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="J60" s="2">
         <v>44571</v>
       </c>
-      <c r="K60" s="1" t="n">
+      <c r="K60" s="1">
         <v>103</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2" t="n">
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
         <v>44572</v>
       </c>
-      <c r="O60" s="1" t="n">
+      <c r="O60" s="1">
         <v>135</v>
       </c>
-      <c r="P60" s="1" t="n">
-        <f aca="false">SUM(O60,M60,K60,I60,G60,E60)</f>
+      <c r="P60" s="1">
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="Q60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="1" t="n">
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
         <v>500</v>
       </c>
-      <c r="S60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" s="1" t="n">
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
         <v>1</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>125</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="1">
         <v>1213211</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="C61" s="1">
         <v>200</v>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" s="2">
         <v>44565</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E61" s="1">
         <v>18</v>
       </c>
-      <c r="F61" s="2" t="n">
+      <c r="F61" s="2">
         <v>44568</v>
       </c>
-      <c r="G61" s="1" t="n">
+      <c r="G61" s="1">
         <v>56</v>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="2">
         <v>44571</v>
       </c>
-      <c r="I61" s="1" t="n">
+      <c r="I61" s="1">
         <v>97</v>
       </c>
-      <c r="J61" s="2" t="n">
+      <c r="J61" s="2">
         <v>44572</v>
       </c>
-      <c r="K61" s="1" t="n">
+      <c r="K61" s="1">
         <v>65</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="2" t="n">
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
         <v>44578</v>
       </c>
-      <c r="O61" s="1" t="n">
+      <c r="O61" s="1">
         <v>90</v>
       </c>
-      <c r="P61" s="1" t="n">
-        <f aca="false">SUM(O61,M61,K61,I61,G61,E61)</f>
+      <c r="P61" s="1">
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="Q61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" s="1" t="n">
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
         <v>140</v>
       </c>
-      <c r="S61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" s="1" t="n">
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
         <v>1</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>126</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="1">
         <v>1217211</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C62" s="1">
         <v>200</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="2">
         <v>44579</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E62" s="1">
         <v>70</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="2">
         <v>44585</v>
       </c>
-      <c r="G62" s="1" t="n">
+      <c r="G62" s="1">
         <v>21</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="1" t="n">
+      <c r="I62" s="1">
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K62" s="1" t="n">
+      <c r="K62" s="1">
         <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2" t="n">
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
         <v>44586</v>
       </c>
-      <c r="O62" s="1" t="n">
+      <c r="O62" s="1">
         <v>9</v>
       </c>
-      <c r="P62" s="1" t="n">
-        <f aca="false">SUM(O62,M62,K62,I62,G62,E62)</f>
+      <c r="P62" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="Q62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" s="1" t="n">
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
         <v>89</v>
       </c>
-      <c r="S62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" s="1" t="n">
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
         <v>1</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>127</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="1">
         <v>1220211</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C63" s="1">
         <v>375</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="2">
         <v>44579</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E63" s="1">
         <v>130</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="2">
         <v>44585</v>
       </c>
-      <c r="G63" s="1" t="n">
+      <c r="G63" s="1">
         <v>49</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="1" t="n">
+      <c r="I63" s="1">
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="1" t="n">
+      <c r="K63" s="1">
         <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="2" t="n">
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
         <v>44586</v>
       </c>
-      <c r="O63" s="1" t="n">
+      <c r="O63" s="1">
         <v>54</v>
       </c>
-      <c r="P63" s="1" t="n">
-        <f aca="false">SUM(O63,M63,K63,I63,G63,E63)</f>
+      <c r="P63" s="1">
+        <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="Q63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" s="1" t="n">
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
         <v>88</v>
       </c>
-      <c r="S63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" s="1" t="n">
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
         <v>1</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>128</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="1">
         <v>1227211</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C64" s="1">
         <v>300</v>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="2">
         <v>44585</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E64" s="1">
         <v>74</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="2">
         <v>44586</v>
       </c>
-      <c r="G64" s="1" t="n">
+      <c r="G64" s="1">
         <v>37</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="2">
         <v>44592</v>
       </c>
-      <c r="I64" s="1" t="n">
+      <c r="I64" s="1">
         <v>73</v>
       </c>
       <c r="J64" s="2" t="s">
@@ -4606,386 +4872,386 @@
       <c r="M64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N64" s="2" t="n">
+      <c r="N64" s="2">
         <v>44593</v>
       </c>
-      <c r="O64" s="1" t="n">
+      <c r="O64" s="1">
         <v>75</v>
       </c>
-      <c r="P64" s="1" t="n">
-        <f aca="false">SUM(O64,M64,K64,I64,G64,E64)</f>
+      <c r="P64" s="1">
+        <f t="shared" si="0"/>
         <v>259</v>
       </c>
-      <c r="Q64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" s="1" t="n">
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
         <v>212</v>
       </c>
-      <c r="S64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" s="1" t="n">
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
         <v>1</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>129</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="1">
         <v>104221</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C65" s="1">
         <v>290</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="2">
         <v>44592</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E65" s="1">
         <v>127</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="2">
         <v>44593</v>
       </c>
-      <c r="G65" s="1" t="n">
+      <c r="G65" s="1">
         <v>125</v>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="2">
         <v>44599</v>
       </c>
-      <c r="I65" s="1" t="n">
+      <c r="I65" s="1">
         <v>555</v>
       </c>
-      <c r="J65" s="2" t="n">
+      <c r="J65" s="2">
         <v>44600</v>
       </c>
-      <c r="K65" s="1" t="n">
+      <c r="K65" s="1">
         <v>345</v>
       </c>
-      <c r="L65" s="2" t="n">
+      <c r="L65" s="2">
         <v>44601</v>
       </c>
-      <c r="M65" s="1" t="n">
+      <c r="M65" s="1">
         <v>221</v>
       </c>
-      <c r="N65" s="2" t="n">
+      <c r="N65" s="2">
         <v>44603</v>
       </c>
-      <c r="O65" s="1" t="n">
+      <c r="O65" s="1">
         <v>247</v>
       </c>
-      <c r="P65" s="1" t="n">
-        <f aca="false">SUM(O65,M65,K65,I65,G65,E65)</f>
+      <c r="P65" s="1">
+        <f t="shared" si="0"/>
         <v>1620</v>
       </c>
-      <c r="Q65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" s="1" t="n">
+      <c r="Q65" s="1">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
         <v>650</v>
       </c>
-      <c r="S65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" s="1" t="n">
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+      <c r="U65" s="1">
         <v>1</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>130</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="1">
         <v>110221</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C66" s="1">
         <v>200</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="2">
         <v>44599</v>
       </c>
-      <c r="E66" s="1" t="n">
+      <c r="E66" s="1">
         <v>115</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="2">
         <v>44600</v>
       </c>
-      <c r="G66" s="1" t="n">
+      <c r="G66" s="1">
         <v>155</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="2">
         <v>44601</v>
       </c>
-      <c r="I66" s="1" t="n">
+      <c r="I66" s="1">
         <v>179</v>
       </c>
-      <c r="J66" s="2" t="n">
+      <c r="J66" s="2">
         <v>44602</v>
       </c>
-      <c r="K66" s="1" t="n">
+      <c r="K66" s="1">
         <v>43</v>
       </c>
-      <c r="L66" s="2" t="n">
+      <c r="L66" s="2">
         <v>44603</v>
       </c>
-      <c r="M66" s="1" t="n">
+      <c r="M66" s="1">
         <v>110</v>
       </c>
-      <c r="N66" s="2" t="n">
+      <c r="N66" s="2">
         <v>44607</v>
       </c>
-      <c r="O66" s="1" t="n">
+      <c r="O66" s="1">
         <v>331</v>
       </c>
-      <c r="P66" s="1" t="n">
-        <f aca="false">SUM(O66,M66,K66,I66,G66,E66)</f>
+      <c r="P66" s="1">
+        <f t="shared" si="0"/>
         <v>933</v>
       </c>
-      <c r="Q66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="1" t="n">
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
         <v>1000</v>
       </c>
-      <c r="S66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" s="1" t="n">
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
         <v>1</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>131</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="1">
         <v>117221</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="C67" s="1">
         <v>400</v>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="2">
         <v>44606</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E67" s="1">
         <v>74</v>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="F67" s="2">
         <v>44607</v>
       </c>
-      <c r="G67" s="1" t="n">
+      <c r="G67" s="1">
         <v>251</v>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="2">
         <v>44608</v>
       </c>
-      <c r="I67" s="1" t="n">
+      <c r="I67" s="1">
         <v>145</v>
       </c>
-      <c r="J67" s="2" t="n">
+      <c r="J67" s="2">
         <v>44613</v>
       </c>
-      <c r="K67" s="1" t="n">
+      <c r="K67" s="1">
         <v>512</v>
       </c>
-      <c r="L67" s="2" t="n">
+      <c r="L67" s="2">
         <v>44614</v>
       </c>
-      <c r="M67" s="1" t="n">
+      <c r="M67" s="1">
         <v>154</v>
       </c>
-      <c r="N67" s="2" t="n">
+      <c r="N67" s="2">
         <v>44615</v>
       </c>
-      <c r="O67" s="1" t="n">
+      <c r="O67" s="1">
         <v>227</v>
       </c>
-      <c r="P67" s="1" t="n">
-        <f aca="false">SUM(O67,M67,K67,I67,G67,E67)</f>
+      <c r="P67" s="1">
+        <f t="shared" si="0"/>
         <v>1363</v>
       </c>
-      <c r="Q67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1" t="n">
+      <c r="Q67" s="1">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
         <v>350</v>
       </c>
-      <c r="S67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" s="1" t="n">
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
         <v>1</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>120</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="1">
         <v>1227212</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C68" s="1">
         <v>300</v>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" s="2">
         <v>44608</v>
       </c>
-      <c r="E68" s="1" t="n">
+      <c r="E68" s="1">
         <v>32</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="2">
         <v>44613</v>
       </c>
-      <c r="G68" s="1" t="n">
+      <c r="G68" s="1">
         <v>88</v>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="2">
         <v>44614</v>
       </c>
-      <c r="I68" s="1" t="n">
+      <c r="I68" s="1">
         <v>46</v>
       </c>
-      <c r="J68" s="2" t="n">
+      <c r="J68" s="2">
         <v>44615</v>
       </c>
-      <c r="K68" s="1" t="n">
+      <c r="K68" s="1">
         <v>42</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="2" t="n">
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2">
         <v>44621</v>
       </c>
-      <c r="O68" s="1" t="n">
+      <c r="O68" s="1">
         <v>90</v>
       </c>
-      <c r="P68" s="1" t="n">
-        <f aca="false">SUM(O68,M68,K68,I68,G68,E68)</f>
+      <c r="P68" s="1">
+        <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="Q68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" s="1" t="n">
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
         <v>1</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>132</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="1">
         <v>215221</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C69" s="1">
         <v>300</v>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="2">
         <v>44634</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E69" s="1">
         <v>137</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="2">
         <v>44637</v>
       </c>
-      <c r="G69" s="1" t="n">
+      <c r="G69" s="1">
         <v>120</v>
       </c>
-      <c r="P69" s="1" t="n">
-        <f aca="false">SUM(O69,M69,K69,I69,G69,E69)</f>
+      <c r="P69" s="1">
+        <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="U69" s="1" t="n">
+      <c r="U69" s="1">
         <v>1</v>
       </c>
       <c r="V69" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>133</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="1">
         <v>215221</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C70" s="1">
         <v>300</v>
       </c>
-      <c r="P70" s="1" t="n">
-        <f aca="false">SUM(O70,M70,K70,I70,G70,E70)</f>
-        <v>0</v>
-      </c>
-      <c r="U70" s="1" t="n">
+      <c r="P70" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="1">
         <v>1</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>134</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="1">
         <v>218221</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="C71" s="1">
         <v>240</v>
       </c>
-      <c r="D71" s="2" t="n">
-        <v>37329</v>
-      </c>
-      <c r="E71" s="1" t="n">
+      <c r="D71" s="2">
+        <v>43904</v>
+      </c>
+      <c r="E71" s="1">
         <v>63</v>
       </c>
-      <c r="F71" s="2" t="n">
+      <c r="F71" s="2">
         <v>44637</v>
       </c>
-      <c r="G71" s="1" t="n">
+      <c r="G71" s="1">
         <v>80</v>
       </c>
-      <c r="P71" s="1" t="n">
-        <f aca="false">SUM(O71,M71,K71,I71,G71,E71)</f>
+      <c r="P71" s="1">
+        <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="U71" s="1" t="n">
+      <c r="U71" s="1">
         <v>1</v>
       </c>
       <c r="V71" s="1" t="s">
@@ -4993,53 +5259,45 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="1" sqref="A72:V72 J7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" activeCellId="1" sqref="A72:V72 J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="3.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="6.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="7" width="9.13"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5107,269 +5365,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="K8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E55D8E652048054AA0D36C3D08E5010D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db2f2f1dade5d87b01cf5005cac9633a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="83faa690-2357-4073-a0a2-09d4f2327a89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57c4c7dcac411b123996d61818953eb2" ns3:_="">
-    <xsd:import namespace="83faa690-2357-4073-a0a2-09d4f2327a89"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="83faa690-2357-4073-a0a2-09d4f2327a89" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC1526CB-B31C-4A78-8568-2D3D0614F2F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="83faa690-2357-4073-a0a2-09d4f2327a89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846C5E52-4CEC-4024-ACEA-88C8F03ECE28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="83faa690-2357-4073-a0a2-09d4f2327a89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6C30CD3-37D2-45AD-8FA9-7DEAB3AEB39F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/shared_count_record.xlsx
+++ b/shared_count_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freshfromflorida-my.sharepoint.com/personal/austin_fife_fdacs_gov/Documents/Documents/rearing_logs/tamarixia_yield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C64CB41F-A6EE-4A05-B2E6-2B132979FB85}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{200976DB-5CE0-4972-9457-9DEA04FEC44B}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3945" windowWidth="21600" windowHeight="12735" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yield" sheetId="1" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="2" customWidth="1"/>

--- a/shared_count_record.xlsx
+++ b/shared_count_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freshfromflorida-my.sharepoint.com/personal/austin_fife_fdacs_gov/Documents/Documents/rearing_logs/tamarixia_yield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{200976DB-5CE0-4972-9457-9DEA04FEC44B}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237E22BE-EE1C-4A09-97DA-510915493AC2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yield" sheetId="1" r:id="rId1"/>
@@ -106,16 +106,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
     <t>APHIDS</t>
-  </si>
-  <si>
-    <t>Curry</t>
-  </si>
-  <si>
-    <t>Mix (OJ/Curry)</t>
   </si>
   <si>
     <t>ANTS</t>
@@ -128,6 +119,15 @@
   </si>
   <si>
     <t>Yld</t>
+  </si>
+  <si>
+    <t>M. paniculata</t>
+  </si>
+  <si>
+    <t>B. koenigii</t>
+  </si>
+  <si>
+    <t>Mix</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:AMJ71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1633,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1769,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U18" s="1">
         <v>1</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -1905,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U20" s="1">
         <v>1</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U21" s="1">
         <v>1</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -2381,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U27" s="1">
         <v>1</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -2789,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U33" s="1">
         <v>1</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -2993,13 +2993,13 @@
         <v>0</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U36" s="1">
         <v>1</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -3129,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U38" s="1">
         <v>1</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
         <v>3</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -3475,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -3543,7 +3543,7 @@
         <v>3</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3611,7 +3611,7 @@
         <v>3</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>3</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -3741,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U47" s="1">
         <v>3</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -3809,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U48" s="1">
         <v>3</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -3877,13 +3877,13 @@
         <v>0</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U49" s="1">
         <v>3</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U50" s="1">
         <v>3</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -4087,7 +4087,7 @@
         <v>3</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -4155,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -4223,7 +4223,7 @@
         <v>3</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -4285,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U55" s="1">
         <v>3</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -4353,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U56" s="1">
         <v>3</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U57" s="1">
         <v>3</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -4691,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -4967,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -5036,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5311,37 +5311,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>15</v>
@@ -5350,10 +5350,10 @@
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>19</v>

--- a/shared_count_record.xlsx
+++ b/shared_count_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freshfromflorida-my.sharepoint.com/personal/austin_fife_fdacs_gov/Documents/Documents/rearing_logs/tamarixia_yield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237E22BE-EE1C-4A09-97DA-510915493AC2}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC3A4AE5-F54E-4BAC-8953-67B6845EDA31}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yield" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="31">
   <si>
     <t>Cage</t>
   </si>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -207,6 +207,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,16 +527,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ71"/>
+  <dimension ref="A1:AMJ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U88" sqref="U88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="9" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" style="1" customWidth="1"/>
@@ -558,7 +564,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -626,7 +632,7 @@
       <c r="A2" s="1">
         <v>212</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>1116202</v>
       </c>
       <c r="C2" s="1">
@@ -694,7 +700,7 @@
       <c r="A3" s="1">
         <v>213</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>1117201</v>
       </c>
       <c r="C3" s="1">
@@ -762,7 +768,7 @@
       <c r="A4" s="1">
         <v>214</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>1117202</v>
       </c>
       <c r="C4" s="1">
@@ -830,7 +836,7 @@
       <c r="A5" s="1">
         <v>215</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>1117203</v>
       </c>
       <c r="C5" s="1">
@@ -898,7 +904,7 @@
       <c r="A6" s="1">
         <v>216</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>1118201</v>
       </c>
       <c r="C6" s="1">
@@ -966,7 +972,7 @@
       <c r="A7" s="1">
         <v>217</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>1118202</v>
       </c>
       <c r="C7" s="1">
@@ -1034,7 +1040,7 @@
       <c r="A8" s="1">
         <v>218</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>1120201</v>
       </c>
       <c r="C8" s="1">
@@ -1102,7 +1108,7 @@
       <c r="A9" s="1">
         <v>219</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="9">
         <v>1120202</v>
       </c>
       <c r="C9" s="1">
@@ -1170,7 +1176,7 @@
       <c r="A10" s="1">
         <v>220</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="9">
         <v>1123202</v>
       </c>
       <c r="C10" s="1">
@@ -1238,7 +1244,7 @@
       <c r="A11" s="1">
         <v>221</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="9">
         <v>1123201</v>
       </c>
       <c r="C11" s="1">
@@ -1306,7 +1312,7 @@
       <c r="A12" s="1">
         <v>222</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="9">
         <v>1125201</v>
       </c>
       <c r="C12" s="1">
@@ -1374,7 +1380,7 @@
       <c r="A13" s="1">
         <v>223</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="9">
         <v>1125202</v>
       </c>
       <c r="C13" s="1">
@@ -1442,7 +1448,7 @@
       <c r="A14" s="1">
         <v>112</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="9">
         <v>1207202</v>
       </c>
       <c r="C14" s="1">
@@ -1510,7 +1516,7 @@
       <c r="A15" s="1">
         <v>113</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="9">
         <v>1208201</v>
       </c>
       <c r="C15" s="1">
@@ -1578,7 +1584,7 @@
       <c r="A16" s="1">
         <v>114</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="9">
         <v>1208202</v>
       </c>
       <c r="C16" s="1">
@@ -1646,7 +1652,7 @@
       <c r="A17" s="1">
         <v>115</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="9">
         <v>1209201</v>
       </c>
       <c r="C17" s="1">
@@ -1714,7 +1720,7 @@
       <c r="A18" s="1">
         <v>116</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="9">
         <v>1209202</v>
       </c>
       <c r="C18" s="1">
@@ -1782,7 +1788,7 @@
       <c r="A19" s="1">
         <v>117</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="9">
         <v>1211201</v>
       </c>
       <c r="C19" s="1">
@@ -1850,7 +1856,7 @@
       <c r="A20" s="1">
         <v>118</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="9">
         <v>1211202</v>
       </c>
       <c r="C20" s="1">
@@ -1918,7 +1924,7 @@
       <c r="A21" s="1">
         <v>119</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="9">
         <v>1215201</v>
       </c>
       <c r="C21" s="1">
@@ -1986,7 +1992,7 @@
       <c r="A22" s="1">
         <v>120</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="9">
         <v>1214201</v>
       </c>
       <c r="C22" s="1">
@@ -2054,7 +2060,7 @@
       <c r="A23" s="1">
         <v>121</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="9">
         <v>1216201</v>
       </c>
       <c r="C23" s="1">
@@ -2122,7 +2128,7 @@
       <c r="A24" s="1">
         <v>122</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="9">
         <v>1216202</v>
       </c>
       <c r="C24" s="1">
@@ -2190,7 +2196,7 @@
       <c r="A25" s="1">
         <v>123</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="9">
         <v>1218201</v>
       </c>
       <c r="C25" s="1">
@@ -2258,7 +2264,7 @@
       <c r="A26" s="1">
         <v>124</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="9">
         <v>1218202</v>
       </c>
       <c r="C26" s="1">
@@ -2326,7 +2332,7 @@
       <c r="A27" s="1">
         <v>125</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="9">
         <v>1221201</v>
       </c>
       <c r="C27" s="1">
@@ -2394,7 +2400,7 @@
       <c r="A28" s="1">
         <v>126</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="9">
         <v>1221202</v>
       </c>
       <c r="C28" s="1">
@@ -2462,7 +2468,7 @@
       <c r="A29" s="1">
         <v>127</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="9">
         <v>1223201</v>
       </c>
       <c r="C29" s="1">
@@ -2530,7 +2536,7 @@
       <c r="A30" s="1">
         <v>128</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="9">
         <v>1223202</v>
       </c>
       <c r="C30" s="1">
@@ -2598,7 +2604,7 @@
       <c r="A31" s="1">
         <v>129</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="9">
         <v>1228201</v>
       </c>
       <c r="C31" s="1">
@@ -2666,7 +2672,7 @@
       <c r="A32" s="1">
         <v>130</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="9">
         <v>1228202</v>
       </c>
       <c r="C32" s="1">
@@ -2734,7 +2740,7 @@
       <c r="A33" s="1">
         <v>131</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="9">
         <v>1230201</v>
       </c>
       <c r="C33" s="1">
@@ -2802,7 +2808,7 @@
       <c r="A34" s="1">
         <v>132</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="9">
         <v>1230202</v>
       </c>
       <c r="C34" s="1">
@@ -2870,7 +2876,7 @@
       <c r="A35" s="1">
         <v>133</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="9">
         <v>104211</v>
       </c>
       <c r="C35" s="1">
@@ -2938,7 +2944,7 @@
       <c r="A36" s="1">
         <v>134</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="9">
         <v>104212</v>
       </c>
       <c r="C36" s="1">
@@ -3006,7 +3012,7 @@
       <c r="A37" s="1">
         <v>135</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="9">
         <v>106211</v>
       </c>
       <c r="C37" s="1">
@@ -3074,7 +3080,7 @@
       <c r="A38" s="1">
         <v>136</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="9">
         <v>108211</v>
       </c>
       <c r="C38" s="1">
@@ -3142,7 +3148,7 @@
       <c r="A39" s="1">
         <v>201</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="9">
         <v>111211</v>
       </c>
       <c r="C39" s="1">
@@ -3210,7 +3216,7 @@
       <c r="A40" s="1">
         <v>202</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="9">
         <v>112211</v>
       </c>
       <c r="C40" s="1">
@@ -3278,7 +3284,7 @@
       <c r="A41" s="1">
         <v>203</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="9">
         <v>113211</v>
       </c>
       <c r="C41" s="1">
@@ -3346,7 +3352,7 @@
       <c r="A42" s="1">
         <v>204</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="9">
         <v>114211</v>
       </c>
       <c r="C42" s="1">
@@ -3414,7 +3420,7 @@
       <c r="A43" s="1">
         <v>205</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="9">
         <v>119211</v>
       </c>
       <c r="C43" s="1">
@@ -3482,7 +3488,7 @@
       <c r="A44" s="1">
         <v>206</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="9">
         <v>120211</v>
       </c>
       <c r="C44" s="1">
@@ -3550,7 +3556,7 @@
       <c r="A45" s="1">
         <v>207</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="9">
         <v>122211</v>
       </c>
       <c r="C45" s="1">
@@ -3618,7 +3624,7 @@
       <c r="A46" s="1">
         <v>208</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="9">
         <v>129211</v>
       </c>
       <c r="C46" s="1">
@@ -3686,7 +3692,7 @@
       <c r="A47" s="1">
         <v>209</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="9">
         <v>127211</v>
       </c>
       <c r="C47" s="1">
@@ -3754,7 +3760,7 @@
       <c r="A48" s="1">
         <v>210</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="9">
         <v>129211</v>
       </c>
       <c r="C48" s="1">
@@ -3822,7 +3828,7 @@
       <c r="A49" s="1">
         <v>211</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="9">
         <v>201211</v>
       </c>
       <c r="C49" s="1">
@@ -3890,7 +3896,7 @@
       <c r="A50" s="1">
         <v>212</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="9">
         <v>203211</v>
       </c>
       <c r="C50" s="1">
@@ -3958,7 +3964,7 @@
       <c r="A51" s="1">
         <v>201</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="9">
         <v>205211</v>
       </c>
       <c r="C51" s="1">
@@ -4026,7 +4032,7 @@
       <c r="A52" s="1">
         <v>202</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="9">
         <v>208211</v>
       </c>
       <c r="C52" s="1">
@@ -4094,7 +4100,7 @@
       <c r="A53" s="1">
         <v>203</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="9">
         <v>216211</v>
       </c>
       <c r="C53" s="1">
@@ -4162,7 +4168,7 @@
       <c r="A54" s="1">
         <v>204</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="9">
         <v>219211</v>
       </c>
       <c r="C54" s="1">
@@ -4230,7 +4236,7 @@
       <c r="A55" s="1">
         <v>205</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="9">
         <v>223211</v>
       </c>
       <c r="C55" s="1">
@@ -4298,7 +4304,7 @@
       <c r="A56" s="1">
         <v>206</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="9">
         <v>301211</v>
       </c>
       <c r="C56" s="1">
@@ -4366,7 +4372,7 @@
       <c r="A57" s="1">
         <v>210</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="9">
         <v>303211</v>
       </c>
       <c r="C57" s="1">
@@ -4434,7 +4440,7 @@
       <c r="A58" s="1">
         <v>122</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="9">
         <v>1202211</v>
       </c>
       <c r="C58" s="1">
@@ -4465,7 +4471,7 @@
         <v>235</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" ref="P58:P71" si="0">SUM(O58,M58,K58,I58,G58,E58)</f>
+        <f t="shared" ref="P58:P73" si="0">SUM(O58,M58,K58,I58,G58,E58)</f>
         <v>623</v>
       </c>
       <c r="Q58" s="1">
@@ -4491,7 +4497,7 @@
       <c r="A59" s="1">
         <v>123</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="9">
         <v>1206211</v>
       </c>
       <c r="C59" s="1">
@@ -4560,7 +4566,7 @@
       <c r="A60" s="1">
         <v>124</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="9">
         <v>1209211</v>
       </c>
       <c r="C60" s="1">
@@ -4629,7 +4635,7 @@
       <c r="A61" s="1">
         <v>125</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="9">
         <v>1213211</v>
       </c>
       <c r="C61" s="1">
@@ -4698,7 +4704,7 @@
       <c r="A62" s="1">
         <v>126</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="9">
         <v>1217211</v>
       </c>
       <c r="C62" s="1">
@@ -4767,7 +4773,7 @@
       <c r="A63" s="1">
         <v>127</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="9">
         <v>1220211</v>
       </c>
       <c r="C63" s="1">
@@ -4836,7 +4842,7 @@
       <c r="A64" s="1">
         <v>128</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="9">
         <v>1227211</v>
       </c>
       <c r="C64" s="1">
@@ -4905,7 +4911,7 @@
       <c r="A65" s="1">
         <v>129</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="9">
         <v>104221</v>
       </c>
       <c r="C65" s="1">
@@ -4974,7 +4980,7 @@
       <c r="A66" s="1">
         <v>130</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="9">
         <v>110221</v>
       </c>
       <c r="C66" s="1">
@@ -5043,7 +5049,7 @@
       <c r="A67" s="1">
         <v>131</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="9">
         <v>117221</v>
       </c>
       <c r="C67" s="1">
@@ -5112,7 +5118,7 @@
       <c r="A68" s="1">
         <v>120</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="9">
         <v>1227212</v>
       </c>
       <c r="C68" s="1">
@@ -5164,6 +5170,12 @@
       <c r="R68" s="1">
         <v>0</v>
       </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
       <c r="U68" s="1">
         <v>1</v>
       </c>
@@ -5175,7 +5187,7 @@
       <c r="A69" s="1">
         <v>132</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="9">
         <v>215221</v>
       </c>
       <c r="C69" s="1">
@@ -5193,9 +5205,45 @@
       <c r="G69" s="1">
         <v>120</v>
       </c>
+      <c r="H69" s="2">
+        <v>44641</v>
+      </c>
+      <c r="I69" s="1">
+        <v>295</v>
+      </c>
+      <c r="J69" s="2">
+        <v>44642</v>
+      </c>
+      <c r="K69" s="1">
+        <v>84</v>
+      </c>
+      <c r="L69" s="2">
+        <v>44643</v>
+      </c>
+      <c r="M69" s="1">
+        <v>72</v>
+      </c>
+      <c r="N69" s="2">
+        <v>44648</v>
+      </c>
+      <c r="O69" s="1">
+        <v>126</v>
+      </c>
       <c r="P69" s="1">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>834</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>100</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
       </c>
       <c r="U69" s="1">
         <v>1</v>
@@ -5208,14 +5256,62 @@
       <c r="A70" s="1">
         <v>133</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="9">
         <v>215221</v>
       </c>
       <c r="C70" s="1">
         <v>300</v>
       </c>
+      <c r="D70" s="2">
+        <v>44641</v>
+      </c>
+      <c r="E70" s="1">
+        <v>55</v>
+      </c>
+      <c r="F70" s="2">
+        <v>44642</v>
+      </c>
+      <c r="G70" s="1">
+        <v>55</v>
+      </c>
+      <c r="H70" s="2">
+        <v>44648</v>
+      </c>
+      <c r="I70" s="1">
+        <v>143</v>
+      </c>
+      <c r="J70" s="2">
+        <v>44649</v>
+      </c>
+      <c r="K70" s="1">
+        <v>52</v>
+      </c>
+      <c r="L70" s="2">
+        <v>44641</v>
+      </c>
+      <c r="M70" s="1">
+        <v>78</v>
+      </c>
+      <c r="N70" s="2">
+        <v>44655</v>
+      </c>
+      <c r="O70" s="1">
+        <v>29</v>
+      </c>
       <c r="P70" s="1">
         <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>500</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1">
         <v>0</v>
       </c>
       <c r="U70" s="1">
@@ -5229,7 +5325,7 @@
       <c r="A71" s="1">
         <v>134</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="9">
         <v>218221</v>
       </c>
       <c r="C71" s="1">
@@ -5247,14 +5343,566 @@
       <c r="G71" s="1">
         <v>80</v>
       </c>
+      <c r="H71" s="2">
+        <v>44641</v>
+      </c>
+      <c r="I71" s="1">
+        <v>111</v>
+      </c>
+      <c r="J71" s="2">
+        <v>44642</v>
+      </c>
+      <c r="K71" s="1">
+        <v>20</v>
+      </c>
+      <c r="L71" s="2">
+        <v>44648</v>
+      </c>
+      <c r="M71" s="1">
+        <v>46</v>
+      </c>
+      <c r="N71" s="2">
+        <v>44655</v>
+      </c>
+      <c r="O71" s="1">
+        <v>73</v>
+      </c>
       <c r="P71" s="1">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>393</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>200</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
       </c>
       <c r="U71" s="1">
         <v>1</v>
       </c>
       <c r="V71" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>121</v>
+      </c>
+      <c r="B72" s="9">
+        <v>222221</v>
+      </c>
+      <c r="C72" s="1">
+        <v>180</v>
+      </c>
+      <c r="D72" s="2">
+        <v>44641</v>
+      </c>
+      <c r="E72" s="1">
+        <v>139</v>
+      </c>
+      <c r="F72" s="2">
+        <v>44642</v>
+      </c>
+      <c r="G72" s="1">
+        <v>41</v>
+      </c>
+      <c r="H72" s="2">
+        <v>44648</v>
+      </c>
+      <c r="I72" s="1">
+        <v>88</v>
+      </c>
+      <c r="J72" s="2">
+        <v>44649</v>
+      </c>
+      <c r="K72" s="1">
+        <v>36</v>
+      </c>
+      <c r="L72" s="2">
+        <v>44623</v>
+      </c>
+      <c r="M72" s="1">
+        <v>11</v>
+      </c>
+      <c r="N72" s="2">
+        <v>44655</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>200</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>1</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>122</v>
+      </c>
+      <c r="B73" s="9">
+        <v>302221</v>
+      </c>
+      <c r="C73" s="1">
+        <v>200</v>
+      </c>
+      <c r="D73" s="2">
+        <v>44648</v>
+      </c>
+      <c r="E73" s="1">
+        <v>102</v>
+      </c>
+      <c r="F73" s="2">
+        <v>44649</v>
+      </c>
+      <c r="G73" s="1">
+        <v>150</v>
+      </c>
+      <c r="H73" s="2">
+        <v>44651</v>
+      </c>
+      <c r="I73" s="1">
+        <v>70</v>
+      </c>
+      <c r="J73" s="2">
+        <v>44655</v>
+      </c>
+      <c r="K73" s="1">
+        <v>57</v>
+      </c>
+      <c r="L73" s="2">
+        <v>44662</v>
+      </c>
+      <c r="M73" s="1">
+        <v>10</v>
+      </c>
+      <c r="N73" s="2">
+        <v>44677</v>
+      </c>
+      <c r="O73" s="1">
+        <v>3</v>
+      </c>
+      <c r="P73" s="1">
+        <f t="shared" si="0"/>
+        <v>392</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>400</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>1</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>123</v>
+      </c>
+      <c r="B74" s="9">
+        <v>302221</v>
+      </c>
+      <c r="C74" s="1">
+        <v>200</v>
+      </c>
+      <c r="D74" s="2">
+        <v>44648</v>
+      </c>
+      <c r="E74" s="1">
+        <v>102</v>
+      </c>
+      <c r="F74" s="2">
+        <v>44649</v>
+      </c>
+      <c r="G74" s="1">
+        <v>170</v>
+      </c>
+      <c r="H74" s="2">
+        <v>44651</v>
+      </c>
+      <c r="I74" s="1">
+        <v>234</v>
+      </c>
+      <c r="J74" s="2">
+        <v>44655</v>
+      </c>
+      <c r="K74" s="1">
+        <v>513</v>
+      </c>
+      <c r="L74" s="2">
+        <v>44657</v>
+      </c>
+      <c r="M74" s="1">
+        <v>50</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>124</v>
+      </c>
+      <c r="B75" s="9">
+        <v>308221</v>
+      </c>
+      <c r="C75" s="1">
+        <v>200</v>
+      </c>
+      <c r="D75" s="2">
+        <v>44655</v>
+      </c>
+      <c r="E75" s="1">
+        <v>408</v>
+      </c>
+      <c r="F75" s="2">
+        <v>44657</v>
+      </c>
+      <c r="G75" s="1">
+        <v>98</v>
+      </c>
+      <c r="H75" s="2">
+        <v>44662</v>
+      </c>
+      <c r="I75" s="1">
+        <v>147</v>
+      </c>
+      <c r="J75" s="2">
+        <v>44669</v>
+      </c>
+      <c r="K75" s="1">
+        <v>40</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>125</v>
+      </c>
+      <c r="B76" s="9">
+        <v>311221</v>
+      </c>
+      <c r="C76" s="1">
+        <v>200</v>
+      </c>
+      <c r="D76" s="2">
+        <v>44662</v>
+      </c>
+      <c r="E76" s="1">
+        <v>369</v>
+      </c>
+      <c r="F76" s="2">
+        <v>44669</v>
+      </c>
+      <c r="G76" s="1">
+        <v>27</v>
+      </c>
+      <c r="H76" s="2">
+        <v>44676</v>
+      </c>
+      <c r="I76" s="1">
+        <v>16</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>126</v>
+      </c>
+      <c r="B77" s="9">
+        <v>314221</v>
+      </c>
+      <c r="C77" s="1">
+        <v>200</v>
+      </c>
+      <c r="D77" s="2">
+        <v>44662</v>
+      </c>
+      <c r="E77" s="1">
+        <v>366</v>
+      </c>
+      <c r="F77" s="2">
+        <v>44669</v>
+      </c>
+      <c r="G77" s="1">
+        <v>170</v>
+      </c>
+      <c r="H77" s="2">
+        <v>44677</v>
+      </c>
+      <c r="I77" s="1">
+        <v>16</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>127</v>
+      </c>
+      <c r="B78" s="9">
+        <v>315221</v>
+      </c>
+      <c r="C78" s="1">
+        <v>200</v>
+      </c>
+      <c r="D78" s="2">
+        <v>44662</v>
+      </c>
+      <c r="E78" s="1">
+        <v>285</v>
+      </c>
+      <c r="F78" s="2">
+        <v>44669</v>
+      </c>
+      <c r="G78" s="1">
+        <v>254</v>
+      </c>
+      <c r="H78" s="2">
+        <v>44673</v>
+      </c>
+      <c r="I78" s="1">
+        <v>46</v>
+      </c>
+      <c r="J78" s="2">
+        <v>44676</v>
+      </c>
+      <c r="K78" s="1">
+        <v>107</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>135</v>
+      </c>
+      <c r="B79" s="9">
+        <v>307221</v>
+      </c>
+      <c r="C79" s="1">
+        <v>200</v>
+      </c>
+      <c r="D79" s="2">
+        <v>44655</v>
+      </c>
+      <c r="E79" s="1">
+        <v>493</v>
+      </c>
+      <c r="F79" s="2">
+        <v>44657</v>
+      </c>
+      <c r="G79" s="1">
+        <v>52</v>
+      </c>
+      <c r="H79" s="2">
+        <v>44662</v>
+      </c>
+      <c r="I79" s="1">
+        <v>224</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>128</v>
+      </c>
+      <c r="B80" s="9">
+        <v>318221</v>
+      </c>
+      <c r="C80" s="1">
+        <v>200</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44662</v>
+      </c>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44669</v>
+      </c>
+      <c r="G80" s="1">
+        <v>273</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44673</v>
+      </c>
+      <c r="I80" s="1">
+        <v>154</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44676</v>
+      </c>
+      <c r="K80" s="1">
+        <v>282</v>
+      </c>
+      <c r="L80" s="2">
+        <v>44677</v>
+      </c>
+      <c r="M80" s="1">
+        <v>48</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>129</v>
+      </c>
+      <c r="B81" s="9">
+        <v>322221</v>
+      </c>
+      <c r="C81" s="1">
+        <v>200</v>
+      </c>
+      <c r="D81" s="2">
+        <v>44669</v>
+      </c>
+      <c r="E81" s="1">
+        <v>24</v>
+      </c>
+      <c r="F81" s="2">
+        <v>44676</v>
+      </c>
+      <c r="G81" s="1">
+        <v>105</v>
+      </c>
+      <c r="H81" s="2">
+        <v>44677</v>
+      </c>
+      <c r="I81" s="1">
+        <v>35</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>301</v>
+      </c>
+      <c r="B82" s="9">
+        <v>328221</v>
+      </c>
+      <c r="C82" s="1">
+        <v>200</v>
+      </c>
+      <c r="D82" s="2">
+        <v>44676</v>
+      </c>
+      <c r="E82" s="1">
+        <v>651</v>
+      </c>
+      <c r="F82" s="2">
+        <v>44677</v>
+      </c>
+      <c r="G82" s="1">
+        <v>180</v>
+      </c>
+      <c r="H82" s="2">
+        <v>44679</v>
+      </c>
+      <c r="I82" s="1">
+        <v>200</v>
+      </c>
+      <c r="U82" s="1">
+        <v>3</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>302</v>
+      </c>
+      <c r="B83" s="9">
+        <v>401221</v>
+      </c>
+      <c r="C83" s="1">
+        <v>200</v>
+      </c>
+      <c r="U83" s="1">
+        <v>3</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>303</v>
+      </c>
+      <c r="B84" s="9">
+        <v>409221</v>
+      </c>
+      <c r="C84" s="1">
+        <v>200</v>
+      </c>
+      <c r="U84" s="1">
+        <v>3</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>304</v>
+      </c>
+      <c r="B85" s="9">
+        <v>413221</v>
+      </c>
+      <c r="C85" s="1">
+        <v>200</v>
+      </c>
+      <c r="U85" s="1">
+        <v>3</v>
+      </c>
+      <c r="V85" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/shared_count_record.xlsx
+++ b/shared_count_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freshfromflorida-my.sharepoint.com/personal/austin_fife_fdacs_gov/Documents/Documents/rearing_logs/tamarixia_yield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC3A4AE5-F54E-4BAC-8953-67B6845EDA31}"/>
+  <xr:revisionPtr revIDLastSave="705" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9853FCF-D8B9-47E5-9656-5CB75A56BD78}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yield" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="72">
   <si>
     <t>Cage</t>
   </si>
@@ -128,6 +128,129 @@
   </si>
   <si>
     <t>Mix</t>
+  </si>
+  <si>
+    <t>0104221</t>
+  </si>
+  <si>
+    <t>0215221</t>
+  </si>
+  <si>
+    <t>0218221</t>
+  </si>
+  <si>
+    <t>0222221</t>
+  </si>
+  <si>
+    <t>0110221</t>
+  </si>
+  <si>
+    <t>0117221</t>
+  </si>
+  <si>
+    <t>0302221</t>
+  </si>
+  <si>
+    <t>0308221</t>
+  </si>
+  <si>
+    <t>0311221</t>
+  </si>
+  <si>
+    <t>0314221</t>
+  </si>
+  <si>
+    <t>0315221</t>
+  </si>
+  <si>
+    <t>0307221</t>
+  </si>
+  <si>
+    <t>0318221</t>
+  </si>
+  <si>
+    <t>0322221</t>
+  </si>
+  <si>
+    <t>0328221</t>
+  </si>
+  <si>
+    <t>0401221</t>
+  </si>
+  <si>
+    <t>0409221</t>
+  </si>
+  <si>
+    <t>0413221</t>
+  </si>
+  <si>
+    <t>0104211</t>
+  </si>
+  <si>
+    <t>0104212</t>
+  </si>
+  <si>
+    <t>0106211</t>
+  </si>
+  <si>
+    <t>0108211</t>
+  </si>
+  <si>
+    <t>0111211</t>
+  </si>
+  <si>
+    <t>0112211</t>
+  </si>
+  <si>
+    <t>0113211</t>
+  </si>
+  <si>
+    <t>0114211</t>
+  </si>
+  <si>
+    <t>0119211</t>
+  </si>
+  <si>
+    <t>0120211</t>
+  </si>
+  <si>
+    <t>0122211</t>
+  </si>
+  <si>
+    <t>0129211</t>
+  </si>
+  <si>
+    <t>0127211</t>
+  </si>
+  <si>
+    <t>0201211</t>
+  </si>
+  <si>
+    <t>0203211</t>
+  </si>
+  <si>
+    <t>0205211</t>
+  </si>
+  <si>
+    <t>0208211</t>
+  </si>
+  <si>
+    <t>0216211</t>
+  </si>
+  <si>
+    <t>0219211</t>
+  </si>
+  <si>
+    <t>0223211</t>
+  </si>
+  <si>
+    <t>0301211</t>
+  </si>
+  <si>
+    <t>0303211</t>
+  </si>
+  <si>
+    <t>12/9/221</t>
   </si>
 </sst>
 </file>
@@ -186,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -207,10 +330,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -527,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ85"/>
+  <dimension ref="A1:AMJ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U88" sqref="U88"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,8 +3002,8 @@
       <c r="A35" s="1">
         <v>133</v>
       </c>
-      <c r="B35" s="9">
-        <v>104211</v>
+      <c r="B35" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C35" s="1">
         <v>140</v>
@@ -2944,8 +3070,8 @@
       <c r="A36" s="1">
         <v>134</v>
       </c>
-      <c r="B36" s="9">
-        <v>104212</v>
+      <c r="B36" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C36" s="1">
         <v>105</v>
@@ -3012,8 +3138,8 @@
       <c r="A37" s="1">
         <v>135</v>
       </c>
-      <c r="B37" s="9">
-        <v>106211</v>
+      <c r="B37" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C37" s="1">
         <v>100</v>
@@ -3080,8 +3206,8 @@
       <c r="A38" s="1">
         <v>136</v>
       </c>
-      <c r="B38" s="9">
-        <v>108211</v>
+      <c r="B38" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C38" s="1">
         <v>200</v>
@@ -3148,8 +3274,8 @@
       <c r="A39" s="1">
         <v>201</v>
       </c>
-      <c r="B39" s="9">
-        <v>111211</v>
+      <c r="B39" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C39" s="1">
         <v>200</v>
@@ -3216,8 +3342,8 @@
       <c r="A40" s="1">
         <v>202</v>
       </c>
-      <c r="B40" s="9">
-        <v>112211</v>
+      <c r="B40" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C40" s="1">
         <v>200</v>
@@ -3284,8 +3410,8 @@
       <c r="A41" s="1">
         <v>203</v>
       </c>
-      <c r="B41" s="9">
-        <v>113211</v>
+      <c r="B41" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C41" s="1">
         <v>200</v>
@@ -3352,8 +3478,8 @@
       <c r="A42" s="1">
         <v>204</v>
       </c>
-      <c r="B42" s="9">
-        <v>114211</v>
+      <c r="B42" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C42" s="1">
         <v>200</v>
@@ -3420,8 +3546,8 @@
       <c r="A43" s="1">
         <v>205</v>
       </c>
-      <c r="B43" s="9">
-        <v>119211</v>
+      <c r="B43" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C43" s="1">
         <v>200</v>
@@ -3488,8 +3614,8 @@
       <c r="A44" s="1">
         <v>206</v>
       </c>
-      <c r="B44" s="9">
-        <v>120211</v>
+      <c r="B44" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
@@ -3556,8 +3682,8 @@
       <c r="A45" s="1">
         <v>207</v>
       </c>
-      <c r="B45" s="9">
-        <v>122211</v>
+      <c r="B45" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C45" s="1">
         <v>200</v>
@@ -3624,8 +3750,8 @@
       <c r="A46" s="1">
         <v>208</v>
       </c>
-      <c r="B46" s="9">
-        <v>129211</v>
+      <c r="B46" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C46" s="1">
         <v>200</v>
@@ -3692,8 +3818,8 @@
       <c r="A47" s="1">
         <v>209</v>
       </c>
-      <c r="B47" s="9">
-        <v>127211</v>
+      <c r="B47" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C47" s="1">
         <v>200</v>
@@ -3760,8 +3886,8 @@
       <c r="A48" s="1">
         <v>210</v>
       </c>
-      <c r="B48" s="9">
-        <v>129211</v>
+      <c r="B48" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C48" s="1">
         <v>200</v>
@@ -3828,8 +3954,8 @@
       <c r="A49" s="1">
         <v>211</v>
       </c>
-      <c r="B49" s="9">
-        <v>201211</v>
+      <c r="B49" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C49" s="1">
         <v>200</v>
@@ -3896,8 +4022,8 @@
       <c r="A50" s="1">
         <v>212</v>
       </c>
-      <c r="B50" s="9">
-        <v>203211</v>
+      <c r="B50" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C50" s="1">
         <v>200</v>
@@ -3964,8 +4090,8 @@
       <c r="A51" s="1">
         <v>201</v>
       </c>
-      <c r="B51" s="9">
-        <v>205211</v>
+      <c r="B51" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C51" s="1">
         <v>200</v>
@@ -4032,8 +4158,8 @@
       <c r="A52" s="1">
         <v>202</v>
       </c>
-      <c r="B52" s="9">
-        <v>208211</v>
+      <c r="B52" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
@@ -4100,8 +4226,8 @@
       <c r="A53" s="1">
         <v>203</v>
       </c>
-      <c r="B53" s="9">
-        <v>216211</v>
+      <c r="B53" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C53" s="1">
         <v>81</v>
@@ -4168,8 +4294,8 @@
       <c r="A54" s="1">
         <v>204</v>
       </c>
-      <c r="B54" s="9">
-        <v>219211</v>
+      <c r="B54" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C54" s="1">
         <v>100</v>
@@ -4236,8 +4362,8 @@
       <c r="A55" s="1">
         <v>205</v>
       </c>
-      <c r="B55" s="9">
-        <v>223211</v>
+      <c r="B55" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="C55" s="1">
         <v>60</v>
@@ -4304,8 +4430,8 @@
       <c r="A56" s="1">
         <v>206</v>
       </c>
-      <c r="B56" s="9">
-        <v>301211</v>
+      <c r="B56" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C56" s="1">
         <v>86</v>
@@ -4372,8 +4498,8 @@
       <c r="A57" s="1">
         <v>210</v>
       </c>
-      <c r="B57" s="9">
-        <v>303211</v>
+      <c r="B57" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C57" s="1">
         <v>130</v>
@@ -4438,1477 +4564,2216 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B58" s="9">
-        <v>1202211</v>
+        <v>1018211</v>
       </c>
       <c r="C58" s="1">
+        <v>200</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44508</v>
+      </c>
+      <c r="E58" s="1">
+        <v>86</v>
+      </c>
+      <c r="F58" s="2">
+        <v>44509</v>
+      </c>
+      <c r="G58" s="1">
+        <v>233</v>
+      </c>
+      <c r="H58" s="2">
+        <v>44510</v>
+      </c>
+      <c r="I58" s="1">
+        <v>218</v>
+      </c>
+      <c r="J58" s="2">
+        <v>44511</v>
+      </c>
+      <c r="K58" s="1">
+        <v>217</v>
+      </c>
+      <c r="L58" s="2">
+        <v>44512</v>
+      </c>
+      <c r="M58" s="1">
+        <v>195</v>
+      </c>
+      <c r="N58" s="2">
+        <v>44517</v>
+      </c>
+      <c r="O58" s="1">
+        <v>536</v>
+      </c>
+      <c r="P58" s="3">
+        <v>1485</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
         <v>300</v>
       </c>
-      <c r="D58" s="2">
-        <v>44922</v>
-      </c>
-      <c r="E58" s="1">
-        <v>152</v>
-      </c>
-      <c r="F58" s="2">
-        <v>44923</v>
-      </c>
-      <c r="G58" s="1">
-        <v>132</v>
-      </c>
-      <c r="H58" s="2">
-        <v>44924</v>
-      </c>
-      <c r="I58" s="1">
-        <v>104</v>
-      </c>
-      <c r="N58" s="2">
-        <v>44564</v>
-      </c>
-      <c r="O58" s="1">
-        <v>235</v>
-      </c>
-      <c r="P58" s="1">
-        <f t="shared" ref="P58:P73" si="0">SUM(O58,M58,K58,I58,G58,E58)</f>
-        <v>623</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>0</v>
-      </c>
-      <c r="R58" s="1">
-        <v>2000</v>
-      </c>
       <c r="S58" s="1">
         <v>0</v>
       </c>
       <c r="T58" s="1">
         <v>0</v>
       </c>
-      <c r="U58" s="1">
-        <v>1</v>
-      </c>
       <c r="V58" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
+        <v>129</v>
+      </c>
+      <c r="B59" s="9">
+        <v>1021211</v>
+      </c>
+      <c r="C59" s="1">
+        <v>200</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44512</v>
+      </c>
+      <c r="E59" s="1">
+        <v>17</v>
+      </c>
+      <c r="F59" s="2">
+        <v>44515</v>
+      </c>
+      <c r="G59" s="1">
+        <v>38</v>
+      </c>
+      <c r="H59" s="2">
+        <v>44516</v>
+      </c>
+      <c r="I59" s="1">
+        <v>12</v>
+      </c>
+      <c r="J59" s="2">
+        <v>44517</v>
+      </c>
+      <c r="K59" s="1">
+        <v>11</v>
+      </c>
+      <c r="L59" s="2">
+        <v>44518</v>
+      </c>
+      <c r="M59" s="1">
+        <v>22</v>
+      </c>
+      <c r="N59" s="2">
+        <v>44518</v>
+      </c>
+      <c r="O59" s="1">
+        <v>22</v>
+      </c>
+      <c r="P59" s="3">
+        <v>122</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1800</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>130</v>
+      </c>
+      <c r="B60" s="9">
+        <v>1025211</v>
+      </c>
+      <c r="C60" s="1">
+        <v>200</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44516</v>
+      </c>
+      <c r="E60" s="1">
+        <v>206</v>
+      </c>
+      <c r="F60" s="2">
+        <v>44517</v>
+      </c>
+      <c r="G60" s="1">
+        <v>215</v>
+      </c>
+      <c r="H60" s="2">
+        <v>44518</v>
+      </c>
+      <c r="I60" s="1">
+        <v>250</v>
+      </c>
+      <c r="J60" s="2">
+        <v>44519</v>
+      </c>
+      <c r="K60" s="1">
+        <v>167</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N60" s="2">
+        <v>44522</v>
+      </c>
+      <c r="O60" s="1">
+        <v>297</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1135</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <v>400</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>131</v>
+      </c>
+      <c r="B61" s="9">
+        <v>1028211</v>
+      </c>
+      <c r="C61" s="1">
+        <v>300</v>
+      </c>
+      <c r="D61" s="2">
+        <v>44518</v>
+      </c>
+      <c r="E61" s="1">
+        <v>28</v>
+      </c>
+      <c r="F61" s="2">
+        <v>44519</v>
+      </c>
+      <c r="G61" s="1">
+        <v>33</v>
+      </c>
+      <c r="H61" s="2">
+        <v>44522</v>
+      </c>
+      <c r="I61" s="1">
+        <v>72</v>
+      </c>
+      <c r="J61" s="2">
+        <v>44523</v>
+      </c>
+      <c r="K61" s="1">
+        <v>44</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N61" s="2">
+        <v>44524</v>
+      </c>
+      <c r="O61" s="1">
+        <v>94</v>
+      </c>
+      <c r="P61" s="3">
+        <v>271</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <v>900</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>132</v>
+      </c>
+      <c r="B62" s="9">
+        <v>1102211</v>
+      </c>
+      <c r="C62" s="1">
+        <v>200</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44522</v>
+      </c>
+      <c r="E62" s="1">
+        <v>31</v>
+      </c>
+      <c r="F62" s="2">
+        <v>44523</v>
+      </c>
+      <c r="G62" s="1">
+        <v>56</v>
+      </c>
+      <c r="H62" s="2">
+        <v>44524</v>
+      </c>
+      <c r="I62" s="1">
+        <v>87</v>
+      </c>
+      <c r="J62" s="2">
+        <v>44530</v>
+      </c>
+      <c r="K62" s="1">
+        <v>59</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N62" s="2">
+        <v>44531</v>
+      </c>
+      <c r="O62" s="1">
+        <v>101</v>
+      </c>
+      <c r="P62" s="3">
+        <v>334</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>133</v>
+      </c>
+      <c r="B63" s="9">
+        <v>1108211</v>
+      </c>
+      <c r="C63" s="1">
+        <v>200</v>
+      </c>
+      <c r="D63" s="2">
+        <v>44529</v>
+      </c>
+      <c r="E63" s="1">
+        <v>14</v>
+      </c>
+      <c r="F63" s="2">
+        <v>44530</v>
+      </c>
+      <c r="G63" s="1">
+        <v>49</v>
+      </c>
+      <c r="H63" s="2">
+        <v>44531</v>
+      </c>
+      <c r="I63" s="1">
+        <v>89</v>
+      </c>
+      <c r="J63" s="2">
+        <v>44532</v>
+      </c>
+      <c r="K63" s="1">
+        <v>100</v>
+      </c>
+      <c r="L63" s="2">
+        <v>44533</v>
+      </c>
+      <c r="M63" s="1">
+        <v>100</v>
+      </c>
+      <c r="N63" s="2">
+        <v>44536</v>
+      </c>
+      <c r="O63" s="1">
+        <v>400</v>
+      </c>
+      <c r="P63" s="3">
+        <v>752</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>1</v>
+      </c>
+      <c r="R63" s="1">
+        <v>2000</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>134</v>
+      </c>
+      <c r="B64" s="9">
+        <v>1112211</v>
+      </c>
+      <c r="C64" s="1">
+        <v>200</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44536</v>
+      </c>
+      <c r="E64" s="1">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2">
+        <v>44537</v>
+      </c>
+      <c r="G64" s="1">
+        <v>92</v>
+      </c>
+      <c r="H64" s="2">
+        <v>44538</v>
+      </c>
+      <c r="I64" s="1">
+        <v>37</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N64" s="2">
+        <v>44539</v>
+      </c>
+      <c r="O64" s="1">
+        <v>86</v>
+      </c>
+      <c r="P64" s="3">
+        <v>227</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>300</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>135</v>
+      </c>
+      <c r="B65" s="9">
+        <v>1115211</v>
+      </c>
+      <c r="C65" s="1">
+        <v>200</v>
+      </c>
+      <c r="D65" s="2">
+        <v>44537</v>
+      </c>
+      <c r="E65" s="1">
+        <v>108</v>
+      </c>
+      <c r="F65" s="2">
+        <v>44538</v>
+      </c>
+      <c r="G65" s="1">
+        <v>163</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" s="1">
+        <v>138</v>
+      </c>
+      <c r="J65" s="2">
+        <v>44540</v>
+      </c>
+      <c r="K65" s="1">
+        <v>100</v>
+      </c>
+      <c r="L65" s="2">
+        <v>44543</v>
+      </c>
+      <c r="M65" s="1">
+        <v>408</v>
+      </c>
+      <c r="N65" s="2">
+        <v>44550</v>
+      </c>
+      <c r="O65" s="1">
+        <v>702</v>
+      </c>
+      <c r="P65" s="3">
+        <v>1619</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>400</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>136</v>
+      </c>
+      <c r="B66" s="9">
+        <v>1119211</v>
+      </c>
+      <c r="C66" s="1">
+        <v>200</v>
+      </c>
+      <c r="D66" s="2">
+        <v>44543</v>
+      </c>
+      <c r="E66" s="1">
+        <v>192</v>
+      </c>
+      <c r="F66" s="2">
+        <v>44544</v>
+      </c>
+      <c r="G66" s="1">
+        <v>205</v>
+      </c>
+      <c r="H66" s="2">
+        <v>44545</v>
+      </c>
+      <c r="I66" s="1">
+        <v>151</v>
+      </c>
+      <c r="J66" s="2">
+        <v>44546</v>
+      </c>
+      <c r="K66" s="1">
+        <v>128</v>
+      </c>
+      <c r="L66" s="2">
+        <v>44547</v>
+      </c>
+      <c r="M66" s="1">
+        <v>40</v>
+      </c>
+      <c r="N66" s="2">
+        <v>44551</v>
+      </c>
+      <c r="O66" s="1">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1016</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>400</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>120</v>
+      </c>
+      <c r="B67" s="9">
+        <v>1124211</v>
+      </c>
+      <c r="C67" s="1">
+        <v>300</v>
+      </c>
+      <c r="D67" s="2">
+        <v>44544</v>
+      </c>
+      <c r="E67" s="1">
+        <v>25</v>
+      </c>
+      <c r="F67" s="2">
+        <v>44545</v>
+      </c>
+      <c r="G67" s="1">
+        <v>12</v>
+      </c>
+      <c r="H67" s="2">
+        <v>44546</v>
+      </c>
+      <c r="I67" s="1">
+        <v>61</v>
+      </c>
+      <c r="J67" s="2">
+        <v>44547</v>
+      </c>
+      <c r="K67" s="1">
+        <v>26</v>
+      </c>
+      <c r="L67" s="2">
+        <v>44550</v>
+      </c>
+      <c r="M67" s="1">
+        <v>174</v>
+      </c>
+      <c r="N67" s="2">
+        <v>44557</v>
+      </c>
+      <c r="O67" s="1">
+        <v>505</v>
+      </c>
+      <c r="P67" s="3">
+        <v>803</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>1500</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>121</v>
+      </c>
+      <c r="B68" s="9">
+        <v>1129211</v>
+      </c>
+      <c r="C68" s="1">
+        <v>600</v>
+      </c>
+      <c r="D68" s="2">
+        <v>44551</v>
+      </c>
+      <c r="E68" s="1">
+        <v>60</v>
+      </c>
+      <c r="F68" s="2">
+        <v>44558</v>
+      </c>
+      <c r="G68" s="1">
+        <v>26</v>
+      </c>
+      <c r="H68" s="2">
+        <v>44557</v>
+      </c>
+      <c r="I68" s="1">
+        <v>84</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N68" s="2">
+        <v>44558</v>
+      </c>
+      <c r="O68" s="1">
+        <v>95</v>
+      </c>
+      <c r="P68" s="3">
+        <v>265</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>300</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>122</v>
+      </c>
+      <c r="B69" s="9">
+        <v>1202211</v>
+      </c>
+      <c r="C69" s="1">
+        <v>300</v>
+      </c>
+      <c r="D69" s="2">
+        <v>44922</v>
+      </c>
+      <c r="E69" s="1">
+        <v>152</v>
+      </c>
+      <c r="F69" s="2">
+        <v>44923</v>
+      </c>
+      <c r="G69" s="1">
+        <v>132</v>
+      </c>
+      <c r="H69" s="2">
+        <v>44924</v>
+      </c>
+      <c r="I69" s="1">
+        <v>104</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N69" s="2">
+        <v>44564</v>
+      </c>
+      <c r="O69" s="1">
+        <v>235</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" ref="P69:P84" si="0">SUM(O69,M69,K69,I69,G69,E69)</f>
+        <v>623</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>2000</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>1</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>123</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B70" s="9">
         <v>1206211</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C70" s="1">
         <v>300</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D70" s="2">
         <v>44922</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E70" s="1">
         <v>59</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F70" s="2">
         <v>44923</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G70" s="1">
         <v>73</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H70" s="2">
         <v>44924</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I70" s="1">
         <v>96</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J70" s="2">
         <v>44564</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K70" s="1">
         <v>113</v>
       </c>
-      <c r="L59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M59" s="1">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
+      <c r="L70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
         <v>44565</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O70" s="1">
         <v>130</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P70" s="1">
         <f t="shared" si="0"/>
         <v>471</v>
       </c>
-      <c r="Q59" s="1">
-        <v>0</v>
-      </c>
-      <c r="R59" s="1">
+      <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
         <v>1400</v>
       </c>
-      <c r="S59" s="1">
-        <v>0</v>
-      </c>
-      <c r="T59" s="1">
-        <v>0</v>
-      </c>
-      <c r="U59" s="1">
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1">
         <v>1</v>
       </c>
-      <c r="V59" s="1" t="s">
+      <c r="V70" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>124</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B71" s="9">
         <v>1209211</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C71" s="1">
         <v>400</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D71" s="2">
         <v>44564</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E71" s="1">
         <v>52</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F71" s="2">
         <v>44565</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G71" s="1">
         <v>26</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H71" s="2">
         <v>44568</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I71" s="1">
         <v>44</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J71" s="2">
         <v>44571</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K71" s="1">
         <v>103</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M60" s="1">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2">
+      <c r="L71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
         <v>44572</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O71" s="1">
         <v>135</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P71" s="1">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="Q60" s="1">
-        <v>0</v>
-      </c>
-      <c r="R60" s="1">
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
         <v>500</v>
       </c>
-      <c r="S60" s="1">
-        <v>0</v>
-      </c>
-      <c r="T60" s="1">
-        <v>0</v>
-      </c>
-      <c r="U60" s="1">
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1">
         <v>1</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="V71" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>125</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B72" s="9">
         <v>1213211</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C72" s="1">
         <v>200</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D72" s="2">
         <v>44565</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E72" s="1">
         <v>18</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F72" s="2">
         <v>44568</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G72" s="1">
         <v>56</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H72" s="2">
         <v>44571</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I72" s="1">
         <v>97</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J72" s="2">
         <v>44572</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K72" s="1">
         <v>65</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M61" s="1">
-        <v>0</v>
-      </c>
-      <c r="N61" s="2">
+      <c r="L72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2">
         <v>44578</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O72" s="1">
         <v>90</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P72" s="1">
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="Q61" s="1">
-        <v>0</v>
-      </c>
-      <c r="R61" s="1">
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
         <v>140</v>
       </c>
-      <c r="S61" s="1">
-        <v>0</v>
-      </c>
-      <c r="T61" s="1">
-        <v>0</v>
-      </c>
-      <c r="U61" s="1">
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
         <v>1</v>
       </c>
-      <c r="V61" s="1" t="s">
+      <c r="V72" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>126</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B73" s="9">
         <v>1217211</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C73" s="1">
         <v>200</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D73" s="2">
         <v>44579</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E73" s="1">
         <v>70</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F73" s="2">
         <v>44585</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G73" s="1">
         <v>21</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="1">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M62" s="1">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2">
+      <c r="H73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
         <v>44586</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O73" s="1">
         <v>9</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P73" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="Q62" s="1">
-        <v>0</v>
-      </c>
-      <c r="R62" s="1">
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
         <v>89</v>
       </c>
-      <c r="S62" s="1">
-        <v>0</v>
-      </c>
-      <c r="T62" s="1">
-        <v>0</v>
-      </c>
-      <c r="U62" s="1">
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
         <v>1</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="V73" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>127</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B74" s="9">
         <v>1220211</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C74" s="1">
         <v>375</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D74" s="2">
         <v>44579</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E74" s="1">
         <v>130</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F74" s="2">
         <v>44585</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G74" s="1">
         <v>49</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="1">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0</v>
-      </c>
-      <c r="N63" s="2">
+      <c r="H74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2">
         <v>44586</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O74" s="1">
         <v>54</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P74" s="1">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="Q63" s="1">
-        <v>0</v>
-      </c>
-      <c r="R63" s="1">
+      <c r="Q74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
         <v>88</v>
       </c>
-      <c r="S63" s="1">
-        <v>0</v>
-      </c>
-      <c r="T63" s="1">
-        <v>0</v>
-      </c>
-      <c r="U63" s="1">
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1">
         <v>1</v>
       </c>
-      <c r="V63" s="1" t="s">
+      <c r="V74" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>128</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B75" s="9">
         <v>1227211</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C75" s="1">
         <v>300</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D75" s="2">
         <v>44585</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E75" s="1">
         <v>74</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F75" s="2">
         <v>44586</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G75" s="1">
         <v>37</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H75" s="2">
         <v>44592</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I75" s="1">
         <v>73</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N64" s="2">
+      <c r="J75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N75" s="2">
         <v>44593</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O75" s="1">
         <v>75</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P75" s="1">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
-      <c r="Q64" s="1">
-        <v>0</v>
-      </c>
-      <c r="R64" s="1">
+      <c r="Q75" s="1">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1">
         <v>212</v>
       </c>
-      <c r="S64" s="1">
-        <v>0</v>
-      </c>
-      <c r="T64" s="1">
-        <v>0</v>
-      </c>
-      <c r="U64" s="1">
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1">
         <v>1</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="V75" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>129</v>
       </c>
-      <c r="B65" s="9">
-        <v>104221</v>
-      </c>
-      <c r="C65" s="1">
+      <c r="B76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="1">
         <v>290</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D76" s="2">
         <v>44592</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E76" s="1">
         <v>127</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F76" s="2">
         <v>44593</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G76" s="1">
         <v>125</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H76" s="2">
         <v>44599</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I76" s="1">
         <v>555</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J76" s="2">
         <v>44600</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K76" s="1">
         <v>345</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L76" s="2">
         <v>44601</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M76" s="1">
         <v>221</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N76" s="2">
         <v>44603</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O76" s="1">
         <v>247</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P76" s="1">
         <f t="shared" si="0"/>
         <v>1620</v>
       </c>
-      <c r="Q65" s="1">
-        <v>0</v>
-      </c>
-      <c r="R65" s="1">
+      <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
         <v>650</v>
       </c>
-      <c r="S65" s="1">
-        <v>0</v>
-      </c>
-      <c r="T65" s="1">
-        <v>0</v>
-      </c>
-      <c r="U65" s="1">
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1">
         <v>1</v>
       </c>
-      <c r="V65" s="1" t="s">
+      <c r="V76" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>130</v>
       </c>
-      <c r="B66" s="9">
-        <v>110221</v>
-      </c>
-      <c r="C66" s="1">
+      <c r="B77" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="1">
         <v>200</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D77" s="2">
         <v>44599</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E77" s="1">
         <v>115</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F77" s="2">
         <v>44600</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G77" s="1">
         <v>155</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H77" s="2">
         <v>44601</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I77" s="1">
         <v>179</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J77" s="2">
         <v>44602</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K77" s="1">
         <v>43</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L77" s="2">
         <v>44603</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M77" s="1">
         <v>110</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N77" s="2">
         <v>44607</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O77" s="1">
         <v>331</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P77" s="1">
         <f t="shared" si="0"/>
         <v>933</v>
       </c>
-      <c r="Q66" s="1">
-        <v>0</v>
-      </c>
-      <c r="R66" s="1">
+      <c r="Q77" s="1">
+        <v>0</v>
+      </c>
+      <c r="R77" s="1">
         <v>1000</v>
       </c>
-      <c r="S66" s="1">
-        <v>0</v>
-      </c>
-      <c r="T66" s="1">
-        <v>0</v>
-      </c>
-      <c r="U66" s="1">
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1">
         <v>1</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="V77" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>131</v>
       </c>
-      <c r="B67" s="9">
-        <v>117221</v>
-      </c>
-      <c r="C67" s="1">
+      <c r="B78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="1">
         <v>400</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D78" s="2">
         <v>44606</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E78" s="1">
         <v>74</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F78" s="2">
         <v>44607</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G78" s="1">
         <v>251</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H78" s="2">
         <v>44608</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I78" s="1">
         <v>145</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J78" s="2">
         <v>44613</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K78" s="1">
         <v>512</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L78" s="2">
         <v>44614</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M78" s="1">
         <v>154</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N78" s="2">
         <v>44615</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O78" s="1">
         <v>227</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P78" s="1">
         <f t="shared" si="0"/>
         <v>1363</v>
       </c>
-      <c r="Q67" s="1">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1">
+      <c r="Q78" s="1">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1">
         <v>350</v>
       </c>
-      <c r="S67" s="1">
-        <v>0</v>
-      </c>
-      <c r="T67" s="1">
-        <v>0</v>
-      </c>
-      <c r="U67" s="1">
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0</v>
+      </c>
+      <c r="U78" s="1">
         <v>1</v>
       </c>
-      <c r="V67" s="1" t="s">
+      <c r="V78" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>120</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B79" s="9">
         <v>1227212</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C79" s="1">
         <v>300</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D79" s="2">
         <v>44608</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E79" s="1">
         <v>32</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F79" s="2">
         <v>44613</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G79" s="1">
         <v>88</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H79" s="2">
         <v>44614</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I79" s="1">
         <v>46</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J79" s="2">
         <v>44615</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K79" s="1">
         <v>42</v>
       </c>
-      <c r="L68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0</v>
-      </c>
-      <c r="N68" s="2">
+      <c r="L79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="2">
         <v>44621</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O79" s="1">
         <v>90</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P79" s="1">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="Q68" s="1">
-        <v>0</v>
-      </c>
-      <c r="R68" s="1">
-        <v>0</v>
-      </c>
-      <c r="S68" s="1">
-        <v>0</v>
-      </c>
-      <c r="T68" s="1">
-        <v>0</v>
-      </c>
-      <c r="U68" s="1">
+      <c r="Q79" s="1">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <v>0</v>
+      </c>
+      <c r="U79" s="1">
         <v>1</v>
       </c>
-      <c r="V68" s="1" t="s">
+      <c r="V79" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>132</v>
       </c>
-      <c r="B69" s="9">
-        <v>215221</v>
-      </c>
-      <c r="C69" s="1">
+      <c r="B80" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="1">
         <v>300</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D80" s="2">
         <v>44634</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E80" s="1">
         <v>137</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F80" s="2">
         <v>44637</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G80" s="1">
         <v>120</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H80" s="2">
         <v>44641</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I80" s="1">
         <v>295</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J80" s="2">
         <v>44642</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K80" s="1">
         <v>84</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L80" s="2">
         <v>44643</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M80" s="1">
         <v>72</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N80" s="2">
         <v>44648</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O80" s="1">
         <v>126</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P80" s="1">
         <f t="shared" si="0"/>
         <v>834</v>
       </c>
-      <c r="Q69" s="1">
-        <v>0</v>
-      </c>
-      <c r="R69" s="1">
+      <c r="Q80" s="1">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
         <v>100</v>
       </c>
-      <c r="S69" s="1">
-        <v>0</v>
-      </c>
-      <c r="T69" s="1">
-        <v>0</v>
-      </c>
-      <c r="U69" s="1">
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+      <c r="T80" s="1">
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
         <v>1</v>
       </c>
-      <c r="V69" s="1" t="s">
+      <c r="V80" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>133</v>
       </c>
-      <c r="B70" s="9">
-        <v>215221</v>
-      </c>
-      <c r="C70" s="1">
+      <c r="B81" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="1">
         <v>300</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D81" s="2">
         <v>44641</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E81" s="1">
         <v>55</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F81" s="2">
         <v>44642</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G81" s="1">
         <v>55</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H81" s="2">
         <v>44648</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I81" s="1">
         <v>143</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J81" s="2">
         <v>44649</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K81" s="1">
         <v>52</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L81" s="2">
         <v>44641</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M81" s="1">
         <v>78</v>
       </c>
-      <c r="N70" s="2">
+      <c r="N81" s="2">
         <v>44655</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O81" s="1">
         <v>29</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P81" s="1">
         <f t="shared" si="0"/>
         <v>412</v>
       </c>
-      <c r="Q70" s="1">
-        <v>0</v>
-      </c>
-      <c r="R70" s="1">
+      <c r="Q81" s="1">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
         <v>500</v>
       </c>
-      <c r="S70" s="1">
-        <v>0</v>
-      </c>
-      <c r="T70" s="1">
-        <v>0</v>
-      </c>
-      <c r="U70" s="1">
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
+      <c r="U81" s="1">
         <v>1</v>
       </c>
-      <c r="V70" s="1" t="s">
+      <c r="V81" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>134</v>
       </c>
-      <c r="B71" s="9">
-        <v>218221</v>
-      </c>
-      <c r="C71" s="1">
+      <c r="B82" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="1">
         <v>240</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D82" s="2">
         <v>43904</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E82" s="1">
         <v>63</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F82" s="2">
         <v>44637</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G82" s="1">
         <v>80</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H82" s="2">
         <v>44641</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I82" s="1">
         <v>111</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J82" s="2">
         <v>44642</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K82" s="1">
         <v>20</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L82" s="2">
         <v>44648</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M82" s="1">
         <v>46</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N82" s="2">
         <v>44655</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O82" s="1">
         <v>73</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P82" s="1">
         <f t="shared" si="0"/>
         <v>393</v>
       </c>
-      <c r="Q71" s="1">
-        <v>0</v>
-      </c>
-      <c r="R71" s="1">
+      <c r="Q82" s="1">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
         <v>200</v>
       </c>
-      <c r="S71" s="1">
-        <v>0</v>
-      </c>
-      <c r="T71" s="1">
-        <v>0</v>
-      </c>
-      <c r="U71" s="1">
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0</v>
+      </c>
+      <c r="U82" s="1">
         <v>1</v>
       </c>
-      <c r="V71" s="1" t="s">
+      <c r="V82" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="W82" s="10"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>121</v>
       </c>
-      <c r="B72" s="9">
-        <v>222221</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="B83" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="1">
         <v>180</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D83" s="2">
         <v>44641</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E83" s="1">
         <v>139</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F83" s="2">
         <v>44642</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G83" s="1">
         <v>41</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H83" s="2">
         <v>44648</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I83" s="1">
         <v>88</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J83" s="2">
         <v>44649</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K83" s="1">
         <v>36</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L83" s="2">
         <v>44623</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M83" s="1">
         <v>11</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N83" s="2">
         <v>44655</v>
       </c>
-      <c r="O72" s="1">
-        <v>0</v>
-      </c>
-      <c r="P72" s="1">
+      <c r="O83" s="1">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="Q72" s="1">
-        <v>0</v>
-      </c>
-      <c r="R72" s="1">
+      <c r="Q83" s="1">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1">
         <v>200</v>
       </c>
-      <c r="S72" s="1">
-        <v>0</v>
-      </c>
-      <c r="T72" s="1">
-        <v>0</v>
-      </c>
-      <c r="U72" s="1">
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="T83" s="1">
+        <v>0</v>
+      </c>
+      <c r="U83" s="1">
         <v>1</v>
       </c>
-      <c r="V72" s="1" t="s">
+      <c r="V83" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="W83" s="10"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>122</v>
       </c>
-      <c r="B73" s="9">
-        <v>302221</v>
-      </c>
-      <c r="C73" s="1">
+      <c r="B84" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="1">
         <v>200</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D84" s="2">
         <v>44648</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E84" s="1">
         <v>102</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F84" s="2">
         <v>44649</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G84" s="1">
         <v>150</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H84" s="2">
         <v>44651</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I84" s="1">
         <v>70</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J84" s="2">
         <v>44655</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K84" s="1">
         <v>57</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L84" s="2">
         <v>44662</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M84" s="1">
         <v>10</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N84" s="2">
         <v>44677</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O84" s="1">
         <v>3</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P84" s="1">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
-      <c r="R73" s="1">
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
         <v>400</v>
       </c>
-      <c r="S73" s="1">
-        <v>0</v>
-      </c>
-      <c r="T73" s="1">
-        <v>0</v>
-      </c>
-      <c r="U73" s="1">
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0</v>
+      </c>
+      <c r="U84" s="1">
         <v>1</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>123</v>
-      </c>
-      <c r="B74" s="9">
-        <v>302221</v>
-      </c>
-      <c r="C74" s="1">
-        <v>200</v>
-      </c>
-      <c r="D74" s="2">
-        <v>44648</v>
-      </c>
-      <c r="E74" s="1">
-        <v>102</v>
-      </c>
-      <c r="F74" s="2">
-        <v>44649</v>
-      </c>
-      <c r="G74" s="1">
-        <v>170</v>
-      </c>
-      <c r="H74" s="2">
-        <v>44651</v>
-      </c>
-      <c r="I74" s="1">
-        <v>234</v>
-      </c>
-      <c r="J74" s="2">
-        <v>44655</v>
-      </c>
-      <c r="K74" s="1">
-        <v>513</v>
-      </c>
-      <c r="L74" s="2">
-        <v>44657</v>
-      </c>
-      <c r="M74" s="1">
-        <v>50</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>124</v>
-      </c>
-      <c r="B75" s="9">
-        <v>308221</v>
-      </c>
-      <c r="C75" s="1">
-        <v>200</v>
-      </c>
-      <c r="D75" s="2">
-        <v>44655</v>
-      </c>
-      <c r="E75" s="1">
-        <v>408</v>
-      </c>
-      <c r="F75" s="2">
-        <v>44657</v>
-      </c>
-      <c r="G75" s="1">
-        <v>98</v>
-      </c>
-      <c r="H75" s="2">
-        <v>44662</v>
-      </c>
-      <c r="I75" s="1">
-        <v>147</v>
-      </c>
-      <c r="J75" s="2">
-        <v>44669</v>
-      </c>
-      <c r="K75" s="1">
-        <v>40</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>125</v>
-      </c>
-      <c r="B76" s="9">
-        <v>311221</v>
-      </c>
-      <c r="C76" s="1">
-        <v>200</v>
-      </c>
-      <c r="D76" s="2">
-        <v>44662</v>
-      </c>
-      <c r="E76" s="1">
-        <v>369</v>
-      </c>
-      <c r="F76" s="2">
-        <v>44669</v>
-      </c>
-      <c r="G76" s="1">
-        <v>27</v>
-      </c>
-      <c r="H76" s="2">
-        <v>44676</v>
-      </c>
-      <c r="I76" s="1">
-        <v>16</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>126</v>
-      </c>
-      <c r="B77" s="9">
-        <v>314221</v>
-      </c>
-      <c r="C77" s="1">
-        <v>200</v>
-      </c>
-      <c r="D77" s="2">
-        <v>44662</v>
-      </c>
-      <c r="E77" s="1">
-        <v>366</v>
-      </c>
-      <c r="F77" s="2">
-        <v>44669</v>
-      </c>
-      <c r="G77" s="1">
-        <v>170</v>
-      </c>
-      <c r="H77" s="2">
-        <v>44677</v>
-      </c>
-      <c r="I77" s="1">
-        <v>16</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>127</v>
-      </c>
-      <c r="B78" s="9">
-        <v>315221</v>
-      </c>
-      <c r="C78" s="1">
-        <v>200</v>
-      </c>
-      <c r="D78" s="2">
-        <v>44662</v>
-      </c>
-      <c r="E78" s="1">
-        <v>285</v>
-      </c>
-      <c r="F78" s="2">
-        <v>44669</v>
-      </c>
-      <c r="G78" s="1">
-        <v>254</v>
-      </c>
-      <c r="H78" s="2">
-        <v>44673</v>
-      </c>
-      <c r="I78" s="1">
-        <v>46</v>
-      </c>
-      <c r="J78" s="2">
-        <v>44676</v>
-      </c>
-      <c r="K78" s="1">
-        <v>107</v>
-      </c>
-      <c r="V78" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>135</v>
-      </c>
-      <c r="B79" s="9">
-        <v>307221</v>
-      </c>
-      <c r="C79" s="1">
-        <v>200</v>
-      </c>
-      <c r="D79" s="2">
-        <v>44655</v>
-      </c>
-      <c r="E79" s="1">
-        <v>493</v>
-      </c>
-      <c r="F79" s="2">
-        <v>44657</v>
-      </c>
-      <c r="G79" s="1">
-        <v>52</v>
-      </c>
-      <c r="H79" s="2">
-        <v>44662</v>
-      </c>
-      <c r="I79" s="1">
-        <v>224</v>
-      </c>
-      <c r="V79" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>128</v>
-      </c>
-      <c r="B80" s="9">
-        <v>318221</v>
-      </c>
-      <c r="C80" s="1">
-        <v>200</v>
-      </c>
-      <c r="D80" s="2">
-        <v>44662</v>
-      </c>
-      <c r="E80" s="1">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2">
-        <v>44669</v>
-      </c>
-      <c r="G80" s="1">
-        <v>273</v>
-      </c>
-      <c r="H80" s="2">
-        <v>44673</v>
-      </c>
-      <c r="I80" s="1">
-        <v>154</v>
-      </c>
-      <c r="J80" s="2">
-        <v>44676</v>
-      </c>
-      <c r="K80" s="1">
-        <v>282</v>
-      </c>
-      <c r="L80" s="2">
-        <v>44677</v>
-      </c>
-      <c r="M80" s="1">
-        <v>48</v>
-      </c>
-      <c r="V80" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>129</v>
-      </c>
-      <c r="B81" s="9">
-        <v>322221</v>
-      </c>
-      <c r="C81" s="1">
-        <v>200</v>
-      </c>
-      <c r="D81" s="2">
-        <v>44669</v>
-      </c>
-      <c r="E81" s="1">
-        <v>24</v>
-      </c>
-      <c r="F81" s="2">
-        <v>44676</v>
-      </c>
-      <c r="G81" s="1">
-        <v>105</v>
-      </c>
-      <c r="H81" s="2">
-        <v>44677</v>
-      </c>
-      <c r="I81" s="1">
-        <v>35</v>
-      </c>
-      <c r="V81" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>301</v>
-      </c>
-      <c r="B82" s="9">
-        <v>328221</v>
-      </c>
-      <c r="C82" s="1">
-        <v>200</v>
-      </c>
-      <c r="D82" s="2">
-        <v>44676</v>
-      </c>
-      <c r="E82" s="1">
-        <v>651</v>
-      </c>
-      <c r="F82" s="2">
-        <v>44677</v>
-      </c>
-      <c r="G82" s="1">
-        <v>180</v>
-      </c>
-      <c r="H82" s="2">
-        <v>44679</v>
-      </c>
-      <c r="I82" s="1">
-        <v>200</v>
-      </c>
-      <c r="U82" s="1">
-        <v>3</v>
-      </c>
-      <c r="V82" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>302</v>
-      </c>
-      <c r="B83" s="9">
-        <v>401221</v>
-      </c>
-      <c r="C83" s="1">
-        <v>200</v>
-      </c>
-      <c r="U83" s="1">
-        <v>3</v>
-      </c>
-      <c r="V83" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>303</v>
-      </c>
-      <c r="B84" s="9">
-        <v>409221</v>
-      </c>
-      <c r="C84" s="1">
-        <v>200</v>
-      </c>
-      <c r="U84" s="1">
-        <v>3</v>
       </c>
       <c r="V84" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W84" s="10"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>304</v>
-      </c>
-      <c r="B85" s="9">
-        <v>413221</v>
+        <v>123</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C85" s="1">
         <v>200</v>
       </c>
-      <c r="U85" s="1">
+      <c r="D85" s="2">
+        <v>44648</v>
+      </c>
+      <c r="E85" s="1">
+        <v>102</v>
+      </c>
+      <c r="F85" s="2">
+        <v>44649</v>
+      </c>
+      <c r="G85" s="1">
+        <v>170</v>
+      </c>
+      <c r="H85" s="2">
+        <v>44651</v>
+      </c>
+      <c r="I85" s="1">
+        <v>234</v>
+      </c>
+      <c r="J85" s="2">
+        <v>44655</v>
+      </c>
+      <c r="K85" s="1">
+        <v>513</v>
+      </c>
+      <c r="L85" s="2">
+        <v>44657</v>
+      </c>
+      <c r="M85" s="1">
+        <v>50</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W85" s="10"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>124</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="1">
+        <v>200</v>
+      </c>
+      <c r="D86" s="2">
+        <v>44655</v>
+      </c>
+      <c r="E86" s="1">
+        <v>408</v>
+      </c>
+      <c r="F86" s="2">
+        <v>44657</v>
+      </c>
+      <c r="G86" s="1">
+        <v>98</v>
+      </c>
+      <c r="H86" s="2">
+        <v>44662</v>
+      </c>
+      <c r="I86" s="1">
+        <v>147</v>
+      </c>
+      <c r="J86" s="2">
+        <v>44669</v>
+      </c>
+      <c r="K86" s="1">
+        <v>40</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W86" s="10"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>125</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="1">
+        <v>200</v>
+      </c>
+      <c r="D87" s="2">
+        <v>44662</v>
+      </c>
+      <c r="E87" s="1">
+        <v>369</v>
+      </c>
+      <c r="F87" s="2">
+        <v>44669</v>
+      </c>
+      <c r="G87" s="1">
+        <v>27</v>
+      </c>
+      <c r="H87" s="2">
+        <v>44676</v>
+      </c>
+      <c r="I87" s="1">
+        <v>16</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W87" s="10"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>126</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="1">
+        <v>200</v>
+      </c>
+      <c r="D88" s="2">
+        <v>44662</v>
+      </c>
+      <c r="E88" s="1">
+        <v>366</v>
+      </c>
+      <c r="F88" s="2">
+        <v>44669</v>
+      </c>
+      <c r="G88" s="1">
+        <v>170</v>
+      </c>
+      <c r="H88" s="2">
+        <v>44677</v>
+      </c>
+      <c r="I88" s="1">
+        <v>16</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W88" s="10"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>127</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="1">
+        <v>200</v>
+      </c>
+      <c r="D89" s="2">
+        <v>44662</v>
+      </c>
+      <c r="E89" s="1">
+        <v>285</v>
+      </c>
+      <c r="F89" s="2">
+        <v>44669</v>
+      </c>
+      <c r="G89" s="1">
+        <v>254</v>
+      </c>
+      <c r="H89" s="2">
+        <v>44673</v>
+      </c>
+      <c r="I89" s="1">
+        <v>46</v>
+      </c>
+      <c r="J89" s="2">
+        <v>44676</v>
+      </c>
+      <c r="K89" s="1">
+        <v>107</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W89" s="10"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>135</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="1">
+        <v>200</v>
+      </c>
+      <c r="D90" s="2">
+        <v>44655</v>
+      </c>
+      <c r="E90" s="1">
+        <v>493</v>
+      </c>
+      <c r="F90" s="2">
+        <v>44657</v>
+      </c>
+      <c r="G90" s="1">
+        <v>52</v>
+      </c>
+      <c r="H90" s="2">
+        <v>44662</v>
+      </c>
+      <c r="I90" s="1">
+        <v>224</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W90" s="10"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>128</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="1">
+        <v>200</v>
+      </c>
+      <c r="D91" s="2">
+        <v>44662</v>
+      </c>
+      <c r="E91" s="1">
         <v>3</v>
       </c>
-      <c r="V85" s="1" t="s">
+      <c r="F91" s="2">
+        <v>44669</v>
+      </c>
+      <c r="G91" s="1">
+        <v>273</v>
+      </c>
+      <c r="H91" s="2">
+        <v>44673</v>
+      </c>
+      <c r="I91" s="1">
+        <v>154</v>
+      </c>
+      <c r="J91" s="2">
+        <v>44676</v>
+      </c>
+      <c r="K91" s="1">
+        <v>282</v>
+      </c>
+      <c r="L91" s="2">
+        <v>44677</v>
+      </c>
+      <c r="M91" s="1">
+        <v>48</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W91" s="10"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>129</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="1">
+        <v>200</v>
+      </c>
+      <c r="D92" s="2">
+        <v>44669</v>
+      </c>
+      <c r="E92" s="1">
+        <v>24</v>
+      </c>
+      <c r="F92" s="2">
+        <v>44676</v>
+      </c>
+      <c r="G92" s="1">
+        <v>105</v>
+      </c>
+      <c r="H92" s="2">
+        <v>44677</v>
+      </c>
+      <c r="I92" s="1">
+        <v>35</v>
+      </c>
+      <c r="V92" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="W92" s="10"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>301</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="1">
+        <v>200</v>
+      </c>
+      <c r="D93" s="2">
+        <v>44676</v>
+      </c>
+      <c r="E93" s="1">
+        <v>651</v>
+      </c>
+      <c r="F93" s="2">
+        <v>44677</v>
+      </c>
+      <c r="G93" s="1">
+        <v>180</v>
+      </c>
+      <c r="H93" s="2">
+        <v>44679</v>
+      </c>
+      <c r="I93" s="1">
+        <v>200</v>
+      </c>
+      <c r="U93" s="1">
+        <v>3</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W93" s="10"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>302</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="1">
+        <v>200</v>
+      </c>
+      <c r="U94" s="1">
+        <v>3</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W94" s="10"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>303</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="1">
+        <v>200</v>
+      </c>
+      <c r="U95" s="1">
+        <v>3</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W95" s="10"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>304</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="1">
+        <v>200</v>
+      </c>
+      <c r="U96" s="1">
+        <v>3</v>
+      </c>
+      <c r="V96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W96" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/shared_count_record.xlsx
+++ b/shared_count_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freshfromflorida-my.sharepoint.com/personal/austin_fife_fdacs_gov/Documents/Documents/rearing_logs/tamarixia_yield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="705" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9853FCF-D8B9-47E5-9656-5CB75A56BD78}"/>
+  <xr:revisionPtr revIDLastSave="714" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022CC9F6-F9D1-456A-8A54-991D1185DE9D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="1005" windowWidth="21600" windowHeight="12735" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yield" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="126">
   <si>
     <t>Cage</t>
   </si>
@@ -130,9 +130,237 @@
     <t>Mix</t>
   </si>
   <si>
+    <t>1116202</t>
+  </si>
+  <si>
+    <t>1117201</t>
+  </si>
+  <si>
+    <t>1117202</t>
+  </si>
+  <si>
+    <t>1117203</t>
+  </si>
+  <si>
+    <t>1118201</t>
+  </si>
+  <si>
+    <t>1118202</t>
+  </si>
+  <si>
+    <t>1120201</t>
+  </si>
+  <si>
+    <t>1120202</t>
+  </si>
+  <si>
+    <t>1123202</t>
+  </si>
+  <si>
+    <t>1123201</t>
+  </si>
+  <si>
+    <t>1125201</t>
+  </si>
+  <si>
+    <t>1125202</t>
+  </si>
+  <si>
+    <t>1207202</t>
+  </si>
+  <si>
+    <t>1208201</t>
+  </si>
+  <si>
+    <t>1208202</t>
+  </si>
+  <si>
+    <t>1209201</t>
+  </si>
+  <si>
+    <t>1209202</t>
+  </si>
+  <si>
+    <t>1211201</t>
+  </si>
+  <si>
+    <t>1211202</t>
+  </si>
+  <si>
+    <t>1215201</t>
+  </si>
+  <si>
+    <t>1214201</t>
+  </si>
+  <si>
+    <t>1216201</t>
+  </si>
+  <si>
+    <t>1216202</t>
+  </si>
+  <si>
+    <t>1218201</t>
+  </si>
+  <si>
+    <t>1218202</t>
+  </si>
+  <si>
+    <t>1221201</t>
+  </si>
+  <si>
+    <t>1221202</t>
+  </si>
+  <si>
+    <t>1223201</t>
+  </si>
+  <si>
+    <t>1223202</t>
+  </si>
+  <si>
+    <t>1228201</t>
+  </si>
+  <si>
+    <t>1228202</t>
+  </si>
+  <si>
+    <t>1230201</t>
+  </si>
+  <si>
+    <t>1230202</t>
+  </si>
+  <si>
+    <t>0104211</t>
+  </si>
+  <si>
+    <t>0104212</t>
+  </si>
+  <si>
+    <t>0106211</t>
+  </si>
+  <si>
+    <t>0108211</t>
+  </si>
+  <si>
+    <t>0111211</t>
+  </si>
+  <si>
+    <t>0112211</t>
+  </si>
+  <si>
+    <t>0113211</t>
+  </si>
+  <si>
+    <t>0114211</t>
+  </si>
+  <si>
+    <t>0119211</t>
+  </si>
+  <si>
+    <t>0120211</t>
+  </si>
+  <si>
+    <t>0122211</t>
+  </si>
+  <si>
+    <t>0129211</t>
+  </si>
+  <si>
+    <t>0127211</t>
+  </si>
+  <si>
+    <t>0201211</t>
+  </si>
+  <si>
+    <t>0203211</t>
+  </si>
+  <si>
+    <t>0205211</t>
+  </si>
+  <si>
+    <t>0208211</t>
+  </si>
+  <si>
+    <t>0216211</t>
+  </si>
+  <si>
+    <t>0219211</t>
+  </si>
+  <si>
+    <t>0223211</t>
+  </si>
+  <si>
+    <t>0301211</t>
+  </si>
+  <si>
+    <t>0303211</t>
+  </si>
+  <si>
+    <t>1018211</t>
+  </si>
+  <si>
+    <t>1021211</t>
+  </si>
+  <si>
+    <t>1025211</t>
+  </si>
+  <si>
+    <t>1028211</t>
+  </si>
+  <si>
+    <t>1102211</t>
+  </si>
+  <si>
+    <t>1108211</t>
+  </si>
+  <si>
+    <t>1112211</t>
+  </si>
+  <si>
+    <t>1115211</t>
+  </si>
+  <si>
+    <t>1119211</t>
+  </si>
+  <si>
+    <t>1124211</t>
+  </si>
+  <si>
+    <t>1129211</t>
+  </si>
+  <si>
+    <t>1202211</t>
+  </si>
+  <si>
+    <t>1206211</t>
+  </si>
+  <si>
+    <t>1209211</t>
+  </si>
+  <si>
+    <t>1213211</t>
+  </si>
+  <si>
+    <t>1217211</t>
+  </si>
+  <si>
+    <t>1220211</t>
+  </si>
+  <si>
+    <t>1227211</t>
+  </si>
+  <si>
     <t>0104221</t>
   </si>
   <si>
+    <t>0110221</t>
+  </si>
+  <si>
+    <t>0117221</t>
+  </si>
+  <si>
+    <t>1227212</t>
+  </si>
+  <si>
     <t>0215221</t>
   </si>
   <si>
@@ -142,12 +370,6 @@
     <t>0222221</t>
   </si>
   <si>
-    <t>0110221</t>
-  </si>
-  <si>
-    <t>0117221</t>
-  </si>
-  <si>
     <t>0302221</t>
   </si>
   <si>
@@ -184,73 +406,13 @@
     <t>0413221</t>
   </si>
   <si>
-    <t>0104211</t>
-  </si>
-  <si>
-    <t>0104212</t>
-  </si>
-  <si>
-    <t>0106211</t>
-  </si>
-  <si>
-    <t>0108211</t>
-  </si>
-  <si>
-    <t>0111211</t>
-  </si>
-  <si>
-    <t>0112211</t>
-  </si>
-  <si>
-    <t>0113211</t>
-  </si>
-  <si>
-    <t>0114211</t>
-  </si>
-  <si>
-    <t>0119211</t>
-  </si>
-  <si>
-    <t>0120211</t>
-  </si>
-  <si>
-    <t>0122211</t>
-  </si>
-  <si>
-    <t>0129211</t>
-  </si>
-  <si>
-    <t>0127211</t>
-  </si>
-  <si>
-    <t>0201211</t>
-  </si>
-  <si>
-    <t>0203211</t>
-  </si>
-  <si>
-    <t>0205211</t>
-  </si>
-  <si>
-    <t>0208211</t>
-  </si>
-  <si>
-    <t>0216211</t>
-  </si>
-  <si>
-    <t>0219211</t>
-  </si>
-  <si>
-    <t>0223211</t>
-  </si>
-  <si>
-    <t>0301211</t>
-  </si>
-  <si>
-    <t>0303211</t>
-  </si>
-  <si>
-    <t>12/9/221</t>
+    <t>0418221</t>
+  </si>
+  <si>
+    <t>0428221</t>
+  </si>
+  <si>
+    <t>0502221</t>
   </si>
 </sst>
 </file>
@@ -330,13 +492,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -653,16 +815,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ96"/>
+  <dimension ref="A1:AMJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" style="1" customWidth="1"/>
@@ -690,43 +852,43 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -758,8 +920,8 @@
       <c r="A2" s="1">
         <v>212</v>
       </c>
-      <c r="B2" s="9">
-        <v>1116202</v>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="1">
         <v>200</v>
@@ -782,13 +944,13 @@
       <c r="I2" s="1">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -826,8 +988,8 @@
       <c r="A3" s="1">
         <v>213</v>
       </c>
-      <c r="B3" s="9">
-        <v>1117201</v>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>200</v>
@@ -856,7 +1018,7 @@
       <c r="K3" s="1">
         <v>19</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -894,8 +1056,8 @@
       <c r="A4" s="1">
         <v>214</v>
       </c>
-      <c r="B4" s="9">
-        <v>1117202</v>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>200</v>
@@ -918,13 +1080,13 @@
       <c r="I4" s="1">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -962,8 +1124,8 @@
       <c r="A5" s="1">
         <v>215</v>
       </c>
-      <c r="B5" s="9">
-        <v>1117203</v>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>200</v>
@@ -1030,8 +1192,8 @@
       <c r="A6" s="1">
         <v>216</v>
       </c>
-      <c r="B6" s="9">
-        <v>1118201</v>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>200</v>
@@ -1098,8 +1260,8 @@
       <c r="A7" s="1">
         <v>217</v>
       </c>
-      <c r="B7" s="9">
-        <v>1118202</v>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>200</v>
@@ -1166,37 +1328,37 @@
       <c r="A8" s="1">
         <v>218</v>
       </c>
-      <c r="B8" s="9">
-        <v>1120201</v>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>200</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -1234,8 +1396,8 @@
       <c r="A9" s="1">
         <v>219</v>
       </c>
-      <c r="B9" s="9">
-        <v>1120202</v>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="1">
         <v>200</v>
@@ -1302,8 +1464,8 @@
       <c r="A10" s="1">
         <v>220</v>
       </c>
-      <c r="B10" s="9">
-        <v>1123202</v>
+      <c r="B10" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>200</v>
@@ -1370,8 +1532,8 @@
       <c r="A11" s="1">
         <v>221</v>
       </c>
-      <c r="B11" s="9">
-        <v>1123201</v>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>200</v>
@@ -1394,13 +1556,13 @@
       <c r="I11" s="1">
         <v>17</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1438,8 +1600,8 @@
       <c r="A12" s="1">
         <v>222</v>
       </c>
-      <c r="B12" s="9">
-        <v>1125201</v>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>200</v>
@@ -1468,7 +1630,7 @@
       <c r="K12" s="1">
         <v>86</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -1506,8 +1668,8 @@
       <c r="A13" s="1">
         <v>223</v>
       </c>
-      <c r="B13" s="9">
-        <v>1125202</v>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="1">
         <v>200</v>
@@ -1530,13 +1692,13 @@
       <c r="I13" s="1">
         <v>58</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1574,8 +1736,8 @@
       <c r="A14" s="1">
         <v>112</v>
       </c>
-      <c r="B14" s="9">
-        <v>1207202</v>
+      <c r="B14" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
@@ -1592,22 +1754,22 @@
       <c r="G14" s="1">
         <v>17</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N14" s="2">
@@ -1642,8 +1804,8 @@
       <c r="A15" s="1">
         <v>113</v>
       </c>
-      <c r="B15" s="9">
-        <v>1208201</v>
+      <c r="B15" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C15" s="1">
         <v>180</v>
@@ -1666,16 +1828,16 @@
       <c r="I15" s="1">
         <v>14</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="2">
@@ -1710,8 +1872,8 @@
       <c r="A16" s="1">
         <v>114</v>
       </c>
-      <c r="B16" s="9">
-        <v>1208202</v>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="1">
         <v>180</v>
@@ -1734,16 +1896,16 @@
       <c r="I16" s="1">
         <v>10</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N16" s="2">
@@ -1778,8 +1940,8 @@
       <c r="A17" s="1">
         <v>115</v>
       </c>
-      <c r="B17" s="9">
-        <v>1209201</v>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="1">
         <v>110</v>
@@ -1846,8 +2008,8 @@
       <c r="A18" s="1">
         <v>116</v>
       </c>
-      <c r="B18" s="9">
-        <v>1209202</v>
+      <c r="B18" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C18" s="1">
         <v>103</v>
@@ -1914,8 +2076,8 @@
       <c r="A19" s="1">
         <v>117</v>
       </c>
-      <c r="B19" s="9">
-        <v>1211201</v>
+      <c r="B19" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C19" s="1">
         <v>200</v>
@@ -1926,28 +2088,28 @@
       <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N19" s="2">
@@ -1982,8 +2144,8 @@
       <c r="A20" s="1">
         <v>118</v>
       </c>
-      <c r="B20" s="9">
-        <v>1211202</v>
+      <c r="B20" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="1">
         <v>200</v>
@@ -2012,10 +2174,10 @@
       <c r="K20" s="1">
         <v>37</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N20" s="2">
@@ -2050,8 +2212,8 @@
       <c r="A21" s="1">
         <v>119</v>
       </c>
-      <c r="B21" s="9">
-        <v>1215201</v>
+      <c r="B21" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="1">
         <v>200</v>
@@ -2074,16 +2236,16 @@
       <c r="I21" s="1">
         <v>14</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="2">
@@ -2118,8 +2280,8 @@
       <c r="A22" s="1">
         <v>120</v>
       </c>
-      <c r="B22" s="9">
-        <v>1214201</v>
+      <c r="B22" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="1">
         <v>200</v>
@@ -2148,7 +2310,7 @@
       <c r="K22" s="1">
         <v>8</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -2186,8 +2348,8 @@
       <c r="A23" s="1">
         <v>121</v>
       </c>
-      <c r="B23" s="9">
-        <v>1216201</v>
+      <c r="B23" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="1">
         <v>200</v>
@@ -2254,8 +2416,8 @@
       <c r="A24" s="1">
         <v>122</v>
       </c>
-      <c r="B24" s="9">
-        <v>1216202</v>
+      <c r="B24" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C24" s="1">
         <v>200</v>
@@ -2272,22 +2434,22 @@
       <c r="G24" s="1">
         <v>3</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="2" t="s">
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N24" s="2">
@@ -2322,8 +2484,8 @@
       <c r="A25" s="1">
         <v>123</v>
       </c>
-      <c r="B25" s="9">
-        <v>1218201</v>
+      <c r="B25" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C25" s="1">
         <v>200</v>
@@ -2390,8 +2552,8 @@
       <c r="A26" s="1">
         <v>124</v>
       </c>
-      <c r="B26" s="9">
-        <v>1218202</v>
+      <c r="B26" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C26" s="1">
         <v>200</v>
@@ -2408,22 +2570,22 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N26" s="2">
@@ -2458,40 +2620,40 @@
       <c r="A27" s="1">
         <v>125</v>
       </c>
-      <c r="B27" s="9">
-        <v>1221201</v>
+      <c r="B27" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C27" s="1">
         <v>200</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="2">
@@ -2526,40 +2688,40 @@
       <c r="A28" s="1">
         <v>126</v>
       </c>
-      <c r="B28" s="9">
-        <v>1221202</v>
+      <c r="B28" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C28" s="1">
         <v>200</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N28" s="2">
@@ -2594,8 +2756,8 @@
       <c r="A29" s="1">
         <v>127</v>
       </c>
-      <c r="B29" s="9">
-        <v>1223201</v>
+      <c r="B29" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>200</v>
@@ -2662,8 +2824,8 @@
       <c r="A30" s="1">
         <v>128</v>
       </c>
-      <c r="B30" s="9">
-        <v>1223202</v>
+      <c r="B30" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C30" s="1">
         <v>140</v>
@@ -2686,16 +2848,16 @@
       <c r="I30" s="1">
         <v>6</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="J30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N30" s="2">
@@ -2730,8 +2892,8 @@
       <c r="A31" s="1">
         <v>129</v>
       </c>
-      <c r="B31" s="9">
-        <v>1228201</v>
+      <c r="B31" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C31" s="1">
         <v>200</v>
@@ -2798,40 +2960,40 @@
       <c r="A32" s="1">
         <v>130</v>
       </c>
-      <c r="B32" s="9">
-        <v>1228202</v>
+      <c r="B32" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C32" s="1">
         <v>130</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N32" s="2">
@@ -2866,8 +3028,8 @@
       <c r="A33" s="1">
         <v>131</v>
       </c>
-      <c r="B33" s="9">
-        <v>1230201</v>
+      <c r="B33" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C33" s="1">
         <v>103</v>
@@ -2934,8 +3096,8 @@
       <c r="A34" s="1">
         <v>132</v>
       </c>
-      <c r="B34" s="9">
-        <v>1230202</v>
+      <c r="B34" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C34" s="1">
         <v>200</v>
@@ -3002,8 +3164,8 @@
       <c r="A35" s="1">
         <v>133</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>49</v>
+      <c r="B35" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C35" s="1">
         <v>140</v>
@@ -3070,8 +3232,8 @@
       <c r="A36" s="1">
         <v>134</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>50</v>
+      <c r="B36" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C36" s="1">
         <v>105</v>
@@ -3138,8 +3300,8 @@
       <c r="A37" s="1">
         <v>135</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>51</v>
+      <c r="B37" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C37" s="1">
         <v>100</v>
@@ -3206,8 +3368,8 @@
       <c r="A38" s="1">
         <v>136</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>52</v>
+      <c r="B38" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C38" s="1">
         <v>200</v>
@@ -3218,28 +3380,28 @@
       <c r="E38" s="1">
         <v>5</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38" s="2" t="s">
+      <c r="F38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N38" s="2">
@@ -3274,8 +3436,8 @@
       <c r="A39" s="1">
         <v>201</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>53</v>
+      <c r="B39" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C39" s="1">
         <v>200</v>
@@ -3286,25 +3448,25 @@
       <c r="E39" s="1">
         <v>29</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -3342,8 +3504,8 @@
       <c r="A40" s="1">
         <v>202</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>54</v>
+      <c r="B40" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C40" s="1">
         <v>200</v>
@@ -3360,19 +3522,19 @@
       <c r="G40" s="1">
         <v>7</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -3410,8 +3572,8 @@
       <c r="A41" s="1">
         <v>203</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>55</v>
+      <c r="B41" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C41" s="1">
         <v>200</v>
@@ -3428,19 +3590,19 @@
       <c r="G41" s="1">
         <v>10</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -3478,37 +3640,37 @@
       <c r="A42" s="1">
         <v>204</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>56</v>
+      <c r="B42" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C42" s="1">
         <v>200</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -3546,37 +3708,37 @@
       <c r="A43" s="1">
         <v>205</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>57</v>
+      <c r="B43" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C43" s="1">
         <v>200</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -3614,37 +3776,37 @@
       <c r="A44" s="1">
         <v>206</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>58</v>
+      <c r="B44" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -3682,37 +3844,37 @@
       <c r="A45" s="1">
         <v>207</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>59</v>
+      <c r="B45" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C45" s="1">
         <v>200</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -3750,37 +3912,37 @@
       <c r="A46" s="1">
         <v>208</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>60</v>
+      <c r="B46" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C46" s="1">
         <v>200</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -3818,37 +3980,37 @@
       <c r="A47" s="1">
         <v>209</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>61</v>
+      <c r="B47" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C47" s="1">
         <v>200</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -3886,8 +4048,8 @@
       <c r="A48" s="1">
         <v>210</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>60</v>
+      <c r="B48" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C48" s="1">
         <v>200</v>
@@ -3898,25 +4060,25 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -3954,8 +4116,8 @@
       <c r="A49" s="1">
         <v>211</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>62</v>
+      <c r="B49" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C49" s="1">
         <v>200</v>
@@ -3984,7 +4146,7 @@
       <c r="K49" s="1">
         <v>25</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -4022,8 +4184,8 @@
       <c r="A50" s="1">
         <v>212</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>63</v>
+      <c r="B50" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C50" s="1">
         <v>200</v>
@@ -4090,8 +4252,8 @@
       <c r="A51" s="1">
         <v>201</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>64</v>
+      <c r="B51" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C51" s="1">
         <v>200</v>
@@ -4108,19 +4270,19 @@
       <c r="G51" s="1">
         <v>8</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -4158,8 +4320,8 @@
       <c r="A52" s="1">
         <v>202</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>65</v>
+      <c r="B52" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
@@ -4182,13 +4344,13 @@
       <c r="I52" s="1">
         <v>9</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -4226,8 +4388,8 @@
       <c r="A53" s="1">
         <v>203</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>66</v>
+      <c r="B53" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C53" s="1">
         <v>81</v>
@@ -4294,8 +4456,8 @@
       <c r="A54" s="1">
         <v>204</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>67</v>
+      <c r="B54" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C54" s="1">
         <v>100</v>
@@ -4362,8 +4524,8 @@
       <c r="A55" s="1">
         <v>205</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>68</v>
+      <c r="B55" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C55" s="1">
         <v>60</v>
@@ -4430,8 +4592,8 @@
       <c r="A56" s="1">
         <v>206</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>69</v>
+      <c r="B56" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C56" s="1">
         <v>86</v>
@@ -4498,8 +4660,8 @@
       <c r="A57" s="1">
         <v>210</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>70</v>
+      <c r="B57" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C57" s="1">
         <v>130</v>
@@ -4566,8 +4728,8 @@
       <c r="A58" s="1">
         <v>128</v>
       </c>
-      <c r="B58" s="9">
-        <v>1018211</v>
+      <c r="B58" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C58" s="1">
         <v>200</v>
@@ -4631,8 +4793,8 @@
       <c r="A59" s="1">
         <v>129</v>
       </c>
-      <c r="B59" s="9">
-        <v>1021211</v>
+      <c r="B59" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C59" s="1">
         <v>200</v>
@@ -4696,8 +4858,8 @@
       <c r="A60" s="1">
         <v>130</v>
       </c>
-      <c r="B60" s="9">
-        <v>1025211</v>
+      <c r="B60" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C60" s="1">
         <v>200</v>
@@ -4726,7 +4888,7 @@
       <c r="K60" s="1">
         <v>167</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -4761,8 +4923,8 @@
       <c r="A61" s="1">
         <v>131</v>
       </c>
-      <c r="B61" s="9">
-        <v>1028211</v>
+      <c r="B61" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C61" s="1">
         <v>300</v>
@@ -4791,7 +4953,7 @@
       <c r="K61" s="1">
         <v>44</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -4826,8 +4988,8 @@
       <c r="A62" s="1">
         <v>132</v>
       </c>
-      <c r="B62" s="9">
-        <v>1102211</v>
+      <c r="B62" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C62" s="1">
         <v>200</v>
@@ -4856,7 +5018,7 @@
       <c r="K62" s="1">
         <v>59</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -4891,8 +5053,8 @@
       <c r="A63" s="1">
         <v>133</v>
       </c>
-      <c r="B63" s="9">
-        <v>1108211</v>
+      <c r="B63" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C63" s="1">
         <v>200</v>
@@ -4956,8 +5118,8 @@
       <c r="A64" s="1">
         <v>134</v>
       </c>
-      <c r="B64" s="9">
-        <v>1112211</v>
+      <c r="B64" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C64" s="1">
         <v>200</v>
@@ -4980,13 +5142,13 @@
       <c r="I64" s="1">
         <v>37</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -5021,8 +5183,8 @@
       <c r="A65" s="1">
         <v>135</v>
       </c>
-      <c r="B65" s="9">
-        <v>1115211</v>
+      <c r="B65" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C65" s="1">
         <v>200</v>
@@ -5039,8 +5201,8 @@
       <c r="G65" s="1">
         <v>163</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>71</v>
+      <c r="H65" s="2">
+        <v>44539</v>
       </c>
       <c r="I65" s="1">
         <v>138</v>
@@ -5086,8 +5248,8 @@
       <c r="A66" s="1">
         <v>136</v>
       </c>
-      <c r="B66" s="9">
-        <v>1119211</v>
+      <c r="B66" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C66" s="1">
         <v>200</v>
@@ -5151,8 +5313,8 @@
       <c r="A67" s="1">
         <v>120</v>
       </c>
-      <c r="B67" s="9">
-        <v>1124211</v>
+      <c r="B67" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C67" s="1">
         <v>300</v>
@@ -5216,8 +5378,8 @@
       <c r="A68" s="1">
         <v>121</v>
       </c>
-      <c r="B68" s="9">
-        <v>1129211</v>
+      <c r="B68" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="C68" s="1">
         <v>600</v>
@@ -5240,13 +5402,13 @@
       <c r="I68" s="1">
         <v>84</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M68" s="1" t="s">
@@ -5281,8 +5443,8 @@
       <c r="A69" s="1">
         <v>122</v>
       </c>
-      <c r="B69" s="9">
-        <v>1202211</v>
+      <c r="B69" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C69" s="1">
         <v>300</v>
@@ -5305,12 +5467,13 @@
       <c r="I69" s="1">
         <v>104</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
         <v>22</v>
       </c>
@@ -5321,7 +5484,6 @@
         <v>235</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" ref="P69:P84" si="0">SUM(O69,M69,K69,I69,G69,E69)</f>
         <v>623</v>
       </c>
       <c r="Q69" s="1">
@@ -5347,8 +5509,8 @@
       <c r="A70" s="1">
         <v>123</v>
       </c>
-      <c r="B70" s="9">
-        <v>1206211</v>
+      <c r="B70" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C70" s="1">
         <v>300</v>
@@ -5377,7 +5539,7 @@
       <c r="K70" s="1">
         <v>113</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M70" s="1">
@@ -5390,7 +5552,6 @@
         <v>130</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="0"/>
         <v>471</v>
       </c>
       <c r="Q70" s="1">
@@ -5416,8 +5577,8 @@
       <c r="A71" s="1">
         <v>124</v>
       </c>
-      <c r="B71" s="9">
-        <v>1209211</v>
+      <c r="B71" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C71" s="1">
         <v>400</v>
@@ -5446,7 +5607,7 @@
       <c r="K71" s="1">
         <v>103</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M71" s="1">
@@ -5459,7 +5620,6 @@
         <v>135</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="Q71" s="1">
@@ -5485,8 +5645,8 @@
       <c r="A72" s="1">
         <v>125</v>
       </c>
-      <c r="B72" s="9">
-        <v>1213211</v>
+      <c r="B72" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C72" s="1">
         <v>200</v>
@@ -5515,7 +5675,7 @@
       <c r="K72" s="1">
         <v>65</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M72" s="1">
@@ -5528,7 +5688,6 @@
         <v>90</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="0"/>
         <v>326</v>
       </c>
       <c r="Q72" s="1">
@@ -5554,8 +5713,8 @@
       <c r="A73" s="1">
         <v>126</v>
       </c>
-      <c r="B73" s="9">
-        <v>1217211</v>
+      <c r="B73" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="C73" s="1">
         <v>200</v>
@@ -5572,19 +5731,19 @@
       <c r="G73" s="1">
         <v>21</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L73" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M73" s="1">
@@ -5597,7 +5756,6 @@
         <v>9</v>
       </c>
       <c r="P73" s="1">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="Q73" s="1">
@@ -5623,8 +5781,8 @@
       <c r="A74" s="1">
         <v>127</v>
       </c>
-      <c r="B74" s="9">
-        <v>1220211</v>
+      <c r="B74" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C74" s="1">
         <v>375</v>
@@ -5641,19 +5799,19 @@
       <c r="G74" s="1">
         <v>49</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K74" s="1">
         <v>0</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L74" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M74" s="1">
@@ -5666,7 +5824,6 @@
         <v>54</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="0"/>
         <v>233</v>
       </c>
       <c r="Q74" s="1">
@@ -5692,8 +5849,8 @@
       <c r="A75" s="1">
         <v>128</v>
       </c>
-      <c r="B75" s="9">
-        <v>1227211</v>
+      <c r="B75" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C75" s="1">
         <v>300</v>
@@ -5716,16 +5873,16 @@
       <c r="I75" s="1">
         <v>73</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M75" s="2" t="s">
+      <c r="J75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N75" s="2">
@@ -5735,7 +5892,6 @@
         <v>75</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="0"/>
         <v>259</v>
       </c>
       <c r="Q75" s="1">
@@ -5761,8 +5917,8 @@
       <c r="A76" s="1">
         <v>129</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>31</v>
+      <c r="B76" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C76" s="1">
         <v>290</v>
@@ -5804,7 +5960,6 @@
         <v>247</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="0"/>
         <v>1620</v>
       </c>
       <c r="Q76" s="1">
@@ -5830,8 +5985,8 @@
       <c r="A77" s="1">
         <v>130</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>35</v>
+      <c r="B77" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="C77" s="1">
         <v>200</v>
@@ -5873,7 +6028,6 @@
         <v>331</v>
       </c>
       <c r="P77" s="1">
-        <f t="shared" si="0"/>
         <v>933</v>
       </c>
       <c r="Q77" s="1">
@@ -5899,8 +6053,8 @@
       <c r="A78" s="1">
         <v>131</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>36</v>
+      <c r="B78" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C78" s="1">
         <v>400</v>
@@ -5942,7 +6096,6 @@
         <v>227</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" si="0"/>
         <v>1363</v>
       </c>
       <c r="Q78" s="1">
@@ -5968,8 +6121,8 @@
       <c r="A79" s="1">
         <v>120</v>
       </c>
-      <c r="B79" s="9">
-        <v>1227212</v>
+      <c r="B79" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C79" s="1">
         <v>300</v>
@@ -5998,7 +6151,7 @@
       <c r="K79" s="1">
         <v>42</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L79" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M79" s="1">
@@ -6011,7 +6164,6 @@
         <v>90</v>
       </c>
       <c r="P79" s="1">
-        <f t="shared" si="0"/>
         <v>298</v>
       </c>
       <c r="Q79" s="1">
@@ -6037,8 +6189,8 @@
       <c r="A80" s="1">
         <v>132</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>32</v>
+      <c r="B80" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C80" s="1">
         <v>300</v>
@@ -6080,7 +6232,6 @@
         <v>126</v>
       </c>
       <c r="P80" s="1">
-        <f t="shared" si="0"/>
         <v>834</v>
       </c>
       <c r="Q80" s="1">
@@ -6106,8 +6257,8 @@
       <c r="A81" s="1">
         <v>133</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>32</v>
+      <c r="B81" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C81" s="1">
         <v>300</v>
@@ -6149,7 +6300,6 @@
         <v>29</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" si="0"/>
         <v>412</v>
       </c>
       <c r="Q81" s="1">
@@ -6175,8 +6325,8 @@
       <c r="A82" s="1">
         <v>134</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>33</v>
+      <c r="B82" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C82" s="1">
         <v>240</v>
@@ -6218,7 +6368,6 @@
         <v>73</v>
       </c>
       <c r="P82" s="1">
-        <f t="shared" si="0"/>
         <v>393</v>
       </c>
       <c r="Q82" s="1">
@@ -6239,14 +6388,14 @@
       <c r="V82" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W82" s="10"/>
+      <c r="W82" s="9"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>121</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>34</v>
+      <c r="B83" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C83" s="1">
         <v>180</v>
@@ -6288,7 +6437,6 @@
         <v>0</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" si="0"/>
         <v>315</v>
       </c>
       <c r="Q83" s="1">
@@ -6309,14 +6457,14 @@
       <c r="V83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W83" s="10"/>
+      <c r="W83" s="9"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>122</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>37</v>
+      <c r="B84" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C84" s="1">
         <v>200</v>
@@ -6358,7 +6506,6 @@
         <v>3</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" si="0"/>
         <v>392</v>
       </c>
       <c r="Q84" s="1">
@@ -6379,14 +6526,14 @@
       <c r="V84" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W84" s="10"/>
+      <c r="W84" s="9"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>123</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>37</v>
+      <c r="B85" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C85" s="1">
         <v>200</v>
@@ -6421,17 +6568,41 @@
       <c r="M85" s="1">
         <v>50</v>
       </c>
+      <c r="N85" s="2">
+        <v>44683</v>
+      </c>
+      <c r="O85" s="1">
+        <v>116</v>
+      </c>
+      <c r="P85" s="1">
+        <v>1185</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>400</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0</v>
+      </c>
+      <c r="U85" s="1">
+        <v>3</v>
+      </c>
       <c r="V85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W85" s="10"/>
+      <c r="W85" s="9"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>124</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>38</v>
+      <c r="B86" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C86" s="1">
         <v>200</v>
@@ -6460,17 +6631,47 @@
       <c r="K86" s="1">
         <v>40</v>
       </c>
+      <c r="L86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2">
+        <v>44684</v>
+      </c>
+      <c r="O86" s="1">
+        <v>2</v>
+      </c>
+      <c r="P86" s="1">
+        <v>695</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0</v>
+      </c>
+      <c r="R86" s="1">
+        <v>362</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0</v>
+      </c>
+      <c r="U86" s="1">
+        <v>3</v>
+      </c>
       <c r="V86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W86" s="10"/>
+      <c r="W86" s="9"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>125</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>39</v>
+      <c r="B87" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C87" s="1">
         <v>200</v>
@@ -6493,17 +6694,53 @@
       <c r="I87" s="1">
         <v>16</v>
       </c>
+      <c r="J87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2">
+        <v>44688</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <v>412</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>2</v>
+      </c>
+      <c r="R87" s="1">
+        <v>100</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0</v>
+      </c>
+      <c r="U87" s="1">
+        <v>3</v>
+      </c>
       <c r="V87" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W87" s="10"/>
+      <c r="W87" s="9"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>126</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>40</v>
+      <c r="B88" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C88" s="1">
         <v>200</v>
@@ -6526,17 +6763,53 @@
       <c r="I88" s="1">
         <v>16</v>
       </c>
+      <c r="J88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2">
+        <v>44688</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1">
+        <v>552</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>1</v>
+      </c>
+      <c r="R88" s="1">
+        <v>50</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88" s="1">
+        <v>0</v>
+      </c>
+      <c r="U88" s="1">
+        <v>3</v>
+      </c>
       <c r="V88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W88" s="10"/>
+      <c r="W88" s="9"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>127</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>41</v>
+      <c r="B89" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C89" s="1">
         <v>200</v>
@@ -6565,17 +6838,47 @@
       <c r="K89" s="1">
         <v>107</v>
       </c>
+      <c r="L89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
+        <v>44689</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+      <c r="P89" s="1">
+        <v>692</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>1</v>
+      </c>
+      <c r="R89" s="1">
+        <v>50</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <v>0</v>
+      </c>
+      <c r="U89" s="1">
+        <v>3</v>
+      </c>
       <c r="V89" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W89" s="10"/>
+      <c r="W89" s="9"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>135</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>42</v>
+      <c r="B90" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C90" s="1">
         <v>200</v>
@@ -6598,17 +6901,53 @@
       <c r="I90" s="1">
         <v>224</v>
       </c>
+      <c r="J90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2">
+        <v>44683</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1">
+        <v>769</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>1</v>
+      </c>
+      <c r="R90" s="1">
+        <v>400</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0</v>
+      </c>
+      <c r="U90" s="1">
+        <v>3</v>
+      </c>
       <c r="V90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W90" s="10"/>
+      <c r="W90" s="9"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>128</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>43</v>
+      <c r="B91" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="C91" s="1">
         <v>200</v>
@@ -6643,17 +6982,41 @@
       <c r="M91" s="1">
         <v>48</v>
       </c>
+      <c r="N91" s="2">
+        <v>44689</v>
+      </c>
+      <c r="O91" s="1">
+        <v>21</v>
+      </c>
+      <c r="P91" s="1">
+        <v>781</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>1</v>
+      </c>
+      <c r="R91" s="1">
+        <v>100</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1">
+        <v>0</v>
+      </c>
+      <c r="U91" s="1">
+        <v>3</v>
+      </c>
       <c r="V91" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W91" s="10"/>
+      <c r="W91" s="9"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>129</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>44</v>
+      <c r="B92" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C92" s="1">
         <v>200</v>
@@ -6676,17 +7039,53 @@
       <c r="I92" s="1">
         <v>35</v>
       </c>
+      <c r="J92" s="2">
+        <v>44683</v>
+      </c>
+      <c r="K92" s="1">
+        <v>8</v>
+      </c>
+      <c r="L92" s="2">
+        <v>44690</v>
+      </c>
+      <c r="M92" s="1">
+        <v>12</v>
+      </c>
+      <c r="N92" s="2">
+        <v>44692</v>
+      </c>
+      <c r="O92" s="1">
+        <v>184</v>
+      </c>
+      <c r="P92" s="1">
+        <v>368</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>4</v>
+      </c>
+      <c r="R92" s="1">
+        <v>200</v>
+      </c>
+      <c r="S92" s="1">
+        <v>0</v>
+      </c>
+      <c r="T92" s="1">
+        <v>0</v>
+      </c>
+      <c r="U92" s="1">
+        <v>3</v>
+      </c>
       <c r="V92" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W92" s="10"/>
+      <c r="W92" s="9"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>301</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>45</v>
+      <c r="B93" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C93" s="1">
         <v>200</v>
@@ -6709,67 +7108,284 @@
       <c r="I93" s="1">
         <v>200</v>
       </c>
+      <c r="J93" s="2">
+        <v>44683</v>
+      </c>
+      <c r="K93" s="1">
+        <v>79</v>
+      </c>
+      <c r="L93" s="2">
+        <v>44684</v>
+      </c>
+      <c r="M93" s="1">
+        <v>9</v>
+      </c>
+      <c r="N93" s="2">
+        <v>44697</v>
+      </c>
+      <c r="O93" s="1">
+        <v>22</v>
+      </c>
+      <c r="P93" s="1">
+        <v>1141</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0</v>
+      </c>
+      <c r="R93" s="1">
+        <v>600</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0</v>
+      </c>
       <c r="U93" s="1">
         <v>3</v>
       </c>
       <c r="V93" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W93" s="10"/>
+      <c r="W93" s="9"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>302</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>46</v>
+      <c r="B94" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="C94" s="1">
         <v>200</v>
       </c>
+      <c r="D94" s="2">
+        <v>44683</v>
+      </c>
+      <c r="E94" s="1">
+        <v>383</v>
+      </c>
+      <c r="F94" s="2">
+        <v>44684</v>
+      </c>
+      <c r="G94" s="1">
+        <v>104</v>
+      </c>
+      <c r="H94" s="2">
+        <v>44690</v>
+      </c>
+      <c r="I94" s="1">
+        <v>18</v>
+      </c>
+      <c r="J94" s="2">
+        <v>44697</v>
+      </c>
+      <c r="K94" s="1">
+        <v>54</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
+        <v>44701</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0</v>
+      </c>
+      <c r="P94" s="1">
+        <v>559</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>0</v>
+      </c>
+      <c r="R94" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+      <c r="T94" s="1">
+        <v>0</v>
+      </c>
       <c r="U94" s="1">
         <v>3</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W94" s="10"/>
+      <c r="W94" s="9"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>303</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>47</v>
+      <c r="B95" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="C95" s="1">
         <v>200</v>
       </c>
+      <c r="D95" s="2">
+        <v>44684</v>
+      </c>
+      <c r="E95" s="1">
+        <v>55</v>
+      </c>
+      <c r="F95" s="2">
+        <v>44690</v>
+      </c>
+      <c r="G95" s="1">
+        <v>426</v>
+      </c>
+      <c r="H95" s="2">
+        <v>44693</v>
+      </c>
+      <c r="I95" s="1">
+        <v>30</v>
+      </c>
+      <c r="J95" s="2">
+        <v>44697</v>
+      </c>
+      <c r="K95" s="1">
+        <v>173</v>
+      </c>
+      <c r="L95" s="2">
+        <v>44701</v>
+      </c>
+      <c r="M95" s="1">
+        <v>265</v>
+      </c>
+      <c r="N95" s="1"/>
       <c r="U95" s="1">
         <v>3</v>
       </c>
       <c r="V95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W95" s="10"/>
+      <c r="W95" s="9"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>304</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>48</v>
+      <c r="B96" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="C96" s="1">
         <v>200</v>
       </c>
+      <c r="D96" s="2">
+        <v>44690</v>
+      </c>
+      <c r="E96" s="1">
+        <v>144</v>
+      </c>
+      <c r="F96" s="2">
+        <v>44693</v>
+      </c>
+      <c r="G96" s="1">
+        <v>170</v>
+      </c>
+      <c r="H96" s="2">
+        <v>44697</v>
+      </c>
+      <c r="I96" s="1">
+        <v>429</v>
+      </c>
+      <c r="J96" s="2">
+        <v>44701</v>
+      </c>
+      <c r="K96" s="1">
+        <v>106</v>
+      </c>
+      <c r="L96" s="2">
+        <v>44704</v>
+      </c>
+      <c r="M96" s="1">
+        <v>276</v>
+      </c>
+      <c r="N96" s="1"/>
       <c r="U96" s="1">
         <v>3</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W96" s="10"/>
+      <c r="W96" s="9"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>305</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="1">
+        <v>200</v>
+      </c>
+      <c r="D97" s="2">
+        <v>44697</v>
+      </c>
+      <c r="E97" s="1">
+        <v>622</v>
+      </c>
+      <c r="F97" s="2">
+        <v>44701</v>
+      </c>
+      <c r="G97" s="1">
+        <v>61</v>
+      </c>
+      <c r="H97" s="2">
+        <v>44704</v>
+      </c>
+      <c r="I97" s="1">
+        <v>301</v>
+      </c>
+      <c r="J97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>306</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="1">
+        <v>200</v>
+      </c>
+      <c r="D98" s="2">
+        <v>44704</v>
+      </c>
+      <c r="E98" s="1">
+        <v>12</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>301</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="1">
+        <v>200</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="N99" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.511811023622047" footer="0.511811023622047"/>

--- a/shared_count_record.xlsx
+++ b/shared_count_record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freshfromflorida-my.sharepoint.com/personal/austin_fife_fdacs_gov/Documents/Documents/rearing_logs/tamarixia_yield/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://freshfromflorida-my.sharepoint.com/personal/austin_fife_fdacs_gov/Documents/Documents/rearing_data/tamarixia_yield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="714" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022CC9F6-F9D1-456A-8A54-991D1185DE9D}"/>
+  <xr:revisionPtr revIDLastSave="836" documentId="11_E0504597DE5C5BEA7A8B0049EA9C30C228DB175F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE77F14-0370-4322-B332-E5E7D7D4A05C}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="1005" windowWidth="21600" windowHeight="12735" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yield" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="132">
   <si>
     <t>Cage</t>
   </si>
@@ -413,6 +413,24 @@
   </si>
   <si>
     <t>0502221</t>
+  </si>
+  <si>
+    <t>0506221</t>
+  </si>
+  <si>
+    <t>0513221</t>
+  </si>
+  <si>
+    <t>0517221</t>
+  </si>
+  <si>
+    <t>0521221</t>
+  </si>
+  <si>
+    <t>0603221</t>
+  </si>
+  <si>
+    <t>0613221</t>
   </si>
 </sst>
 </file>
@@ -815,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ99"/>
+  <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V105" sqref="A1:V105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7258,7 +7276,27 @@
       <c r="M95" s="1">
         <v>265</v>
       </c>
-      <c r="N95" s="1"/>
+      <c r="N95" s="2">
+        <v>44712</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0</v>
+      </c>
+      <c r="P95" s="1">
+        <v>949</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>0</v>
+      </c>
+      <c r="R95" s="1">
+        <v>1100</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="T95" s="1">
+        <v>0</v>
+      </c>
       <c r="U95" s="1">
         <v>3</v>
       </c>
@@ -7307,7 +7345,27 @@
       <c r="M96" s="1">
         <v>276</v>
       </c>
-      <c r="N96" s="1"/>
+      <c r="N96" s="2">
+        <v>44712</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0</v>
+      </c>
+      <c r="P96" s="1">
+        <v>1208</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>0</v>
+      </c>
+      <c r="R96" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="T96" s="1">
+        <v>0</v>
+      </c>
       <c r="U96" s="1">
         <v>3</v>
       </c>
@@ -7316,7 +7374,7 @@
       </c>
       <c r="W96" s="9"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>305</v>
       </c>
@@ -7344,11 +7402,32 @@
       <c r="I97" s="1">
         <v>301</v>
       </c>
-      <c r="J97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J97" s="2">
+        <v>44708</v>
+      </c>
+      <c r="L97" s="2">
+        <v>44712</v>
+      </c>
+      <c r="N97" s="2">
+        <v>44718</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>2</v>
+      </c>
+      <c r="R97" s="1">
+        <v>200</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>306</v>
       </c>
@@ -7364,13 +7443,40 @@
       <c r="E98" s="1">
         <v>12</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="H98" s="1"/>
+      <c r="F98" s="2">
+        <v>44708</v>
+      </c>
+      <c r="G98" s="1">
+        <v>12</v>
+      </c>
+      <c r="H98" s="2">
+        <v>44712</v>
+      </c>
+      <c r="I98" s="1">
+        <v>349</v>
+      </c>
       <c r="J98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N98" s="2">
+        <v>44720</v>
+      </c>
+      <c r="O98" s="1">
+        <v>0</v>
+      </c>
+      <c r="P98" s="1">
+        <v>496</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>0</v>
+      </c>
+      <c r="R98" s="1">
+        <v>1000</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>301</v>
       </c>
@@ -7380,12 +7486,257 @@
       <c r="C99" s="1">
         <v>200</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="D99" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E99" s="1">
+        <v>638</v>
+      </c>
+      <c r="F99" s="2">
+        <v>44718</v>
+      </c>
+      <c r="G99" s="1">
+        <v>638</v>
+      </c>
+      <c r="H99" s="2">
+        <v>44728</v>
+      </c>
+      <c r="I99" s="1">
+        <v>46</v>
+      </c>
       <c r="J99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="N99" s="2">
+        <v>44740</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0</v>
+      </c>
+      <c r="P99" s="1">
+        <v>1014</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>1</v>
+      </c>
+      <c r="R99" s="1">
+        <v>1500</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>302</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="1">
+        <v>200</v>
+      </c>
+      <c r="D100" s="2">
+        <v>44718</v>
+      </c>
+      <c r="E100" s="1">
+        <v>70</v>
+      </c>
+      <c r="F100" s="2">
+        <v>44728</v>
+      </c>
+      <c r="G100" s="1">
+        <v>70</v>
+      </c>
+      <c r="H100" s="2">
+        <v>44740</v>
+      </c>
+      <c r="I100" s="1">
+        <v>15</v>
+      </c>
+      <c r="J100" s="2">
+        <v>44747</v>
+      </c>
+      <c r="K100" s="1">
+        <v>12</v>
+      </c>
+      <c r="L100" s="2">
+        <v>44748</v>
+      </c>
+      <c r="M100" s="1">
+        <v>20</v>
+      </c>
+      <c r="N100" s="2">
+        <v>44750</v>
+      </c>
+      <c r="O100" s="1">
+        <v>0</v>
+      </c>
+      <c r="P100" s="1">
+        <v>123</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>1</v>
+      </c>
+      <c r="R100" s="1">
+        <v>200</v>
+      </c>
+      <c r="V100" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>303</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="1">
+        <v>145</v>
+      </c>
+      <c r="D101" s="2">
+        <v>44728</v>
+      </c>
+      <c r="E101" s="1">
+        <v>8</v>
+      </c>
+      <c r="F101" s="2">
+        <v>44740</v>
+      </c>
+      <c r="G101" s="1">
+        <v>8</v>
+      </c>
+      <c r="H101" s="2">
+        <v>44747</v>
+      </c>
+      <c r="I101" s="1">
+        <v>20</v>
+      </c>
+      <c r="J101" s="2">
+        <v>44748</v>
+      </c>
+      <c r="K101" s="1">
+        <v>7</v>
+      </c>
+      <c r="V101" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>304</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="1">
+        <v>200</v>
+      </c>
+      <c r="D102" s="2">
+        <v>44728</v>
+      </c>
+      <c r="E102" s="1">
+        <v>55</v>
+      </c>
+      <c r="F102" s="2">
+        <v>44740</v>
+      </c>
+      <c r="G102" s="1">
+        <v>55</v>
+      </c>
+      <c r="H102" s="2">
+        <v>44747</v>
+      </c>
+      <c r="I102" s="1">
+        <v>63</v>
+      </c>
+      <c r="J102" s="2">
+        <v>44748</v>
+      </c>
+      <c r="K102" s="1">
+        <v>45</v>
+      </c>
+      <c r="V102" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>305</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="1">
+        <v>200</v>
+      </c>
+      <c r="D103" s="2">
+        <v>44740</v>
+      </c>
+      <c r="E103" s="1">
+        <v>7</v>
+      </c>
+      <c r="F103" s="2">
+        <v>44747</v>
+      </c>
+      <c r="G103" s="1">
+        <v>7</v>
+      </c>
+      <c r="H103" s="2">
+        <v>44747</v>
+      </c>
+      <c r="I103" s="1">
+        <v>42</v>
+      </c>
+      <c r="V103" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>306</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="1">
+        <v>115</v>
+      </c>
+      <c r="D104" s="2">
+        <v>44740</v>
+      </c>
+      <c r="E104" s="1">
+        <v>33</v>
+      </c>
+      <c r="F104" s="2">
+        <v>44747</v>
+      </c>
+      <c r="G104" s="1">
+        <v>33</v>
+      </c>
+      <c r="H104" s="2">
+        <v>44747</v>
+      </c>
+      <c r="I104" s="1">
+        <v>66</v>
+      </c>
+      <c r="V104" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>301</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="1">
+        <v>100</v>
+      </c>
+      <c r="V105" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.511811023622047" footer="0.511811023622047"/>
